--- a/BackTest/2019-10-30 BackTest ICX.xlsx
+++ b/BackTest/2019-10-30 BackTest ICX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N102"/>
+  <dimension ref="A1:M131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>MA60</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C2" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D2" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E2" t="n">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F2" t="n">
-        <v>55941.2327</v>
+        <v>102.04</v>
       </c>
       <c r="G2" t="n">
-        <v>194.2666666666667</v>
+        <v>-20399.38137070707</v>
       </c>
       <c r="H2" t="n">
-        <v>196.7666666666667</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,42 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C3" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D3" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E3" t="n">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F3" t="n">
-        <v>58279.8908</v>
+        <v>204.08</v>
       </c>
       <c r="G3" t="n">
-        <v>194.2666666666667</v>
+        <v>-20399.38137070707</v>
       </c>
       <c r="H3" t="n">
-        <v>196.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>195</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -520,42 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C4" t="n">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D4" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E4" t="n">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F4" t="n">
-        <v>30420.0315</v>
+        <v>408.16</v>
       </c>
       <c r="G4" t="n">
-        <v>194.2</v>
+        <v>-20399.38137070707</v>
       </c>
       <c r="H4" t="n">
-        <v>196.55</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>195</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -564,7 +538,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C5" t="n">
         <v>196</v>
@@ -573,33 +547,24 @@
         <v>196</v>
       </c>
       <c r="E5" t="n">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F5" t="n">
-        <v>32515.3618</v>
+        <v>612.24</v>
       </c>
       <c r="G5" t="n">
-        <v>194.2</v>
+        <v>-20399.38137070707</v>
       </c>
       <c r="H5" t="n">
-        <v>196.4666666666667</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>194</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -608,42 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C6" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D6" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E6" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F6" t="n">
-        <v>1340352</v>
+        <v>714.28</v>
       </c>
       <c r="G6" t="n">
-        <v>194.2</v>
+        <v>-20399.38137070707</v>
       </c>
       <c r="H6" t="n">
-        <v>196.3666666666667</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>196</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -652,40 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C7" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D7" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E7" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F7" t="n">
-        <v>308392</v>
+        <v>816.3200000000001</v>
       </c>
       <c r="G7" t="n">
-        <v>194.2666666666667</v>
+        <v>-20399.38137070707</v>
       </c>
       <c r="H7" t="n">
-        <v>196.3</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -694,40 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C8" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D8" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E8" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F8" t="n">
-        <v>1340000</v>
+        <v>204.08</v>
       </c>
       <c r="G8" t="n">
-        <v>194.3333333333333</v>
+        <v>-20399.38137070707</v>
       </c>
       <c r="H8" t="n">
-        <v>196.2333333333333</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -736,42 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C9" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D9" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E9" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F9" t="n">
-        <v>1385000</v>
+        <v>408.16</v>
       </c>
       <c r="G9" t="n">
-        <v>194.4</v>
+        <v>-20399.38137070707</v>
       </c>
       <c r="H9" t="n">
-        <v>196.1666666666667</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>195</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,40 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C10" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D10" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E10" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F10" t="n">
-        <v>1350000</v>
+        <v>1962.4348</v>
       </c>
       <c r="G10" t="n">
-        <v>194.4666666666667</v>
+        <v>-20399.38137070707</v>
       </c>
       <c r="H10" t="n">
-        <v>196.1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -822,40 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C11" t="n">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D11" t="n">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E11" t="n">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F11" t="n">
-        <v>1350000</v>
+        <v>50</v>
       </c>
       <c r="G11" t="n">
-        <v>194.6</v>
+        <v>-20349.38137070707</v>
       </c>
       <c r="H11" t="n">
-        <v>196.0333333333333</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -864,42 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C12" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D12" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E12" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F12" t="n">
-        <v>1365000</v>
+        <v>168.5393</v>
       </c>
       <c r="G12" t="n">
-        <v>194.7333333333333</v>
+        <v>-20517.92067070707</v>
       </c>
       <c r="H12" t="n">
-        <v>195.9666666666667</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>195</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -908,42 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C13" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D13" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E13" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F13" t="n">
-        <v>1365000</v>
+        <v>168.5393</v>
       </c>
       <c r="G13" t="n">
-        <v>194.8666666666667</v>
+        <v>-20517.92067070707</v>
       </c>
       <c r="H13" t="n">
-        <v>195.9</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
       </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>195</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -964,30 +865,23 @@
         <v>195</v>
       </c>
       <c r="F14" t="n">
-        <v>1350000</v>
+        <v>337.8378</v>
       </c>
       <c r="G14" t="n">
-        <v>194.9333333333333</v>
+        <v>-20855.75847070707</v>
       </c>
       <c r="H14" t="n">
-        <v>195.8333333333333</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>195</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1006,28 +900,21 @@
         <v>195</v>
       </c>
       <c r="F15" t="n">
-        <v>1335000</v>
+        <v>337.8378</v>
       </c>
       <c r="G15" t="n">
-        <v>195</v>
+        <v>-20855.75847070707</v>
       </c>
       <c r="H15" t="n">
-        <v>195.7666666666667</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>195</v>
-      </c>
-      <c r="L15" t="n">
-        <v>195</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1048,120 +935,111 @@
         <v>195</v>
       </c>
       <c r="F16" t="n">
-        <v>1336049.8164</v>
+        <v>168.9189</v>
       </c>
       <c r="G16" t="n">
-        <v>195</v>
+        <v>-20855.75847070707</v>
       </c>
       <c r="H16" t="n">
-        <v>195.7</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>195</v>
       </c>
       <c r="K16" t="n">
         <v>195</v>
       </c>
-      <c r="L16" t="n">
-        <v>195</v>
-      </c>
-      <c r="M16" t="inlineStr">
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>195</v>
+      </c>
+      <c r="C17" t="n">
+        <v>195</v>
+      </c>
+      <c r="D17" t="n">
+        <v>195</v>
+      </c>
+      <c r="E17" t="n">
+        <v>195</v>
+      </c>
+      <c r="F17" t="n">
+        <v>506.3771</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-20855.75847070707</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>195</v>
+      </c>
+      <c r="K17" t="n">
+        <v>195</v>
+      </c>
+      <c r="L17" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="N16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>195</v>
-      </c>
-      <c r="C17" t="n">
-        <v>195</v>
-      </c>
-      <c r="D17" t="n">
-        <v>195</v>
-      </c>
-      <c r="E17" t="n">
-        <v>195</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1373950.1836</v>
-      </c>
-      <c r="G17" t="n">
-        <v>195</v>
-      </c>
-      <c r="H17" t="n">
-        <v>195.6166666666667</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>195</v>
-      </c>
-      <c r="L17" t="n">
-        <v>195</v>
-      </c>
-      <c r="M17" t="inlineStr">
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>195</v>
+      </c>
+      <c r="C18" t="n">
+        <v>195</v>
+      </c>
+      <c r="D18" t="n">
+        <v>195</v>
+      </c>
+      <c r="E18" t="n">
+        <v>195</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1961.6235</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-20855.75847070707</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>195</v>
+      </c>
+      <c r="K18" t="n">
+        <v>195</v>
+      </c>
+      <c r="L18" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="N17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>195</v>
-      </c>
-      <c r="C18" t="n">
-        <v>195</v>
-      </c>
-      <c r="D18" t="n">
-        <v>195</v>
-      </c>
-      <c r="E18" t="n">
-        <v>195</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1330000</v>
-      </c>
-      <c r="G18" t="n">
-        <v>195</v>
-      </c>
-      <c r="H18" t="n">
-        <v>195.5666666666667</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>195</v>
-      </c>
-      <c r="L18" t="n">
-        <v>195</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1170,44 +1048,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C19" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D19" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E19" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F19" t="n">
-        <v>726049.8164</v>
+        <v>2.0408</v>
       </c>
       <c r="G19" t="n">
-        <v>195.0666666666667</v>
+        <v>-20853.71767070707</v>
       </c>
       <c r="H19" t="n">
-        <v>195.5166666666667</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>195</v>
-      </c>
-      <c r="L19" t="n">
-        <v>195</v>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1216,44 +1083,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C20" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D20" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E20" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F20" t="n">
-        <v>260000</v>
+        <v>6168.0199</v>
       </c>
       <c r="G20" t="n">
-        <v>194.9333333333333</v>
+        <v>-27021.73757070707</v>
       </c>
       <c r="H20" t="n">
-        <v>195.45</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>195</v>
-      </c>
-      <c r="L20" t="n">
-        <v>195</v>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1262,40 +1118,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C21" t="n">
         <v>194</v>
       </c>
       <c r="D21" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E21" t="n">
         <v>194</v>
       </c>
       <c r="F21" t="n">
-        <v>2730000</v>
+        <v>5077.9714</v>
       </c>
       <c r="G21" t="n">
-        <v>194.8666666666667</v>
+        <v>-32099.70897070707</v>
       </c>
       <c r="H21" t="n">
-        <v>195.3833333333333</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>194</v>
-      </c>
-      <c r="L21" t="n">
-        <v>194</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1316,30 +1165,21 @@
         <v>194</v>
       </c>
       <c r="F22" t="n">
-        <v>1224150.5972</v>
+        <v>824.72</v>
       </c>
       <c r="G22" t="n">
-        <v>194.8</v>
+        <v>-32099.70897070707</v>
       </c>
       <c r="H22" t="n">
-        <v>195.3166666666667</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>194</v>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N22" t="n">
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1360,30 +1200,21 @@
         <v>194</v>
       </c>
       <c r="F23" t="n">
-        <v>2700000</v>
+        <v>824.72</v>
       </c>
       <c r="G23" t="n">
-        <v>194.7333333333333</v>
+        <v>-32099.70897070707</v>
       </c>
       <c r="H23" t="n">
-        <v>195.25</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>194</v>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N23" t="n">
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1404,24 +1235,21 @@
         <v>194</v>
       </c>
       <c r="F24" t="n">
-        <v>2734102.564</v>
+        <v>395.279</v>
       </c>
       <c r="G24" t="n">
-        <v>194.6666666666667</v>
+        <v>-32099.70897070707</v>
       </c>
       <c r="H24" t="n">
-        <v>195.1833333333333</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1430,36 +1258,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C25" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D25" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E25" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F25" t="n">
-        <v>2748205.128</v>
+        <v>103.62</v>
       </c>
       <c r="G25" t="n">
-        <v>194.6</v>
+        <v>-32203.32897070707</v>
       </c>
       <c r="H25" t="n">
-        <v>195.1166666666667</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1468,36 +1293,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C26" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D26" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E26" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F26" t="n">
-        <v>2660000</v>
+        <v>103.62</v>
       </c>
       <c r="G26" t="n">
-        <v>194.5333333333333</v>
+        <v>-32203.32897070707</v>
       </c>
       <c r="H26" t="n">
-        <v>195.05</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1506,36 +1328,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C27" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D27" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E27" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F27" t="n">
-        <v>2708383.1022</v>
+        <v>207.24</v>
       </c>
       <c r="G27" t="n">
-        <v>194.4666666666667</v>
+        <v>-32203.32897070707</v>
       </c>
       <c r="H27" t="n">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1544,7 +1363,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C28" t="n">
         <v>194</v>
@@ -1553,27 +1372,24 @@
         <v>194</v>
       </c>
       <c r="E28" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F28" t="n">
-        <v>2690000</v>
+        <v>120.701</v>
       </c>
       <c r="G28" t="n">
-        <v>194.4</v>
+        <v>-32082.62797070707</v>
       </c>
       <c r="H28" t="n">
-        <v>194.9666666666667</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1594,24 +1410,21 @@
         <v>194</v>
       </c>
       <c r="F29" t="n">
-        <v>2681616.8978</v>
+        <v>11207.2157</v>
       </c>
       <c r="G29" t="n">
-        <v>194.3333333333333</v>
+        <v>-32082.62797070707</v>
       </c>
       <c r="H29" t="n">
-        <v>194.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1623,33 +1436,30 @@
         <v>194</v>
       </c>
       <c r="C30" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D30" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E30" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F30" t="n">
-        <v>2658383.1022</v>
+        <v>35254.7269</v>
       </c>
       <c r="G30" t="n">
-        <v>194.2666666666667</v>
+        <v>3172.098929292933</v>
       </c>
       <c r="H30" t="n">
-        <v>194.9</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1661,33 +1471,30 @@
         <v>194</v>
       </c>
       <c r="C31" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D31" t="n">
         <v>195</v>
       </c>
       <c r="E31" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F31" t="n">
-        <v>2664594.723</v>
+        <v>55941.2327</v>
       </c>
       <c r="G31" t="n">
-        <v>194.2</v>
+        <v>3172.098929292933</v>
       </c>
       <c r="H31" t="n">
-        <v>194.8666666666667</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1696,36 +1503,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C32" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D32" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E32" t="n">
         <v>194</v>
       </c>
       <c r="F32" t="n">
-        <v>2690000</v>
+        <v>58279.8908</v>
       </c>
       <c r="G32" t="n">
-        <v>194.1333333333333</v>
+        <v>3172.098929292933</v>
       </c>
       <c r="H32" t="n">
-        <v>194.8333333333333</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1734,36 +1538,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C33" t="n">
         <v>194</v>
       </c>
       <c r="D33" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E33" t="n">
         <v>194</v>
       </c>
       <c r="F33" t="n">
-        <v>830000</v>
+        <v>30420.0315</v>
       </c>
       <c r="G33" t="n">
-        <v>194.0666666666667</v>
+        <v>-27247.93257070707</v>
       </c>
       <c r="H33" t="n">
-        <v>194.8</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1775,33 +1576,30 @@
         <v>194</v>
       </c>
       <c r="C34" t="n">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D34" t="n">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E34" t="n">
         <v>194</v>
       </c>
       <c r="F34" t="n">
-        <v>134.0326</v>
+        <v>32515.3618</v>
       </c>
       <c r="G34" t="n">
-        <v>194</v>
+        <v>5267.429229292931</v>
       </c>
       <c r="H34" t="n">
-        <v>194.7666666666667</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1810,36 +1608,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C35" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D35" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E35" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F35" t="n">
-        <v>14726.0999</v>
+        <v>1340352</v>
       </c>
       <c r="G35" t="n">
-        <v>194</v>
+        <v>-1335084.570770707</v>
       </c>
       <c r="H35" t="n">
-        <v>194.7333333333333</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,36 +1643,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C36" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D36" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E36" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F36" t="n">
-        <v>361306.1609</v>
+        <v>308392</v>
       </c>
       <c r="G36" t="n">
-        <v>194</v>
+        <v>-1335084.570770707</v>
       </c>
       <c r="H36" t="n">
-        <v>194.7</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1886,40 +1678,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C37" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D37" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E37" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F37" t="n">
-        <v>2680082.564</v>
+        <v>1340000</v>
       </c>
       <c r="G37" t="n">
-        <v>194</v>
+        <v>-1335084.570770707</v>
       </c>
       <c r="H37" t="n">
-        <v>194.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>194</v>
-      </c>
-      <c r="L37" t="n">
-        <v>194</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1928,42 +1713,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C38" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D38" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E38" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F38" t="n">
-        <v>2695950</v>
+        <v>1385000</v>
       </c>
       <c r="G38" t="n">
-        <v>194</v>
+        <v>-1335084.570770707</v>
       </c>
       <c r="H38" t="n">
-        <v>194.6333333333333</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>194</v>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N38" t="n">
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1972,42 +1748,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C39" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D39" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E39" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F39" t="n">
-        <v>2705935</v>
+        <v>1350000</v>
       </c>
       <c r="G39" t="n">
-        <v>194</v>
+        <v>-1335084.570770707</v>
       </c>
       <c r="H39" t="n">
-        <v>194.6</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>194</v>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N39" t="n">
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2016,36 +1783,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C40" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D40" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E40" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F40" t="n">
-        <v>2708191.4031</v>
+        <v>1350000</v>
       </c>
       <c r="G40" t="n">
-        <v>194</v>
+        <v>-1335084.570770707</v>
       </c>
       <c r="H40" t="n">
-        <v>194.5666666666667</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2054,36 +1818,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C41" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D41" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E41" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F41" t="n">
-        <v>2556160</v>
+        <v>1365000</v>
       </c>
       <c r="G41" t="n">
-        <v>194</v>
+        <v>-1335084.570770707</v>
       </c>
       <c r="H41" t="n">
-        <v>194.5333333333333</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2104,24 +1865,21 @@
         <v>195</v>
       </c>
       <c r="F42" t="n">
-        <v>197400</v>
+        <v>1365000</v>
       </c>
       <c r="G42" t="n">
-        <v>194.0666666666667</v>
+        <v>-1335084.570770707</v>
       </c>
       <c r="H42" t="n">
-        <v>194.4833333333333</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2142,24 +1900,21 @@
         <v>195</v>
       </c>
       <c r="F43" t="n">
-        <v>1342762.4794</v>
+        <v>1350000</v>
       </c>
       <c r="G43" t="n">
-        <v>194.1333333333333</v>
+        <v>-1335084.570770707</v>
       </c>
       <c r="H43" t="n">
-        <v>194.4666666666667</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2180,24 +1935,21 @@
         <v>195</v>
       </c>
       <c r="F44" t="n">
-        <v>30145</v>
+        <v>1335000</v>
       </c>
       <c r="G44" t="n">
-        <v>194.2</v>
+        <v>-1335084.570770707</v>
       </c>
       <c r="H44" t="n">
-        <v>194.45</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2209,33 +1961,30 @@
         <v>195</v>
       </c>
       <c r="C45" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D45" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E45" t="n">
         <v>195</v>
       </c>
       <c r="F45" t="n">
-        <v>2.9846</v>
+        <v>1336049.8164</v>
       </c>
       <c r="G45" t="n">
-        <v>194.3333333333333</v>
+        <v>-1335084.570770707</v>
       </c>
       <c r="H45" t="n">
-        <v>194.4666666666667</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2256,24 +2005,21 @@
         <v>195</v>
       </c>
       <c r="F46" t="n">
-        <v>723000</v>
+        <v>1373950.1836</v>
       </c>
       <c r="G46" t="n">
-        <v>194.4</v>
+        <v>-1335084.570770707</v>
       </c>
       <c r="H46" t="n">
-        <v>194.4666666666667</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2294,24 +2040,21 @@
         <v>195</v>
       </c>
       <c r="F47" t="n">
-        <v>801341.5103</v>
+        <v>1330000</v>
       </c>
       <c r="G47" t="n">
-        <v>194.4666666666667</v>
+        <v>-1335084.570770707</v>
       </c>
       <c r="H47" t="n">
-        <v>194.4666666666667</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2332,24 +2075,21 @@
         <v>195</v>
       </c>
       <c r="F48" t="n">
-        <v>806658.4897</v>
+        <v>726049.8164</v>
       </c>
       <c r="G48" t="n">
-        <v>194.5333333333333</v>
+        <v>-1335084.570770707</v>
       </c>
       <c r="H48" t="n">
-        <v>194.4666666666667</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2358,36 +2098,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C49" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D49" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E49" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F49" t="n">
-        <v>810000</v>
+        <v>260000</v>
       </c>
       <c r="G49" t="n">
-        <v>194.6</v>
+        <v>-1595084.570770707</v>
       </c>
       <c r="H49" t="n">
-        <v>194.4666666666667</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2396,36 +2133,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C50" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D50" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E50" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F50" t="n">
-        <v>810000</v>
+        <v>2730000</v>
       </c>
       <c r="G50" t="n">
-        <v>194.6666666666667</v>
+        <v>-1595084.570770707</v>
       </c>
       <c r="H50" t="n">
-        <v>194.45</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2434,36 +2168,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C51" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D51" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E51" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F51" t="n">
-        <v>807000</v>
+        <v>1224150.5972</v>
       </c>
       <c r="G51" t="n">
-        <v>194.7333333333333</v>
+        <v>-1595084.570770707</v>
       </c>
       <c r="H51" t="n">
-        <v>194.45</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2472,36 +2203,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C52" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D52" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E52" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F52" t="n">
-        <v>807000</v>
+        <v>2700000</v>
       </c>
       <c r="G52" t="n">
-        <v>194.8</v>
+        <v>-1595084.570770707</v>
       </c>
       <c r="H52" t="n">
-        <v>194.4666666666667</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2510,36 +2238,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C53" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D53" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E53" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F53" t="n">
-        <v>804000</v>
+        <v>2734102.564</v>
       </c>
       <c r="G53" t="n">
-        <v>194.8666666666667</v>
+        <v>-1595084.570770707</v>
       </c>
       <c r="H53" t="n">
-        <v>194.4833333333333</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,36 +2273,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C54" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D54" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E54" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F54" t="n">
-        <v>810000</v>
+        <v>2748205.128</v>
       </c>
       <c r="G54" t="n">
-        <v>194.9333333333333</v>
+        <v>-1595084.570770707</v>
       </c>
       <c r="H54" t="n">
-        <v>194.5</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2586,36 +2308,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C55" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D55" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E55" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F55" t="n">
-        <v>786000</v>
+        <v>2660000</v>
       </c>
       <c r="G55" t="n">
-        <v>195</v>
+        <v>-1595084.570770707</v>
       </c>
       <c r="H55" t="n">
-        <v>194.5166666666667</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2624,36 +2343,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C56" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D56" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E56" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F56" t="n">
-        <v>798238.7772</v>
+        <v>2708383.1022</v>
       </c>
       <c r="G56" t="n">
-        <v>195.0666666666667</v>
+        <v>-1595084.570770707</v>
       </c>
       <c r="H56" t="n">
-        <v>194.55</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2662,36 +2378,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C57" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D57" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E57" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F57" t="n">
-        <v>855998</v>
+        <v>2690000</v>
       </c>
       <c r="G57" t="n">
-        <v>195.0666666666667</v>
+        <v>-1595084.570770707</v>
       </c>
       <c r="H57" t="n">
-        <v>194.5833333333333</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2700,36 +2413,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C58" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D58" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E58" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F58" t="n">
-        <v>988806</v>
+        <v>2681616.8978</v>
       </c>
       <c r="G58" t="n">
-        <v>195.0666666666667</v>
+        <v>-1595084.570770707</v>
       </c>
       <c r="H58" t="n">
-        <v>194.6166666666667</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2738,36 +2448,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C59" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D59" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E59" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F59" t="n">
-        <v>985184</v>
+        <v>2658383.1022</v>
       </c>
       <c r="G59" t="n">
-        <v>195.0666666666667</v>
+        <v>-1595084.570770707</v>
       </c>
       <c r="H59" t="n">
-        <v>194.6333333333333</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2776,36 +2483,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C60" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D60" t="n">
         <v>195</v>
       </c>
       <c r="E60" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F60" t="n">
-        <v>974318</v>
+        <v>2664594.723</v>
       </c>
       <c r="G60" t="n">
-        <v>195</v>
+        <v>-1595084.570770707</v>
       </c>
       <c r="H60" t="n">
-        <v>194.65</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2814,36 +2518,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C61" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D61" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E61" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F61" t="n">
-        <v>967074</v>
+        <v>2690000</v>
       </c>
       <c r="G61" t="n">
-        <v>195</v>
+        <v>-1595084.570770707</v>
       </c>
       <c r="H61" t="n">
-        <v>194.65</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2852,36 +2553,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C62" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D62" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E62" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F62" t="n">
-        <v>963452</v>
+        <v>830000</v>
       </c>
       <c r="G62" t="n">
-        <v>195</v>
+        <v>-1595084.570770707</v>
       </c>
       <c r="H62" t="n">
-        <v>194.65</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2890,36 +2588,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C63" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D63" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E63" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F63" t="n">
-        <v>987562</v>
+        <v>134.0326</v>
       </c>
       <c r="G63" t="n">
-        <v>195</v>
+        <v>-1595084.570770707</v>
       </c>
       <c r="H63" t="n">
-        <v>194.65</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2928,36 +2623,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C64" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D64" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E64" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F64" t="n">
-        <v>967176.7331</v>
+        <v>14726.0999</v>
       </c>
       <c r="G64" t="n">
-        <v>195</v>
+        <v>-1595084.570770707</v>
       </c>
       <c r="H64" t="n">
-        <v>194.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2966,36 +2658,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C65" t="n">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D65" t="n">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E65" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F65" t="n">
-        <v>449193</v>
+        <v>361306.1609</v>
       </c>
       <c r="G65" t="n">
-        <v>195.0666666666667</v>
+        <v>-1595084.570770707</v>
       </c>
       <c r="H65" t="n">
-        <v>194.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3004,40 +2693,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C66" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D66" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E66" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F66" t="n">
-        <v>2472854</v>
+        <v>2680082.564</v>
       </c>
       <c r="G66" t="n">
-        <v>195.0666666666667</v>
+        <v>-1595084.570770707</v>
       </c>
       <c r="H66" t="n">
-        <v>194.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" t="n">
-        <v>196</v>
-      </c>
-      <c r="L66" t="n">
-        <v>196</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3046,42 +2728,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C67" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D67" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E67" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F67" t="n">
-        <v>2578696</v>
+        <v>2695950</v>
       </c>
       <c r="G67" t="n">
-        <v>195.0666666666667</v>
+        <v>-1595084.570770707</v>
       </c>
       <c r="H67" t="n">
-        <v>194.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>196</v>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N67" t="n">
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3090,42 +2763,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C68" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D68" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E68" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F68" t="n">
-        <v>2597940</v>
+        <v>2705935</v>
       </c>
       <c r="G68" t="n">
-        <v>195.0666666666667</v>
+        <v>-1595084.570770707</v>
       </c>
       <c r="H68" t="n">
-        <v>194.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>196</v>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N68" t="n">
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3134,36 +2798,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C69" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D69" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E69" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F69" t="n">
-        <v>2588318</v>
+        <v>2708191.4031</v>
       </c>
       <c r="G69" t="n">
-        <v>195.0666666666667</v>
+        <v>-1595084.570770707</v>
       </c>
       <c r="H69" t="n">
-        <v>194.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3172,36 +2833,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C70" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D70" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E70" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F70" t="n">
-        <v>2486578.564</v>
+        <v>2556160</v>
       </c>
       <c r="G70" t="n">
-        <v>195.0666666666667</v>
+        <v>-1595084.570770707</v>
       </c>
       <c r="H70" t="n">
-        <v>194.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3222,24 +2880,21 @@
         <v>195</v>
       </c>
       <c r="F71" t="n">
-        <v>2574593.436</v>
+        <v>197400</v>
       </c>
       <c r="G71" t="n">
-        <v>195.0666666666667</v>
+        <v>-1397684.570770707</v>
       </c>
       <c r="H71" t="n">
-        <v>194.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3260,24 +2915,21 @@
         <v>195</v>
       </c>
       <c r="F72" t="n">
-        <v>1202750</v>
+        <v>1342762.4794</v>
       </c>
       <c r="G72" t="n">
-        <v>195.0666666666667</v>
+        <v>-1397684.570770707</v>
       </c>
       <c r="H72" t="n">
-        <v>194.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3298,24 +2950,21 @@
         <v>195</v>
       </c>
       <c r="F73" t="n">
-        <v>1158742.564</v>
+        <v>30145</v>
       </c>
       <c r="G73" t="n">
-        <v>195.0666666666667</v>
+        <v>-1397684.570770707</v>
       </c>
       <c r="H73" t="n">
-        <v>194.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3327,33 +2976,30 @@
         <v>195</v>
       </c>
       <c r="C74" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D74" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E74" t="n">
         <v>195</v>
       </c>
       <c r="F74" t="n">
-        <v>2597940</v>
+        <v>2.9846</v>
       </c>
       <c r="G74" t="n">
-        <v>195.0666666666667</v>
+        <v>-1397681.586170707</v>
       </c>
       <c r="H74" t="n">
-        <v>194.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3374,24 +3020,21 @@
         <v>195</v>
       </c>
       <c r="F75" t="n">
-        <v>769760</v>
+        <v>723000</v>
       </c>
       <c r="G75" t="n">
-        <v>195.0666666666667</v>
+        <v>-2120681.586170707</v>
       </c>
       <c r="H75" t="n">
-        <v>194.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3412,24 +3055,21 @@
         <v>195</v>
       </c>
       <c r="F76" t="n">
-        <v>11292.9021</v>
+        <v>801341.5103</v>
       </c>
       <c r="G76" t="n">
-        <v>195.0666666666667</v>
+        <v>-2120681.586170707</v>
       </c>
       <c r="H76" t="n">
-        <v>194.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3438,36 +3078,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C77" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D77" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E77" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F77" t="n">
-        <v>17.2602</v>
+        <v>806658.4897</v>
       </c>
       <c r="G77" t="n">
-        <v>195.1333333333333</v>
+        <v>-2120681.586170707</v>
       </c>
       <c r="H77" t="n">
-        <v>194.6833333333333</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3488,24 +3125,21 @@
         <v>195</v>
       </c>
       <c r="F78" t="n">
-        <v>2630.6363</v>
+        <v>810000</v>
       </c>
       <c r="G78" t="n">
-        <v>195.1333333333333</v>
+        <v>-2120681.586170707</v>
       </c>
       <c r="H78" t="n">
-        <v>194.6833333333333</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3526,24 +3160,21 @@
         <v>195</v>
       </c>
       <c r="F79" t="n">
-        <v>4583.2158</v>
+        <v>810000</v>
       </c>
       <c r="G79" t="n">
-        <v>195.1333333333333</v>
+        <v>-2120681.586170707</v>
       </c>
       <c r="H79" t="n">
-        <v>194.6833333333333</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3552,36 +3183,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C80" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D80" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E80" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F80" t="n">
-        <v>2775.270408163266</v>
+        <v>807000</v>
       </c>
       <c r="G80" t="n">
-        <v>195.1333333333333</v>
+        <v>-2120681.586170707</v>
       </c>
       <c r="H80" t="n">
-        <v>194.7166666666667</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3602,24 +3230,21 @@
         <v>195</v>
       </c>
       <c r="F81" t="n">
-        <v>5000</v>
+        <v>807000</v>
       </c>
       <c r="G81" t="n">
-        <v>195.1333333333333</v>
+        <v>-2120681.586170707</v>
       </c>
       <c r="H81" t="n">
-        <v>194.7333333333333</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3640,24 +3265,21 @@
         <v>195</v>
       </c>
       <c r="F82" t="n">
-        <v>4142.9536</v>
+        <v>804000</v>
       </c>
       <c r="G82" t="n">
-        <v>195.1333333333333</v>
+        <v>-2120681.586170707</v>
       </c>
       <c r="H82" t="n">
-        <v>194.75</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3666,36 +3288,33 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C83" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D83" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E83" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F83" t="n">
-        <v>13817.8933</v>
+        <v>810000</v>
       </c>
       <c r="G83" t="n">
-        <v>195.2</v>
+        <v>-2120681.586170707</v>
       </c>
       <c r="H83" t="n">
-        <v>194.7833333333333</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3704,36 +3323,33 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C84" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D84" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E84" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F84" t="n">
-        <v>4482.572691836735</v>
+        <v>786000</v>
       </c>
       <c r="G84" t="n">
-        <v>195.2666666666667</v>
+        <v>-2120681.586170707</v>
       </c>
       <c r="H84" t="n">
-        <v>194.8166666666667</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3742,36 +3358,33 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C85" t="n">
         <v>195</v>
       </c>
       <c r="D85" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E85" t="n">
         <v>195</v>
       </c>
       <c r="F85" t="n">
-        <v>29446.639</v>
+        <v>798238.7772</v>
       </c>
       <c r="G85" t="n">
-        <v>195.2666666666667</v>
+        <v>-2120681.586170707</v>
       </c>
       <c r="H85" t="n">
-        <v>194.8333333333333</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3792,24 +3405,21 @@
         <v>195</v>
       </c>
       <c r="F86" t="n">
-        <v>6015.8114</v>
+        <v>855998</v>
       </c>
       <c r="G86" t="n">
-        <v>195.2666666666667</v>
+        <v>-2120681.586170707</v>
       </c>
       <c r="H86" t="n">
-        <v>194.85</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3818,36 +3428,33 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C87" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D87" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E87" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F87" t="n">
-        <v>201.7945</v>
+        <v>988806</v>
       </c>
       <c r="G87" t="n">
-        <v>195.3333333333333</v>
+        <v>-2120681.586170707</v>
       </c>
       <c r="H87" t="n">
-        <v>194.8833333333333</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3856,36 +3463,33 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C88" t="n">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D88" t="n">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E88" t="n">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F88" t="n">
-        <v>17.7020202020202</v>
+        <v>985184</v>
       </c>
       <c r="G88" t="n">
-        <v>195.5333333333333</v>
+        <v>-2120681.586170707</v>
       </c>
       <c r="H88" t="n">
-        <v>194.95</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3894,36 +3498,33 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C89" t="n">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D89" t="n">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E89" t="n">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F89" t="n">
-        <v>1.0656</v>
+        <v>974318</v>
       </c>
       <c r="G89" t="n">
-        <v>195.7333333333333</v>
+        <v>-2120681.586170707</v>
       </c>
       <c r="H89" t="n">
-        <v>195.0166666666667</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3932,36 +3533,33 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C90" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D90" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E90" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F90" t="n">
-        <v>2.9925</v>
+        <v>967074</v>
       </c>
       <c r="G90" t="n">
-        <v>195.8</v>
+        <v>-2120681.586170707</v>
       </c>
       <c r="H90" t="n">
-        <v>195.05</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3970,36 +3568,33 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C91" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D91" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E91" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F91" t="n">
-        <v>8187.2198</v>
+        <v>963452</v>
       </c>
       <c r="G91" t="n">
-        <v>195.8666666666667</v>
+        <v>-2120681.586170707</v>
       </c>
       <c r="H91" t="n">
-        <v>195.0833333333333</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4008,36 +3603,33 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C92" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D92" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E92" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F92" t="n">
-        <v>5128.2051</v>
+        <v>987562</v>
       </c>
       <c r="G92" t="n">
-        <v>195.8666666666667</v>
+        <v>-2120681.586170707</v>
       </c>
       <c r="H92" t="n">
-        <v>195.1166666666667</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4046,36 +3638,33 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C93" t="n">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D93" t="n">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E93" t="n">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F93" t="n">
-        <v>1.0654</v>
+        <v>967176.7331</v>
       </c>
       <c r="G93" t="n">
-        <v>196.0666666666667</v>
+        <v>-2120681.586170707</v>
       </c>
       <c r="H93" t="n">
-        <v>195.1833333333333</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4084,7 +3673,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C94" t="n">
         <v>196</v>
@@ -4093,27 +3682,24 @@
         <v>196</v>
       </c>
       <c r="E94" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F94" t="n">
-        <v>4871.0894</v>
+        <v>449193</v>
       </c>
       <c r="G94" t="n">
-        <v>196.1333333333333</v>
+        <v>-1671488.586170707</v>
       </c>
       <c r="H94" t="n">
-        <v>195.2166666666667</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4122,36 +3708,33 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C95" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D95" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E95" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F95" t="n">
-        <v>428.5193</v>
+        <v>2472854</v>
       </c>
       <c r="G95" t="n">
-        <v>196.1333333333333</v>
+        <v>-4144342.586170707</v>
       </c>
       <c r="H95" t="n">
-        <v>195.25</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4172,24 +3755,21 @@
         <v>195</v>
       </c>
       <c r="F96" t="n">
-        <v>86.7377</v>
+        <v>2578696</v>
       </c>
       <c r="G96" t="n">
-        <v>196.1333333333333</v>
+        <v>-4144342.586170707</v>
       </c>
       <c r="H96" t="n">
-        <v>195.2666666666667</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4210,24 +3790,21 @@
         <v>195</v>
       </c>
       <c r="F97" t="n">
-        <v>1044.3742</v>
+        <v>2597940</v>
       </c>
       <c r="G97" t="n">
-        <v>196.1333333333333</v>
+        <v>-4144342.586170707</v>
       </c>
       <c r="H97" t="n">
-        <v>195.2833333333333</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4248,24 +3825,21 @@
         <v>195</v>
       </c>
       <c r="F98" t="n">
-        <v>4000</v>
+        <v>2588318</v>
       </c>
       <c r="G98" t="n">
-        <v>196.0666666666667</v>
+        <v>-4144342.586170707</v>
       </c>
       <c r="H98" t="n">
-        <v>195.3</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4274,36 +3848,33 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C99" t="n">
         <v>195</v>
       </c>
       <c r="D99" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E99" t="n">
         <v>195</v>
       </c>
       <c r="F99" t="n">
-        <v>1571.4642</v>
+        <v>2486578.564</v>
       </c>
       <c r="G99" t="n">
-        <v>196</v>
+        <v>-4144342.586170707</v>
       </c>
       <c r="H99" t="n">
-        <v>195.3166666666667</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4312,40 +3883,33 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C100" t="n">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D100" t="n">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E100" t="n">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F100" t="n">
-        <v>428.5193</v>
+        <v>2574593.436</v>
       </c>
       <c r="G100" t="n">
-        <v>196.1333333333333</v>
+        <v>-4144342.586170707</v>
       </c>
       <c r="H100" t="n">
-        <v>195.3666666666667</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
-      <c r="K100" t="n">
-        <v>195</v>
-      </c>
-      <c r="L100" t="n">
-        <v>195</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4354,42 +3918,33 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C101" t="n">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D101" t="n">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E101" t="n">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F101" t="n">
-        <v>237.5425</v>
+        <v>1202750</v>
       </c>
       <c r="G101" t="n">
-        <v>196.2666666666667</v>
+        <v>-4144342.586170707</v>
       </c>
       <c r="H101" t="n">
-        <v>195.4166666666667</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>195</v>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N101" t="n">
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4398,42 +3953,1048 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
+        <v>195</v>
+      </c>
+      <c r="C102" t="n">
+        <v>195</v>
+      </c>
+      <c r="D102" t="n">
+        <v>195</v>
+      </c>
+      <c r="E102" t="n">
+        <v>195</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1158742.564</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-4144342.586170707</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>195</v>
+      </c>
+      <c r="C103" t="n">
+        <v>195</v>
+      </c>
+      <c r="D103" t="n">
+        <v>195</v>
+      </c>
+      <c r="E103" t="n">
+        <v>195</v>
+      </c>
+      <c r="F103" t="n">
+        <v>2597940</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-4144342.586170707</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>195</v>
+      </c>
+      <c r="C104" t="n">
+        <v>195</v>
+      </c>
+      <c r="D104" t="n">
+        <v>195</v>
+      </c>
+      <c r="E104" t="n">
+        <v>195</v>
+      </c>
+      <c r="F104" t="n">
+        <v>769760</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-4144342.586170707</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>195</v>
+      </c>
+      <c r="C105" t="n">
+        <v>195</v>
+      </c>
+      <c r="D105" t="n">
+        <v>195</v>
+      </c>
+      <c r="E105" t="n">
+        <v>195</v>
+      </c>
+      <c r="F105" t="n">
+        <v>11292.9021</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-4144342.586170707</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>196</v>
+      </c>
+      <c r="C106" t="n">
+        <v>196</v>
+      </c>
+      <c r="D106" t="n">
+        <v>196</v>
+      </c>
+      <c r="E106" t="n">
+        <v>196</v>
+      </c>
+      <c r="F106" t="n">
+        <v>17.2602</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-4144325.325970707</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>195</v>
+      </c>
+      <c r="C107" t="n">
+        <v>195</v>
+      </c>
+      <c r="D107" t="n">
+        <v>195</v>
+      </c>
+      <c r="E107" t="n">
+        <v>195</v>
+      </c>
+      <c r="F107" t="n">
+        <v>2630.6363</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-4146955.962270707</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>195</v>
+      </c>
+      <c r="C108" t="n">
+        <v>195</v>
+      </c>
+      <c r="D108" t="n">
+        <v>195</v>
+      </c>
+      <c r="E108" t="n">
+        <v>195</v>
+      </c>
+      <c r="F108" t="n">
+        <v>4583.2158</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-4146955.962270707</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>196</v>
+      </c>
+      <c r="C109" t="n">
+        <v>196</v>
+      </c>
+      <c r="D109" t="n">
+        <v>196</v>
+      </c>
+      <c r="E109" t="n">
+        <v>196</v>
+      </c>
+      <c r="F109" t="n">
+        <v>2775.270408163266</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-4144180.691862544</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>195</v>
+      </c>
+      <c r="C110" t="n">
+        <v>195</v>
+      </c>
+      <c r="D110" t="n">
+        <v>195</v>
+      </c>
+      <c r="E110" t="n">
+        <v>195</v>
+      </c>
+      <c r="F110" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-4149180.691862544</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>195</v>
+      </c>
+      <c r="C111" t="n">
+        <v>195</v>
+      </c>
+      <c r="D111" t="n">
+        <v>195</v>
+      </c>
+      <c r="E111" t="n">
+        <v>195</v>
+      </c>
+      <c r="F111" t="n">
+        <v>4142.9536</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-4149180.691862544</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>196</v>
+      </c>
+      <c r="C112" t="n">
+        <v>196</v>
+      </c>
+      <c r="D112" t="n">
+        <v>196</v>
+      </c>
+      <c r="E112" t="n">
+        <v>196</v>
+      </c>
+      <c r="F112" t="n">
+        <v>13817.8933</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-4135362.798562543</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>196</v>
+      </c>
+      <c r="C113" t="n">
+        <v>196</v>
+      </c>
+      <c r="D113" t="n">
+        <v>196</v>
+      </c>
+      <c r="E113" t="n">
+        <v>196</v>
+      </c>
+      <c r="F113" t="n">
+        <v>4482.572691836735</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-4135362.798562543</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>196</v>
+      </c>
+      <c r="C114" t="n">
+        <v>195</v>
+      </c>
+      <c r="D114" t="n">
+        <v>196</v>
+      </c>
+      <c r="E114" t="n">
+        <v>195</v>
+      </c>
+      <c r="F114" t="n">
+        <v>29446.639</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-4164809.437562543</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>195</v>
+      </c>
+      <c r="C115" t="n">
+        <v>195</v>
+      </c>
+      <c r="D115" t="n">
+        <v>195</v>
+      </c>
+      <c r="E115" t="n">
+        <v>195</v>
+      </c>
+      <c r="F115" t="n">
+        <v>6015.8114</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-4164809.437562543</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>196</v>
+      </c>
+      <c r="C116" t="n">
+        <v>196</v>
+      </c>
+      <c r="D116" t="n">
+        <v>196</v>
+      </c>
+      <c r="E116" t="n">
+        <v>196</v>
+      </c>
+      <c r="F116" t="n">
+        <v>201.7945</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-4164607.643062544</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
         <v>198</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C117" t="n">
         <v>198</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D117" t="n">
         <v>198</v>
       </c>
-      <c r="E102" t="n">
+      <c r="E117" t="n">
         <v>198</v>
       </c>
-      <c r="F102" t="n">
+      <c r="F117" t="n">
+        <v>17.7020202020202</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-4164589.941042342</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>198</v>
+      </c>
+      <c r="C118" t="n">
+        <v>198</v>
+      </c>
+      <c r="D118" t="n">
+        <v>198</v>
+      </c>
+      <c r="E118" t="n">
+        <v>198</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1.0656</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-4164589.941042342</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>196</v>
+      </c>
+      <c r="C119" t="n">
+        <v>196</v>
+      </c>
+      <c r="D119" t="n">
+        <v>196</v>
+      </c>
+      <c r="E119" t="n">
+        <v>196</v>
+      </c>
+      <c r="F119" t="n">
+        <v>2.9925</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-4164592.933542342</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>196</v>
+      </c>
+      <c r="C120" t="n">
+        <v>196</v>
+      </c>
+      <c r="D120" t="n">
+        <v>196</v>
+      </c>
+      <c r="E120" t="n">
+        <v>196</v>
+      </c>
+      <c r="F120" t="n">
+        <v>8187.2198</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-4164592.933542342</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>196</v>
+      </c>
+      <c r="C121" t="n">
+        <v>196</v>
+      </c>
+      <c r="D121" t="n">
+        <v>196</v>
+      </c>
+      <c r="E121" t="n">
+        <v>196</v>
+      </c>
+      <c r="F121" t="n">
+        <v>5128.2051</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-4164592.933542342</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>198</v>
+      </c>
+      <c r="C122" t="n">
+        <v>198</v>
+      </c>
+      <c r="D122" t="n">
+        <v>198</v>
+      </c>
+      <c r="E122" t="n">
+        <v>198</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1.0654</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-4164591.868142342</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>196</v>
+      </c>
+      <c r="C123" t="n">
+        <v>196</v>
+      </c>
+      <c r="D123" t="n">
+        <v>196</v>
+      </c>
+      <c r="E123" t="n">
+        <v>196</v>
+      </c>
+      <c r="F123" t="n">
+        <v>4871.0894</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-4169462.957542342</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>196</v>
+      </c>
+      <c r="C124" t="n">
+        <v>196</v>
+      </c>
+      <c r="D124" t="n">
+        <v>196</v>
+      </c>
+      <c r="E124" t="n">
+        <v>196</v>
+      </c>
+      <c r="F124" t="n">
+        <v>428.5193</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-4169462.957542342</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>195</v>
+      </c>
+      <c r="C125" t="n">
+        <v>195</v>
+      </c>
+      <c r="D125" t="n">
+        <v>195</v>
+      </c>
+      <c r="E125" t="n">
+        <v>195</v>
+      </c>
+      <c r="F125" t="n">
+        <v>86.7377</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-4169549.695242342</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>195</v>
+      </c>
+      <c r="C126" t="n">
+        <v>195</v>
+      </c>
+      <c r="D126" t="n">
+        <v>195</v>
+      </c>
+      <c r="E126" t="n">
+        <v>195</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1044.3742</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-4169549.695242342</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>195</v>
+      </c>
+      <c r="C127" t="n">
+        <v>195</v>
+      </c>
+      <c r="D127" t="n">
+        <v>195</v>
+      </c>
+      <c r="E127" t="n">
+        <v>195</v>
+      </c>
+      <c r="F127" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-4169549.695242342</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>196</v>
+      </c>
+      <c r="C128" t="n">
+        <v>195</v>
+      </c>
+      <c r="D128" t="n">
+        <v>196</v>
+      </c>
+      <c r="E128" t="n">
+        <v>195</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1571.4642</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-4169549.695242342</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>197</v>
+      </c>
+      <c r="C129" t="n">
+        <v>197</v>
+      </c>
+      <c r="D129" t="n">
+        <v>197</v>
+      </c>
+      <c r="E129" t="n">
+        <v>197</v>
+      </c>
+      <c r="F129" t="n">
+        <v>428.5193</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-4169121.175942342</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>197</v>
+      </c>
+      <c r="C130" t="n">
+        <v>197</v>
+      </c>
+      <c r="D130" t="n">
+        <v>197</v>
+      </c>
+      <c r="E130" t="n">
+        <v>197</v>
+      </c>
+      <c r="F130" t="n">
+        <v>237.5425</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-4169121.175942342</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>198</v>
+      </c>
+      <c r="C131" t="n">
+        <v>198</v>
+      </c>
+      <c r="D131" t="n">
+        <v>198</v>
+      </c>
+      <c r="E131" t="n">
+        <v>198</v>
+      </c>
+      <c r="F131" t="n">
         <v>1.203</v>
       </c>
-      <c r="G102" t="n">
-        <v>196.4</v>
-      </c>
-      <c r="H102" t="n">
-        <v>195.4666666666667</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>195</v>
-      </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N102" t="n">
+      <c r="G131" t="n">
+        <v>-4169119.972942342</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-30 BackTest ICX.xlsx
+++ b/BackTest/2019-10-30 BackTest ICX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M131"/>
+  <dimension ref="A1:N131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -448,13 +453,13 @@
         <v>102.04</v>
       </c>
       <c r="G2" t="n">
-        <v>-20399.38137070707</v>
+        <v>197.7</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -483,13 +489,13 @@
         <v>204.08</v>
       </c>
       <c r="G3" t="n">
-        <v>-20399.38137070707</v>
+        <v>197.55</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,13 +525,13 @@
         <v>408.16</v>
       </c>
       <c r="G4" t="n">
-        <v>-20399.38137070707</v>
+        <v>197.4</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -553,13 +561,13 @@
         <v>612.24</v>
       </c>
       <c r="G5" t="n">
-        <v>-20399.38137070707</v>
+        <v>197.25</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -588,13 +597,13 @@
         <v>714.28</v>
       </c>
       <c r="G6" t="n">
-        <v>-20399.38137070707</v>
+        <v>197.05</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -623,13 +633,13 @@
         <v>816.3200000000001</v>
       </c>
       <c r="G7" t="n">
-        <v>-20399.38137070707</v>
+        <v>196.9</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -658,13 +669,13 @@
         <v>204.08</v>
       </c>
       <c r="G8" t="n">
-        <v>-20399.38137070707</v>
+        <v>196.8</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -693,13 +705,13 @@
         <v>408.16</v>
       </c>
       <c r="G9" t="n">
-        <v>-20399.38137070707</v>
+        <v>196.7</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -728,7 +741,7 @@
         <v>1962.4348</v>
       </c>
       <c r="G10" t="n">
-        <v>-20399.38137070707</v>
+        <v>196.6</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -763,13 +777,13 @@
         <v>50</v>
       </c>
       <c r="G11" t="n">
-        <v>-20349.38137070707</v>
+        <v>196.6</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -798,7 +813,7 @@
         <v>168.5393</v>
       </c>
       <c r="G12" t="n">
-        <v>-20517.92067070707</v>
+        <v>196.5</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -833,7 +849,7 @@
         <v>168.5393</v>
       </c>
       <c r="G13" t="n">
-        <v>-20517.92067070707</v>
+        <v>196.4</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -868,13 +885,13 @@
         <v>337.8378</v>
       </c>
       <c r="G14" t="n">
-        <v>-20855.75847070707</v>
+        <v>196.25</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -903,7 +921,7 @@
         <v>337.8378</v>
       </c>
       <c r="G15" t="n">
-        <v>-20855.75847070707</v>
+        <v>196.1</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -938,7 +957,7 @@
         <v>168.9189</v>
       </c>
       <c r="G16" t="n">
-        <v>-20855.75847070707</v>
+        <v>195.95</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -956,6 +975,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -977,7 +997,7 @@
         <v>506.3771</v>
       </c>
       <c r="G17" t="n">
-        <v>-20855.75847070707</v>
+        <v>195.9</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
@@ -999,6 +1019,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1020,7 +1041,7 @@
         <v>1961.6235</v>
       </c>
       <c r="G18" t="n">
-        <v>-20855.75847070707</v>
+        <v>195.85</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
@@ -1042,6 +1063,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1063,7 +1085,7 @@
         <v>2.0408</v>
       </c>
       <c r="G19" t="n">
-        <v>-20853.71767070707</v>
+        <v>195.85</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1077,6 +1099,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1098,7 +1121,7 @@
         <v>6168.0199</v>
       </c>
       <c r="G20" t="n">
-        <v>-27021.73757070707</v>
+        <v>195.8</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1112,6 +1135,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1133,7 +1157,7 @@
         <v>5077.9714</v>
       </c>
       <c r="G21" t="n">
-        <v>-32099.70897070707</v>
+        <v>195.75</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1147,6 +1171,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1168,7 +1193,7 @@
         <v>824.72</v>
       </c>
       <c r="G22" t="n">
-        <v>-32099.70897070707</v>
+        <v>195.65</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1182,6 +1207,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1203,7 +1229,7 @@
         <v>824.72</v>
       </c>
       <c r="G23" t="n">
-        <v>-32099.70897070707</v>
+        <v>195.55</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1217,6 +1243,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1238,7 +1265,7 @@
         <v>395.279</v>
       </c>
       <c r="G24" t="n">
-        <v>-32099.70897070707</v>
+        <v>195.45</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1252,6 +1279,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1273,7 +1301,7 @@
         <v>103.62</v>
       </c>
       <c r="G25" t="n">
-        <v>-32203.32897070707</v>
+        <v>195.3</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1287,6 +1315,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1308,7 +1337,7 @@
         <v>103.62</v>
       </c>
       <c r="G26" t="n">
-        <v>-32203.32897070707</v>
+        <v>195.15</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1322,6 +1351,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1343,7 +1373,7 @@
         <v>207.24</v>
       </c>
       <c r="G27" t="n">
-        <v>-32203.32897070707</v>
+        <v>195</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1357,6 +1387,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1378,7 +1409,7 @@
         <v>120.701</v>
       </c>
       <c r="G28" t="n">
-        <v>-32082.62797070707</v>
+        <v>194.85</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1392,6 +1423,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1413,7 +1445,7 @@
         <v>11207.2157</v>
       </c>
       <c r="G29" t="n">
-        <v>-32082.62797070707</v>
+        <v>194.75</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1427,6 +1459,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1448,7 +1481,7 @@
         <v>35254.7269</v>
       </c>
       <c r="G30" t="n">
-        <v>3172.098929292933</v>
+        <v>194.65</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1462,6 +1495,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1483,7 +1517,7 @@
         <v>55941.2327</v>
       </c>
       <c r="G31" t="n">
-        <v>3172.098929292933</v>
+        <v>194.45</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1497,6 +1531,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1518,7 +1553,7 @@
         <v>58279.8908</v>
       </c>
       <c r="G32" t="n">
-        <v>3172.098929292933</v>
+        <v>194.4</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1532,6 +1567,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1553,7 +1589,7 @@
         <v>30420.0315</v>
       </c>
       <c r="G33" t="n">
-        <v>-27247.93257070707</v>
+        <v>194.35</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1567,6 +1603,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1588,7 +1625,7 @@
         <v>32515.3618</v>
       </c>
       <c r="G34" t="n">
-        <v>5267.429229292931</v>
+        <v>194.3</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1602,6 +1639,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1623,7 +1661,7 @@
         <v>1340352</v>
       </c>
       <c r="G35" t="n">
-        <v>-1335084.570770707</v>
+        <v>194.3</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1637,6 +1675,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1658,7 +1697,7 @@
         <v>308392</v>
       </c>
       <c r="G36" t="n">
-        <v>-1335084.570770707</v>
+        <v>194.3</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1672,6 +1711,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1693,7 +1733,7 @@
         <v>1340000</v>
       </c>
       <c r="G37" t="n">
-        <v>-1335084.570770707</v>
+        <v>194.3</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1707,6 +1747,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1728,7 +1769,7 @@
         <v>1385000</v>
       </c>
       <c r="G38" t="n">
-        <v>-1335084.570770707</v>
+        <v>194.3</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1742,6 +1783,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1763,7 +1805,7 @@
         <v>1350000</v>
       </c>
       <c r="G39" t="n">
-        <v>-1335084.570770707</v>
+        <v>194.25</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1777,6 +1819,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1798,7 +1841,7 @@
         <v>1350000</v>
       </c>
       <c r="G40" t="n">
-        <v>-1335084.570770707</v>
+        <v>194.25</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1812,6 +1855,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1833,7 +1877,7 @@
         <v>1365000</v>
       </c>
       <c r="G41" t="n">
-        <v>-1335084.570770707</v>
+        <v>194.25</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1847,6 +1891,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1868,7 +1913,7 @@
         <v>1365000</v>
       </c>
       <c r="G42" t="n">
-        <v>-1335084.570770707</v>
+        <v>194.3</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1882,6 +1927,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1903,7 +1949,7 @@
         <v>1350000</v>
       </c>
       <c r="G43" t="n">
-        <v>-1335084.570770707</v>
+        <v>194.35</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1917,6 +1963,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1938,7 +1985,7 @@
         <v>1335000</v>
       </c>
       <c r="G44" t="n">
-        <v>-1335084.570770707</v>
+        <v>194.4</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1952,6 +1999,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1973,7 +2021,7 @@
         <v>1336049.8164</v>
       </c>
       <c r="G45" t="n">
-        <v>-1335084.570770707</v>
+        <v>194.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1987,6 +2035,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2008,7 +2057,7 @@
         <v>1373950.1836</v>
       </c>
       <c r="G46" t="n">
-        <v>-1335084.570770707</v>
+        <v>194.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2022,6 +2071,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2043,7 +2093,7 @@
         <v>1330000</v>
       </c>
       <c r="G47" t="n">
-        <v>-1335084.570770707</v>
+        <v>194.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2057,6 +2107,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2078,7 +2129,7 @@
         <v>726049.8164</v>
       </c>
       <c r="G48" t="n">
-        <v>-1335084.570770707</v>
+        <v>194.8</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2092,6 +2143,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2113,7 +2165,7 @@
         <v>260000</v>
       </c>
       <c r="G49" t="n">
-        <v>-1595084.570770707</v>
+        <v>194.8</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2127,6 +2179,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2148,7 +2201,7 @@
         <v>2730000</v>
       </c>
       <c r="G50" t="n">
-        <v>-1595084.570770707</v>
+        <v>194.8</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2162,6 +2215,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2183,13 +2237,13 @@
         <v>1224150.5972</v>
       </c>
       <c r="G51" t="n">
-        <v>-1595084.570770707</v>
+        <v>194.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -2197,6 +2251,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2218,7 +2273,7 @@
         <v>2700000</v>
       </c>
       <c r="G52" t="n">
-        <v>-1595084.570770707</v>
+        <v>194.75</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2232,6 +2287,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2253,7 +2309,7 @@
         <v>2734102.564</v>
       </c>
       <c r="G53" t="n">
-        <v>-1595084.570770707</v>
+        <v>194.7</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2267,6 +2323,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2288,7 +2345,7 @@
         <v>2748205.128</v>
       </c>
       <c r="G54" t="n">
-        <v>-1595084.570770707</v>
+        <v>194.7</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2302,6 +2359,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2323,7 +2381,7 @@
         <v>2660000</v>
       </c>
       <c r="G55" t="n">
-        <v>-1595084.570770707</v>
+        <v>194.65</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2337,6 +2395,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2358,7 +2417,7 @@
         <v>2708383.1022</v>
       </c>
       <c r="G56" t="n">
-        <v>-1595084.570770707</v>
+        <v>194.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2372,6 +2431,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2393,7 +2453,7 @@
         <v>2690000</v>
       </c>
       <c r="G57" t="n">
-        <v>-1595084.570770707</v>
+        <v>194.55</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2407,6 +2467,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2428,7 +2489,7 @@
         <v>2681616.8978</v>
       </c>
       <c r="G58" t="n">
-        <v>-1595084.570770707</v>
+        <v>194.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2442,6 +2503,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2463,7 +2525,7 @@
         <v>2658383.1022</v>
       </c>
       <c r="G59" t="n">
-        <v>-1595084.570770707</v>
+        <v>194.45</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2477,6 +2539,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2498,7 +2561,7 @@
         <v>2664594.723</v>
       </c>
       <c r="G60" t="n">
-        <v>-1595084.570770707</v>
+        <v>194.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2512,6 +2575,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2533,7 +2597,7 @@
         <v>2690000</v>
       </c>
       <c r="G61" t="n">
-        <v>-1595084.570770707</v>
+        <v>194.35</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2547,6 +2611,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2568,7 +2633,7 @@
         <v>830000</v>
       </c>
       <c r="G62" t="n">
-        <v>-1595084.570770707</v>
+        <v>194.3</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2582,6 +2647,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2603,7 +2669,7 @@
         <v>134.0326</v>
       </c>
       <c r="G63" t="n">
-        <v>-1595084.570770707</v>
+        <v>194.25</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2617,6 +2683,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2638,7 +2705,7 @@
         <v>14726.0999</v>
       </c>
       <c r="G64" t="n">
-        <v>-1595084.570770707</v>
+        <v>194.2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2652,6 +2719,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2673,7 +2741,7 @@
         <v>361306.1609</v>
       </c>
       <c r="G65" t="n">
-        <v>-1595084.570770707</v>
+        <v>194.15</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2687,6 +2755,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2708,7 +2777,7 @@
         <v>2680082.564</v>
       </c>
       <c r="G66" t="n">
-        <v>-1595084.570770707</v>
+        <v>194.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2722,6 +2791,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2743,7 +2813,7 @@
         <v>2695950</v>
       </c>
       <c r="G67" t="n">
-        <v>-1595084.570770707</v>
+        <v>194.05</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2757,6 +2827,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2778,7 +2849,7 @@
         <v>2705935</v>
       </c>
       <c r="G68" t="n">
-        <v>-1595084.570770707</v>
+        <v>194</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2792,6 +2863,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2813,7 +2885,7 @@
         <v>2708191.4031</v>
       </c>
       <c r="G69" t="n">
-        <v>-1595084.570770707</v>
+        <v>194</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2827,6 +2899,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2848,7 +2921,7 @@
         <v>2556160</v>
       </c>
       <c r="G70" t="n">
-        <v>-1595084.570770707</v>
+        <v>194</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2862,6 +2935,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2883,7 +2957,7 @@
         <v>197400</v>
       </c>
       <c r="G71" t="n">
-        <v>-1397684.570770707</v>
+        <v>194.05</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2897,6 +2971,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2918,7 +2993,7 @@
         <v>1342762.4794</v>
       </c>
       <c r="G72" t="n">
-        <v>-1397684.570770707</v>
+        <v>194.1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2932,6 +3007,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2953,7 +3029,7 @@
         <v>30145</v>
       </c>
       <c r="G73" t="n">
-        <v>-1397684.570770707</v>
+        <v>194.15</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2967,6 +3043,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2988,7 +3065,7 @@
         <v>2.9846</v>
       </c>
       <c r="G74" t="n">
-        <v>-1397681.586170707</v>
+        <v>194.2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3002,6 +3079,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3023,7 +3101,7 @@
         <v>723000</v>
       </c>
       <c r="G75" t="n">
-        <v>-2120681.586170707</v>
+        <v>194.25</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3037,6 +3115,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3058,7 +3137,7 @@
         <v>801341.5103</v>
       </c>
       <c r="G76" t="n">
-        <v>-2120681.586170707</v>
+        <v>194.3</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3072,6 +3151,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3093,7 +3173,7 @@
         <v>806658.4897</v>
       </c>
       <c r="G77" t="n">
-        <v>-2120681.586170707</v>
+        <v>194.35</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3107,6 +3187,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3128,7 +3209,7 @@
         <v>810000</v>
       </c>
       <c r="G78" t="n">
-        <v>-2120681.586170707</v>
+        <v>194.4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3142,6 +3223,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3163,7 +3245,7 @@
         <v>810000</v>
       </c>
       <c r="G79" t="n">
-        <v>-2120681.586170707</v>
+        <v>194.45</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3177,6 +3259,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3198,7 +3281,7 @@
         <v>807000</v>
       </c>
       <c r="G80" t="n">
-        <v>-2120681.586170707</v>
+        <v>194.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3212,6 +3295,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3233,7 +3317,7 @@
         <v>807000</v>
       </c>
       <c r="G81" t="n">
-        <v>-2120681.586170707</v>
+        <v>194.55</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3247,6 +3331,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3268,7 +3353,7 @@
         <v>804000</v>
       </c>
       <c r="G82" t="n">
-        <v>-2120681.586170707</v>
+        <v>194.6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3282,6 +3367,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3303,7 +3389,7 @@
         <v>810000</v>
       </c>
       <c r="G83" t="n">
-        <v>-2120681.586170707</v>
+        <v>194.65</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3317,6 +3403,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3338,7 +3425,7 @@
         <v>786000</v>
       </c>
       <c r="G84" t="n">
-        <v>-2120681.586170707</v>
+        <v>194.7</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3352,6 +3439,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3373,7 +3461,7 @@
         <v>798238.7772</v>
       </c>
       <c r="G85" t="n">
-        <v>-2120681.586170707</v>
+        <v>194.75</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3387,6 +3475,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3408,7 +3497,7 @@
         <v>855998</v>
       </c>
       <c r="G86" t="n">
-        <v>-2120681.586170707</v>
+        <v>194.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3422,6 +3511,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3443,7 +3533,7 @@
         <v>988806</v>
       </c>
       <c r="G87" t="n">
-        <v>-2120681.586170707</v>
+        <v>194.85</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3457,6 +3547,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3478,7 +3569,7 @@
         <v>985184</v>
       </c>
       <c r="G88" t="n">
-        <v>-2120681.586170707</v>
+        <v>194.9</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3492,6 +3583,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3513,7 +3605,7 @@
         <v>974318</v>
       </c>
       <c r="G89" t="n">
-        <v>-2120681.586170707</v>
+        <v>194.95</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3527,6 +3619,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3548,7 +3641,7 @@
         <v>967074</v>
       </c>
       <c r="G90" t="n">
-        <v>-2120681.586170707</v>
+        <v>195</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3562,6 +3655,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3583,7 +3677,7 @@
         <v>963452</v>
       </c>
       <c r="G91" t="n">
-        <v>-2120681.586170707</v>
+        <v>195</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3597,6 +3691,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3618,7 +3713,7 @@
         <v>987562</v>
       </c>
       <c r="G92" t="n">
-        <v>-2120681.586170707</v>
+        <v>195</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3632,6 +3727,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3653,7 +3749,7 @@
         <v>967176.7331</v>
       </c>
       <c r="G93" t="n">
-        <v>-2120681.586170707</v>
+        <v>195</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3667,6 +3763,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3688,7 +3785,7 @@
         <v>449193</v>
       </c>
       <c r="G94" t="n">
-        <v>-1671488.586170707</v>
+        <v>195</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3702,6 +3799,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3723,7 +3821,7 @@
         <v>2472854</v>
       </c>
       <c r="G95" t="n">
-        <v>-4144342.586170707</v>
+        <v>195</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3737,6 +3835,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3758,7 +3857,7 @@
         <v>2578696</v>
       </c>
       <c r="G96" t="n">
-        <v>-4144342.586170707</v>
+        <v>195</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3772,6 +3871,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3793,7 +3893,7 @@
         <v>2597940</v>
       </c>
       <c r="G97" t="n">
-        <v>-4144342.586170707</v>
+        <v>195</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3807,6 +3907,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3828,7 +3929,7 @@
         <v>2588318</v>
       </c>
       <c r="G98" t="n">
-        <v>-4144342.586170707</v>
+        <v>195</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3842,6 +3943,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3863,7 +3965,7 @@
         <v>2486578.564</v>
       </c>
       <c r="G99" t="n">
-        <v>-4144342.586170707</v>
+        <v>195</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3877,6 +3979,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3898,7 +4001,7 @@
         <v>2574593.436</v>
       </c>
       <c r="G100" t="n">
-        <v>-4144342.586170707</v>
+        <v>195</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3912,6 +4015,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3933,7 +4037,7 @@
         <v>1202750</v>
       </c>
       <c r="G101" t="n">
-        <v>-4144342.586170707</v>
+        <v>195</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3947,6 +4051,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3968,7 +4073,7 @@
         <v>1158742.564</v>
       </c>
       <c r="G102" t="n">
-        <v>-4144342.586170707</v>
+        <v>195</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3982,6 +4087,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4003,7 +4109,7 @@
         <v>2597940</v>
       </c>
       <c r="G103" t="n">
-        <v>-4144342.586170707</v>
+        <v>195</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4017,6 +4123,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4038,7 +4145,7 @@
         <v>769760</v>
       </c>
       <c r="G104" t="n">
-        <v>-4144342.586170707</v>
+        <v>195</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4052,6 +4159,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4073,7 +4181,7 @@
         <v>11292.9021</v>
       </c>
       <c r="G105" t="n">
-        <v>-4144342.586170707</v>
+        <v>195</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4087,6 +4195,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4108,7 +4217,7 @@
         <v>17.2602</v>
       </c>
       <c r="G106" t="n">
-        <v>-4144325.325970707</v>
+        <v>195.05</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4122,6 +4231,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4143,7 +4253,7 @@
         <v>2630.6363</v>
       </c>
       <c r="G107" t="n">
-        <v>-4146955.962270707</v>
+        <v>195.05</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4157,6 +4267,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4178,7 +4289,7 @@
         <v>4583.2158</v>
       </c>
       <c r="G108" t="n">
-        <v>-4146955.962270707</v>
+        <v>195.05</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4192,6 +4303,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4213,7 +4325,7 @@
         <v>2775.270408163266</v>
       </c>
       <c r="G109" t="n">
-        <v>-4144180.691862544</v>
+        <v>195.1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4227,6 +4339,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4248,7 +4361,7 @@
         <v>5000</v>
       </c>
       <c r="G110" t="n">
-        <v>-4149180.691862544</v>
+        <v>195.1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4262,6 +4375,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4283,7 +4397,7 @@
         <v>4142.9536</v>
       </c>
       <c r="G111" t="n">
-        <v>-4149180.691862544</v>
+        <v>195.1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4297,6 +4411,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4318,7 +4433,7 @@
         <v>13817.8933</v>
       </c>
       <c r="G112" t="n">
-        <v>-4135362.798562543</v>
+        <v>195.15</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4332,6 +4447,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4353,7 +4469,7 @@
         <v>4482.572691836735</v>
       </c>
       <c r="G113" t="n">
-        <v>-4135362.798562543</v>
+        <v>195.2</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4367,6 +4483,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4388,7 +4505,7 @@
         <v>29446.639</v>
       </c>
       <c r="G114" t="n">
-        <v>-4164809.437562543</v>
+        <v>195.25</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4402,6 +4519,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4423,7 +4541,7 @@
         <v>6015.8114</v>
       </c>
       <c r="G115" t="n">
-        <v>-4164809.437562543</v>
+        <v>195.25</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4437,6 +4555,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4458,7 +4577,7 @@
         <v>201.7945</v>
       </c>
       <c r="G116" t="n">
-        <v>-4164607.643062544</v>
+        <v>195.3</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4472,6 +4591,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4493,7 +4613,7 @@
         <v>17.7020202020202</v>
       </c>
       <c r="G117" t="n">
-        <v>-4164589.941042342</v>
+        <v>195.45</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4507,6 +4627,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4528,7 +4649,7 @@
         <v>1.0656</v>
       </c>
       <c r="G118" t="n">
-        <v>-4164589.941042342</v>
+        <v>195.6</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4542,6 +4663,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4563,7 +4685,7 @@
         <v>2.9925</v>
       </c>
       <c r="G119" t="n">
-        <v>-4164592.933542342</v>
+        <v>195.65</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4577,6 +4699,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4598,7 +4721,7 @@
         <v>8187.2198</v>
       </c>
       <c r="G120" t="n">
-        <v>-4164592.933542342</v>
+        <v>195.7</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4612,6 +4735,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4633,7 +4757,7 @@
         <v>5128.2051</v>
       </c>
       <c r="G121" t="n">
-        <v>-4164592.933542342</v>
+        <v>195.75</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4647,6 +4771,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4668,7 +4793,7 @@
         <v>1.0654</v>
       </c>
       <c r="G122" t="n">
-        <v>-4164591.868142342</v>
+        <v>195.9</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4682,6 +4807,7 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4703,7 +4829,7 @@
         <v>4871.0894</v>
       </c>
       <c r="G123" t="n">
-        <v>-4169462.957542342</v>
+        <v>195.95</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4717,6 +4843,7 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4738,7 +4865,7 @@
         <v>428.5193</v>
       </c>
       <c r="G124" t="n">
-        <v>-4169462.957542342</v>
+        <v>196</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4752,6 +4879,7 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4773,7 +4901,7 @@
         <v>86.7377</v>
       </c>
       <c r="G125" t="n">
-        <v>-4169549.695242342</v>
+        <v>196</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4787,6 +4915,7 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4808,7 +4937,7 @@
         <v>1044.3742</v>
       </c>
       <c r="G126" t="n">
-        <v>-4169549.695242342</v>
+        <v>195.95</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4822,6 +4951,7 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4843,7 +4973,7 @@
         <v>4000</v>
       </c>
       <c r="G127" t="n">
-        <v>-4169549.695242342</v>
+        <v>195.95</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4857,6 +4987,7 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4878,7 +5009,7 @@
         <v>1571.4642</v>
       </c>
       <c r="G128" t="n">
-        <v>-4169549.695242342</v>
+        <v>196</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4892,6 +5023,7 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4913,7 +5045,7 @@
         <v>428.5193</v>
       </c>
       <c r="G129" t="n">
-        <v>-4169121.175942342</v>
+        <v>196.05</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4927,6 +5059,7 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4948,7 +5081,7 @@
         <v>237.5425</v>
       </c>
       <c r="G130" t="n">
-        <v>-4169121.175942342</v>
+        <v>196.15</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4962,6 +5095,7 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4983,7 +5117,7 @@
         <v>1.203</v>
       </c>
       <c r="G131" t="n">
-        <v>-4169119.972942342</v>
+        <v>196.3</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4997,6 +5131,7 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-30 BackTest ICX.xlsx
+++ b/BackTest/2019-10-30 BackTest ICX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N131"/>
+  <dimension ref="A1:N160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C2" t="n">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D2" t="n">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E2" t="n">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="F2" t="n">
-        <v>102.04</v>
+        <v>394.76</v>
       </c>
       <c r="G2" t="n">
-        <v>197.7</v>
+        <v>-6967.77627070707</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C3" t="n">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D3" t="n">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E3" t="n">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="F3" t="n">
-        <v>204.08</v>
+        <v>394.76</v>
       </c>
       <c r="G3" t="n">
-        <v>197.55</v>
+        <v>-6967.77627070707</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C4" t="n">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D4" t="n">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E4" t="n">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="F4" t="n">
-        <v>408.16</v>
+        <v>98.69</v>
       </c>
       <c r="G4" t="n">
-        <v>197.4</v>
+        <v>-6967.77627070707</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C5" t="n">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D5" t="n">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E5" t="n">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F5" t="n">
-        <v>612.24</v>
+        <v>7832.071</v>
       </c>
       <c r="G5" t="n">
-        <v>197.25</v>
+        <v>-14799.84727070707</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C6" t="n">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D6" t="n">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E6" t="n">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F6" t="n">
-        <v>714.28</v>
+        <v>1884.7604</v>
       </c>
       <c r="G6" t="n">
-        <v>197.05</v>
+        <v>-14799.84727070707</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C7" t="n">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D7" t="n">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E7" t="n">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F7" t="n">
-        <v>816.3200000000001</v>
+        <v>1884.7604</v>
       </c>
       <c r="G7" t="n">
-        <v>196.9</v>
+        <v>-14799.84727070707</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C8" t="n">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D8" t="n">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E8" t="n">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F8" t="n">
-        <v>204.08</v>
+        <v>161.4639</v>
       </c>
       <c r="G8" t="n">
-        <v>196.8</v>
+        <v>-14799.84727070707</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C9" t="n">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D9" t="n">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E9" t="n">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F9" t="n">
-        <v>408.16</v>
+        <v>129.1712</v>
       </c>
       <c r="G9" t="n">
-        <v>196.7</v>
+        <v>-14799.84727070707</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C10" t="n">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D10" t="n">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E10" t="n">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F10" t="n">
-        <v>1962.4348</v>
+        <v>2.5262</v>
       </c>
       <c r="G10" t="n">
-        <v>196.6</v>
+        <v>-14799.84727070707</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C11" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D11" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E11" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F11" t="n">
-        <v>50</v>
+        <v>1667.446</v>
       </c>
       <c r="G11" t="n">
-        <v>196.6</v>
+        <v>-14799.84727070707</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C12" t="n">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D12" t="n">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E12" t="n">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F12" t="n">
-        <v>168.5393</v>
+        <v>1005.02</v>
       </c>
       <c r="G12" t="n">
-        <v>196.5</v>
+        <v>-14799.84727070707</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C13" t="n">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D13" t="n">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E13" t="n">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F13" t="n">
-        <v>168.5393</v>
+        <v>201</v>
       </c>
       <c r="G13" t="n">
-        <v>196.4</v>
+        <v>-14799.84727070707</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C14" t="n">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D14" t="n">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E14" t="n">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F14" t="n">
-        <v>337.8378</v>
+        <v>15.3429</v>
       </c>
       <c r="G14" t="n">
-        <v>196.25</v>
+        <v>-14799.84727070707</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C15" t="n">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D15" t="n">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="E15" t="n">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="F15" t="n">
-        <v>337.8378</v>
+        <v>15.23</v>
       </c>
       <c r="G15" t="n">
-        <v>196.1</v>
+        <v>-14784.61727070707</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -942,35 +942,31 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C16" t="n">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D16" t="n">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E16" t="n">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F16" t="n">
-        <v>168.9189</v>
+        <v>1515.15</v>
       </c>
       <c r="G16" t="n">
-        <v>195.95</v>
+        <v>-16299.76727070707</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>195</v>
-      </c>
-      <c r="K16" t="n">
-        <v>195</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
@@ -982,40 +978,32 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C17" t="n">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D17" t="n">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E17" t="n">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F17" t="n">
-        <v>506.3771</v>
+        <v>303.03</v>
       </c>
       <c r="G17" t="n">
-        <v>195.9</v>
+        <v>-16299.76727070707</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>195</v>
-      </c>
-      <c r="K17" t="n">
-        <v>195</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1026,40 +1014,32 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C18" t="n">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D18" t="n">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E18" t="n">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F18" t="n">
-        <v>1961.6235</v>
+        <v>101.01</v>
       </c>
       <c r="G18" t="n">
-        <v>195.85</v>
+        <v>-16299.76727070707</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>195</v>
-      </c>
-      <c r="K18" t="n">
-        <v>195</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1070,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C19" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D19" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E19" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F19" t="n">
-        <v>2.0408</v>
+        <v>404.04</v>
       </c>
       <c r="G19" t="n">
-        <v>195.85</v>
+        <v>-16299.76727070707</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1106,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C20" t="n">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D20" t="n">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E20" t="n">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F20" t="n">
-        <v>6168.0199</v>
+        <v>404.04</v>
       </c>
       <c r="G20" t="n">
-        <v>195.8</v>
+        <v>-16299.76727070707</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1142,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C21" t="n">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D21" t="n">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E21" t="n">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F21" t="n">
-        <v>5077.9714</v>
+        <v>404.04</v>
       </c>
       <c r="G21" t="n">
-        <v>195.75</v>
+        <v>-16299.76727070707</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1178,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C22" t="n">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D22" t="n">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E22" t="n">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F22" t="n">
-        <v>824.72</v>
+        <v>202.02</v>
       </c>
       <c r="G22" t="n">
-        <v>195.65</v>
+        <v>-16299.76727070707</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1214,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C23" t="n">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D23" t="n">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E23" t="n">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F23" t="n">
-        <v>824.72</v>
+        <v>1515.15</v>
       </c>
       <c r="G23" t="n">
-        <v>195.55</v>
+        <v>-16299.76727070707</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1250,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C24" t="n">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D24" t="n">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E24" t="n">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F24" t="n">
-        <v>395.279</v>
+        <v>166.113</v>
       </c>
       <c r="G24" t="n">
-        <v>195.45</v>
+        <v>-16299.76727070707</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1286,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C25" t="n">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D25" t="n">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="E25" t="n">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F25" t="n">
-        <v>103.62</v>
+        <v>167.2241</v>
       </c>
       <c r="G25" t="n">
-        <v>195.3</v>
+        <v>-16466.99137070707</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1322,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C26" t="n">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D26" t="n">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E26" t="n">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F26" t="n">
-        <v>103.62</v>
+        <v>3932.39</v>
       </c>
       <c r="G26" t="n">
-        <v>195.15</v>
+        <v>-20399.38137070707</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1358,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C27" t="n">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D27" t="n">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E27" t="n">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F27" t="n">
-        <v>207.24</v>
+        <v>816.3200000000001</v>
       </c>
       <c r="G27" t="n">
-        <v>195</v>
+        <v>-20399.38137070707</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1394,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C28" t="n">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D28" t="n">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E28" t="n">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F28" t="n">
-        <v>120.701</v>
+        <v>408.16</v>
       </c>
       <c r="G28" t="n">
-        <v>194.85</v>
+        <v>-20399.38137070707</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1430,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C29" t="n">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D29" t="n">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E29" t="n">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F29" t="n">
-        <v>11207.2157</v>
+        <v>510.2</v>
       </c>
       <c r="G29" t="n">
-        <v>194.75</v>
+        <v>-20399.38137070707</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1466,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C30" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D30" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E30" t="n">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F30" t="n">
-        <v>35254.7269</v>
+        <v>204.08</v>
       </c>
       <c r="G30" t="n">
-        <v>194.65</v>
+        <v>-20399.38137070707</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1502,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C31" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D31" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E31" t="n">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F31" t="n">
-        <v>55941.2327</v>
+        <v>102.04</v>
       </c>
       <c r="G31" t="n">
-        <v>194.45</v>
+        <v>-20399.38137070707</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1538,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C32" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D32" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E32" t="n">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F32" t="n">
-        <v>58279.8908</v>
+        <v>204.08</v>
       </c>
       <c r="G32" t="n">
-        <v>194.4</v>
+        <v>-20399.38137070707</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1574,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C33" t="n">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D33" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E33" t="n">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F33" t="n">
-        <v>30420.0315</v>
+        <v>408.16</v>
       </c>
       <c r="G33" t="n">
-        <v>194.35</v>
+        <v>-20399.38137070707</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1610,7 +1590,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C34" t="n">
         <v>196</v>
@@ -1619,13 +1599,13 @@
         <v>196</v>
       </c>
       <c r="E34" t="n">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F34" t="n">
-        <v>32515.3618</v>
+        <v>612.24</v>
       </c>
       <c r="G34" t="n">
-        <v>194.3</v>
+        <v>-20399.38137070707</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1646,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C35" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D35" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E35" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F35" t="n">
-        <v>1340352</v>
+        <v>714.28</v>
       </c>
       <c r="G35" t="n">
-        <v>194.3</v>
+        <v>-20399.38137070707</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1682,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C36" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D36" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E36" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F36" t="n">
-        <v>308392</v>
+        <v>816.3200000000001</v>
       </c>
       <c r="G36" t="n">
-        <v>194.3</v>
+        <v>-20399.38137070707</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1718,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C37" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D37" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E37" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F37" t="n">
-        <v>1340000</v>
+        <v>204.08</v>
       </c>
       <c r="G37" t="n">
-        <v>194.3</v>
+        <v>-20399.38137070707</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1754,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C38" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D38" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E38" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F38" t="n">
-        <v>1385000</v>
+        <v>408.16</v>
       </c>
       <c r="G38" t="n">
-        <v>194.3</v>
+        <v>-20399.38137070707</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1790,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C39" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D39" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E39" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F39" t="n">
-        <v>1350000</v>
+        <v>1962.4348</v>
       </c>
       <c r="G39" t="n">
-        <v>194.25</v>
+        <v>-20399.38137070707</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1826,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C40" t="n">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D40" t="n">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E40" t="n">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F40" t="n">
-        <v>1350000</v>
+        <v>50</v>
       </c>
       <c r="G40" t="n">
-        <v>194.25</v>
+        <v>-20349.38137070707</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1862,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C41" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D41" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E41" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F41" t="n">
-        <v>1365000</v>
+        <v>168.5393</v>
       </c>
       <c r="G41" t="n">
-        <v>194.25</v>
+        <v>-20517.92067070707</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1898,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C42" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D42" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E42" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F42" t="n">
-        <v>1365000</v>
+        <v>168.5393</v>
       </c>
       <c r="G42" t="n">
-        <v>194.3</v>
+        <v>-20517.92067070707</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1946,10 +1926,10 @@
         <v>195</v>
       </c>
       <c r="F43" t="n">
-        <v>1350000</v>
+        <v>337.8378</v>
       </c>
       <c r="G43" t="n">
-        <v>194.35</v>
+        <v>-20855.75847070707</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1982,10 +1962,10 @@
         <v>195</v>
       </c>
       <c r="F44" t="n">
-        <v>1335000</v>
+        <v>337.8378</v>
       </c>
       <c r="G44" t="n">
-        <v>194.4</v>
+        <v>-20855.75847070707</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2018,10 +1998,10 @@
         <v>195</v>
       </c>
       <c r="F45" t="n">
-        <v>1336049.8164</v>
+        <v>168.9189</v>
       </c>
       <c r="G45" t="n">
-        <v>194.5</v>
+        <v>-20855.75847070707</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2054,10 +2034,10 @@
         <v>195</v>
       </c>
       <c r="F46" t="n">
-        <v>1373950.1836</v>
+        <v>506.3771</v>
       </c>
       <c r="G46" t="n">
-        <v>194.6</v>
+        <v>-20855.75847070707</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2090,10 +2070,10 @@
         <v>195</v>
       </c>
       <c r="F47" t="n">
-        <v>1330000</v>
+        <v>1961.6235</v>
       </c>
       <c r="G47" t="n">
-        <v>194.7</v>
+        <v>-20855.75847070707</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2114,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C48" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D48" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E48" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F48" t="n">
-        <v>726049.8164</v>
+        <v>2.0408</v>
       </c>
       <c r="G48" t="n">
-        <v>194.8</v>
+        <v>-20853.71767070707</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2150,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C49" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D49" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E49" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F49" t="n">
-        <v>260000</v>
+        <v>6168.0199</v>
       </c>
       <c r="G49" t="n">
-        <v>194.8</v>
+        <v>-27021.73757070707</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2186,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C50" t="n">
         <v>194</v>
       </c>
       <c r="D50" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E50" t="n">
         <v>194</v>
       </c>
       <c r="F50" t="n">
-        <v>2730000</v>
+        <v>5077.9714</v>
       </c>
       <c r="G50" t="n">
-        <v>194.8</v>
+        <v>-32099.70897070707</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2234,16 +2214,16 @@
         <v>194</v>
       </c>
       <c r="F51" t="n">
-        <v>1224150.5972</v>
+        <v>824.72</v>
       </c>
       <c r="G51" t="n">
-        <v>194.8</v>
+        <v>-32099.70897070707</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -2270,10 +2250,10 @@
         <v>194</v>
       </c>
       <c r="F52" t="n">
-        <v>2700000</v>
+        <v>824.72</v>
       </c>
       <c r="G52" t="n">
-        <v>194.75</v>
+        <v>-32099.70897070707</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2306,10 +2286,10 @@
         <v>194</v>
       </c>
       <c r="F53" t="n">
-        <v>2734102.564</v>
+        <v>395.279</v>
       </c>
       <c r="G53" t="n">
-        <v>194.7</v>
+        <v>-32099.70897070707</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2330,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C54" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D54" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E54" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F54" t="n">
-        <v>2748205.128</v>
+        <v>103.62</v>
       </c>
       <c r="G54" t="n">
-        <v>194.7</v>
+        <v>-32203.32897070707</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2366,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C55" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D55" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E55" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F55" t="n">
-        <v>2660000</v>
+        <v>103.62</v>
       </c>
       <c r="G55" t="n">
-        <v>194.65</v>
+        <v>-32203.32897070707</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2402,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C56" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D56" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E56" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F56" t="n">
-        <v>2708383.1022</v>
+        <v>207.24</v>
       </c>
       <c r="G56" t="n">
-        <v>194.6</v>
+        <v>-32203.32897070707</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2438,7 +2418,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C57" t="n">
         <v>194</v>
@@ -2447,13 +2427,13 @@
         <v>194</v>
       </c>
       <c r="E57" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F57" t="n">
-        <v>2690000</v>
+        <v>120.701</v>
       </c>
       <c r="G57" t="n">
-        <v>194.55</v>
+        <v>-32082.62797070707</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2486,10 +2466,10 @@
         <v>194</v>
       </c>
       <c r="F58" t="n">
-        <v>2681616.8978</v>
+        <v>11207.2157</v>
       </c>
       <c r="G58" t="n">
-        <v>194.5</v>
+        <v>-32082.62797070707</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2513,19 +2493,19 @@
         <v>194</v>
       </c>
       <c r="C59" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D59" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E59" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F59" t="n">
-        <v>2658383.1022</v>
+        <v>35254.7269</v>
       </c>
       <c r="G59" t="n">
-        <v>194.45</v>
+        <v>3172.098929292933</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2549,19 +2529,19 @@
         <v>194</v>
       </c>
       <c r="C60" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D60" t="n">
         <v>195</v>
       </c>
       <c r="E60" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F60" t="n">
-        <v>2664594.723</v>
+        <v>55941.2327</v>
       </c>
       <c r="G60" t="n">
-        <v>194.4</v>
+        <v>3172.098929292933</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2582,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C61" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D61" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E61" t="n">
         <v>194</v>
       </c>
       <c r="F61" t="n">
-        <v>2690000</v>
+        <v>58279.8908</v>
       </c>
       <c r="G61" t="n">
-        <v>194.35</v>
+        <v>3172.098929292933</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2618,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C62" t="n">
         <v>194</v>
       </c>
       <c r="D62" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E62" t="n">
         <v>194</v>
       </c>
       <c r="F62" t="n">
-        <v>830000</v>
+        <v>30420.0315</v>
       </c>
       <c r="G62" t="n">
-        <v>194.3</v>
+        <v>-27247.93257070707</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2657,19 +2637,19 @@
         <v>194</v>
       </c>
       <c r="C63" t="n">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D63" t="n">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E63" t="n">
         <v>194</v>
       </c>
       <c r="F63" t="n">
-        <v>134.0326</v>
+        <v>32515.3618</v>
       </c>
       <c r="G63" t="n">
-        <v>194.25</v>
+        <v>5267.429229292931</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2690,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C64" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D64" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E64" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F64" t="n">
-        <v>14726.0999</v>
+        <v>1340352</v>
       </c>
       <c r="G64" t="n">
-        <v>194.2</v>
+        <v>-1335084.570770707</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2726,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C65" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D65" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E65" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F65" t="n">
-        <v>361306.1609</v>
+        <v>308392</v>
       </c>
       <c r="G65" t="n">
-        <v>194.15</v>
+        <v>-1335084.570770707</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2762,22 +2742,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C66" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D66" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E66" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F66" t="n">
-        <v>2680082.564</v>
+        <v>1340000</v>
       </c>
       <c r="G66" t="n">
-        <v>194.1</v>
+        <v>-1335084.570770707</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2798,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C67" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D67" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E67" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F67" t="n">
-        <v>2695950</v>
+        <v>1385000</v>
       </c>
       <c r="G67" t="n">
-        <v>194.05</v>
+        <v>-1335084.570770707</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2834,22 +2814,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C68" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D68" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E68" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F68" t="n">
-        <v>2705935</v>
+        <v>1350000</v>
       </c>
       <c r="G68" t="n">
-        <v>194</v>
+        <v>-1335084.570770707</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2870,22 +2850,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C69" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D69" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E69" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F69" t="n">
-        <v>2708191.4031</v>
+        <v>1350000</v>
       </c>
       <c r="G69" t="n">
-        <v>194</v>
+        <v>-1335084.570770707</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2906,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C70" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D70" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E70" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F70" t="n">
-        <v>2556160</v>
+        <v>1365000</v>
       </c>
       <c r="G70" t="n">
-        <v>194</v>
+        <v>-1335084.570770707</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2954,10 +2934,10 @@
         <v>195</v>
       </c>
       <c r="F71" t="n">
-        <v>197400</v>
+        <v>1365000</v>
       </c>
       <c r="G71" t="n">
-        <v>194.05</v>
+        <v>-1335084.570770707</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2990,10 +2970,10 @@
         <v>195</v>
       </c>
       <c r="F72" t="n">
-        <v>1342762.4794</v>
+        <v>1350000</v>
       </c>
       <c r="G72" t="n">
-        <v>194.1</v>
+        <v>-1335084.570770707</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3026,10 +3006,10 @@
         <v>195</v>
       </c>
       <c r="F73" t="n">
-        <v>30145</v>
+        <v>1335000</v>
       </c>
       <c r="G73" t="n">
-        <v>194.15</v>
+        <v>-1335084.570770707</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3053,19 +3033,19 @@
         <v>195</v>
       </c>
       <c r="C74" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D74" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E74" t="n">
         <v>195</v>
       </c>
       <c r="F74" t="n">
-        <v>2.9846</v>
+        <v>1336049.8164</v>
       </c>
       <c r="G74" t="n">
-        <v>194.2</v>
+        <v>-1335084.570770707</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3098,10 +3078,10 @@
         <v>195</v>
       </c>
       <c r="F75" t="n">
-        <v>723000</v>
+        <v>1373950.1836</v>
       </c>
       <c r="G75" t="n">
-        <v>194.25</v>
+        <v>-1335084.570770707</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3134,10 +3114,10 @@
         <v>195</v>
       </c>
       <c r="F76" t="n">
-        <v>801341.5103</v>
+        <v>1330000</v>
       </c>
       <c r="G76" t="n">
-        <v>194.3</v>
+        <v>-1335084.570770707</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3170,10 +3150,10 @@
         <v>195</v>
       </c>
       <c r="F77" t="n">
-        <v>806658.4897</v>
+        <v>726049.8164</v>
       </c>
       <c r="G77" t="n">
-        <v>194.35</v>
+        <v>-1335084.570770707</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3194,22 +3174,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C78" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D78" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E78" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F78" t="n">
-        <v>810000</v>
+        <v>260000</v>
       </c>
       <c r="G78" t="n">
-        <v>194.4</v>
+        <v>-1595084.570770707</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3230,22 +3210,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C79" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D79" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E79" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F79" t="n">
-        <v>810000</v>
+        <v>2730000</v>
       </c>
       <c r="G79" t="n">
-        <v>194.45</v>
+        <v>-1595084.570770707</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3266,22 +3246,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C80" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D80" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E80" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F80" t="n">
-        <v>807000</v>
+        <v>1224150.5972</v>
       </c>
       <c r="G80" t="n">
-        <v>194.5</v>
+        <v>-1595084.570770707</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3302,22 +3282,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C81" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D81" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E81" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F81" t="n">
-        <v>807000</v>
+        <v>2700000</v>
       </c>
       <c r="G81" t="n">
-        <v>194.55</v>
+        <v>-1595084.570770707</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3338,22 +3318,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C82" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D82" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E82" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F82" t="n">
-        <v>804000</v>
+        <v>2734102.564</v>
       </c>
       <c r="G82" t="n">
-        <v>194.6</v>
+        <v>-1595084.570770707</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3374,22 +3354,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C83" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D83" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E83" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F83" t="n">
-        <v>810000</v>
+        <v>2748205.128</v>
       </c>
       <c r="G83" t="n">
-        <v>194.65</v>
+        <v>-1595084.570770707</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3410,22 +3390,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C84" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D84" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E84" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F84" t="n">
-        <v>786000</v>
+        <v>2660000</v>
       </c>
       <c r="G84" t="n">
-        <v>194.7</v>
+        <v>-1595084.570770707</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3446,22 +3426,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C85" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D85" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E85" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F85" t="n">
-        <v>798238.7772</v>
+        <v>2708383.1022</v>
       </c>
       <c r="G85" t="n">
-        <v>194.75</v>
+        <v>-1595084.570770707</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3482,22 +3462,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C86" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D86" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E86" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F86" t="n">
-        <v>855998</v>
+        <v>2690000</v>
       </c>
       <c r="G86" t="n">
-        <v>194.8</v>
+        <v>-1595084.570770707</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3518,22 +3498,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C87" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D87" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E87" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F87" t="n">
-        <v>988806</v>
+        <v>2681616.8978</v>
       </c>
       <c r="G87" t="n">
-        <v>194.85</v>
+        <v>-1595084.570770707</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3554,22 +3534,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C88" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D88" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E88" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F88" t="n">
-        <v>985184</v>
+        <v>2658383.1022</v>
       </c>
       <c r="G88" t="n">
-        <v>194.9</v>
+        <v>-1595084.570770707</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3590,22 +3570,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C89" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D89" t="n">
         <v>195</v>
       </c>
       <c r="E89" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F89" t="n">
-        <v>974318</v>
+        <v>2664594.723</v>
       </c>
       <c r="G89" t="n">
-        <v>194.95</v>
+        <v>-1595084.570770707</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3626,22 +3606,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C90" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D90" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E90" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F90" t="n">
-        <v>967074</v>
+        <v>2690000</v>
       </c>
       <c r="G90" t="n">
-        <v>195</v>
+        <v>-1595084.570770707</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3662,22 +3642,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C91" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D91" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E91" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F91" t="n">
-        <v>963452</v>
+        <v>830000</v>
       </c>
       <c r="G91" t="n">
-        <v>195</v>
+        <v>-1595084.570770707</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3698,22 +3678,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C92" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D92" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E92" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F92" t="n">
-        <v>987562</v>
+        <v>134.0326</v>
       </c>
       <c r="G92" t="n">
-        <v>195</v>
+        <v>-1595084.570770707</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3734,22 +3714,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C93" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D93" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E93" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F93" t="n">
-        <v>967176.7331</v>
+        <v>14726.0999</v>
       </c>
       <c r="G93" t="n">
-        <v>195</v>
+        <v>-1595084.570770707</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3770,31 +3750,35 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C94" t="n">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D94" t="n">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E94" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F94" t="n">
-        <v>449193</v>
+        <v>361306.1609</v>
       </c>
       <c r="G94" t="n">
-        <v>195</v>
+        <v>-1595084.570770707</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>194</v>
+      </c>
+      <c r="K94" t="n">
+        <v>194</v>
+      </c>
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
@@ -3806,22 +3790,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C95" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D95" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E95" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F95" t="n">
-        <v>2472854</v>
+        <v>2680082.564</v>
       </c>
       <c r="G95" t="n">
-        <v>195</v>
+        <v>-1595084.570770707</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3830,8 +3814,14 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>194</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3842,22 +3832,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C96" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D96" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E96" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F96" t="n">
-        <v>2578696</v>
+        <v>2695950</v>
       </c>
       <c r="G96" t="n">
-        <v>195</v>
+        <v>-1595084.570770707</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3866,8 +3856,14 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>194</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3878,22 +3874,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C97" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D97" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E97" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F97" t="n">
-        <v>2597940</v>
+        <v>2705935</v>
       </c>
       <c r="G97" t="n">
-        <v>195</v>
+        <v>-1595084.570770707</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3914,22 +3910,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C98" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D98" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E98" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F98" t="n">
-        <v>2588318</v>
+        <v>2708191.4031</v>
       </c>
       <c r="G98" t="n">
-        <v>195</v>
+        <v>-1595084.570770707</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3950,22 +3946,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C99" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D99" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E99" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F99" t="n">
-        <v>2486578.564</v>
+        <v>2556160</v>
       </c>
       <c r="G99" t="n">
-        <v>195</v>
+        <v>-1595084.570770707</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3998,10 +3994,10 @@
         <v>195</v>
       </c>
       <c r="F100" t="n">
-        <v>2574593.436</v>
+        <v>197400</v>
       </c>
       <c r="G100" t="n">
-        <v>195</v>
+        <v>-1397684.570770707</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4034,19 +4030,23 @@
         <v>195</v>
       </c>
       <c r="F101" t="n">
-        <v>1202750</v>
+        <v>1342762.4794</v>
       </c>
       <c r="G101" t="n">
-        <v>195</v>
+        <v>-1397684.570770707</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>195</v>
+      </c>
+      <c r="K101" t="n">
+        <v>195</v>
+      </c>
       <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
@@ -4070,20 +4070,28 @@
         <v>195</v>
       </c>
       <c r="F102" t="n">
-        <v>1158742.564</v>
+        <v>30145</v>
       </c>
       <c r="G102" t="n">
-        <v>195</v>
+        <v>-1397684.570770707</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>195</v>
+      </c>
+      <c r="K102" t="n">
+        <v>195</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4097,29 +4105,37 @@
         <v>195</v>
       </c>
       <c r="C103" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D103" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E103" t="n">
         <v>195</v>
       </c>
       <c r="F103" t="n">
-        <v>2597940</v>
+        <v>2.9846</v>
       </c>
       <c r="G103" t="n">
-        <v>195</v>
+        <v>-1397681.586170707</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>195</v>
+      </c>
+      <c r="K103" t="n">
+        <v>195</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4142,20 +4158,28 @@
         <v>195</v>
       </c>
       <c r="F104" t="n">
-        <v>769760</v>
+        <v>723000</v>
       </c>
       <c r="G104" t="n">
-        <v>195</v>
+        <v>-2120681.586170707</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>196</v>
+      </c>
+      <c r="K104" t="n">
+        <v>195</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4178,20 +4202,28 @@
         <v>195</v>
       </c>
       <c r="F105" t="n">
-        <v>11292.9021</v>
+        <v>801341.5103</v>
       </c>
       <c r="G105" t="n">
-        <v>195</v>
+        <v>-2120681.586170707</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>195</v>
+      </c>
+      <c r="K105" t="n">
+        <v>195</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4202,32 +4234,40 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C106" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D106" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E106" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F106" t="n">
-        <v>17.2602</v>
+        <v>806658.4897</v>
       </c>
       <c r="G106" t="n">
-        <v>195.05</v>
+        <v>-2120681.586170707</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>195</v>
+      </c>
+      <c r="K106" t="n">
+        <v>195</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4250,20 +4290,28 @@
         <v>195</v>
       </c>
       <c r="F107" t="n">
-        <v>2630.6363</v>
+        <v>810000</v>
       </c>
       <c r="G107" t="n">
-        <v>195.05</v>
+        <v>-2120681.586170707</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>195</v>
+      </c>
+      <c r="K107" t="n">
+        <v>195</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4286,20 +4334,28 @@
         <v>195</v>
       </c>
       <c r="F108" t="n">
-        <v>4583.2158</v>
+        <v>810000</v>
       </c>
       <c r="G108" t="n">
-        <v>195.05</v>
+        <v>-2120681.586170707</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>195</v>
+      </c>
+      <c r="K108" t="n">
+        <v>195</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4310,22 +4366,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C109" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D109" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E109" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F109" t="n">
-        <v>2775.270408163266</v>
+        <v>807000</v>
       </c>
       <c r="G109" t="n">
-        <v>195.1</v>
+        <v>-2120681.586170707</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4334,8 +4390,14 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>195</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4358,10 +4420,10 @@
         <v>195</v>
       </c>
       <c r="F110" t="n">
-        <v>5000</v>
+        <v>807000</v>
       </c>
       <c r="G110" t="n">
-        <v>195.1</v>
+        <v>-2120681.586170707</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4370,8 +4432,14 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>195</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4394,10 +4462,10 @@
         <v>195</v>
       </c>
       <c r="F111" t="n">
-        <v>4142.9536</v>
+        <v>804000</v>
       </c>
       <c r="G111" t="n">
-        <v>195.1</v>
+        <v>-2120681.586170707</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4406,8 +4474,14 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>195</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4418,22 +4492,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C112" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D112" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E112" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F112" t="n">
-        <v>13817.8933</v>
+        <v>810000</v>
       </c>
       <c r="G112" t="n">
-        <v>195.15</v>
+        <v>-2120681.586170707</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4442,8 +4516,14 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>195</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4454,22 +4534,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C113" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D113" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E113" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F113" t="n">
-        <v>4482.572691836735</v>
+        <v>786000</v>
       </c>
       <c r="G113" t="n">
-        <v>195.2</v>
+        <v>-2120681.586170707</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4478,8 +4558,14 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>195</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4490,22 +4576,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C114" t="n">
         <v>195</v>
       </c>
       <c r="D114" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E114" t="n">
         <v>195</v>
       </c>
       <c r="F114" t="n">
-        <v>29446.639</v>
+        <v>798238.7772</v>
       </c>
       <c r="G114" t="n">
-        <v>195.25</v>
+        <v>-2120681.586170707</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4514,8 +4600,14 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>195</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4538,10 +4630,10 @@
         <v>195</v>
       </c>
       <c r="F115" t="n">
-        <v>6015.8114</v>
+        <v>855998</v>
       </c>
       <c r="G115" t="n">
-        <v>195.25</v>
+        <v>-2120681.586170707</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4550,8 +4642,14 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>195</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4562,22 +4660,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C116" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D116" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E116" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F116" t="n">
-        <v>201.7945</v>
+        <v>988806</v>
       </c>
       <c r="G116" t="n">
-        <v>195.3</v>
+        <v>-2120681.586170707</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4586,8 +4684,14 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>195</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4598,22 +4702,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C117" t="n">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D117" t="n">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E117" t="n">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F117" t="n">
-        <v>17.7020202020202</v>
+        <v>985184</v>
       </c>
       <c r="G117" t="n">
-        <v>195.45</v>
+        <v>-2120681.586170707</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4622,8 +4726,14 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>195</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4634,22 +4744,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C118" t="n">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D118" t="n">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E118" t="n">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F118" t="n">
-        <v>1.0656</v>
+        <v>974318</v>
       </c>
       <c r="G118" t="n">
-        <v>195.6</v>
+        <v>-2120681.586170707</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4658,8 +4768,14 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>195</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4670,22 +4786,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C119" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D119" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E119" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F119" t="n">
-        <v>2.9925</v>
+        <v>967074</v>
       </c>
       <c r="G119" t="n">
-        <v>195.65</v>
+        <v>-2120681.586170707</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4694,8 +4810,14 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>195</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4706,22 +4828,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C120" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D120" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E120" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F120" t="n">
-        <v>8187.2198</v>
+        <v>963452</v>
       </c>
       <c r="G120" t="n">
-        <v>195.7</v>
+        <v>-2120681.586170707</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4730,8 +4852,14 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>195</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4742,22 +4870,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C121" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D121" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E121" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F121" t="n">
-        <v>5128.2051</v>
+        <v>987562</v>
       </c>
       <c r="G121" t="n">
-        <v>195.75</v>
+        <v>-2120681.586170707</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4766,8 +4894,14 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>195</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4778,22 +4912,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C122" t="n">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D122" t="n">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E122" t="n">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F122" t="n">
-        <v>1.0654</v>
+        <v>967176.7331</v>
       </c>
       <c r="G122" t="n">
-        <v>195.9</v>
+        <v>-2120681.586170707</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4802,8 +4936,14 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>195</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4814,7 +4954,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C123" t="n">
         <v>196</v>
@@ -4823,13 +4963,13 @@
         <v>196</v>
       </c>
       <c r="E123" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F123" t="n">
-        <v>4871.0894</v>
+        <v>449193</v>
       </c>
       <c r="G123" t="n">
-        <v>195.95</v>
+        <v>-1671488.586170707</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4838,8 +4978,14 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>195</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4850,22 +4996,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C124" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D124" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E124" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F124" t="n">
-        <v>428.5193</v>
+        <v>2472854</v>
       </c>
       <c r="G124" t="n">
-        <v>196</v>
+        <v>-4144342.586170707</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4874,8 +5020,14 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>195</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4898,10 +5050,10 @@
         <v>195</v>
       </c>
       <c r="F125" t="n">
-        <v>86.7377</v>
+        <v>2578696</v>
       </c>
       <c r="G125" t="n">
-        <v>196</v>
+        <v>-4144342.586170707</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4910,8 +5062,14 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>195</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4934,10 +5092,10 @@
         <v>195</v>
       </c>
       <c r="F126" t="n">
-        <v>1044.3742</v>
+        <v>2597940</v>
       </c>
       <c r="G126" t="n">
-        <v>195.95</v>
+        <v>-4144342.586170707</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4946,8 +5104,14 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>195</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4970,10 +5134,10 @@
         <v>195</v>
       </c>
       <c r="F127" t="n">
-        <v>4000</v>
+        <v>2588318</v>
       </c>
       <c r="G127" t="n">
-        <v>195.95</v>
+        <v>-4144342.586170707</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4982,8 +5146,14 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>195</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4994,22 +5164,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C128" t="n">
         <v>195</v>
       </c>
       <c r="D128" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E128" t="n">
         <v>195</v>
       </c>
       <c r="F128" t="n">
-        <v>1571.4642</v>
+        <v>2486578.564</v>
       </c>
       <c r="G128" t="n">
-        <v>196</v>
+        <v>-4144342.586170707</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5018,8 +5188,14 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>195</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5030,22 +5206,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C129" t="n">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D129" t="n">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E129" t="n">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F129" t="n">
-        <v>428.5193</v>
+        <v>2574593.436</v>
       </c>
       <c r="G129" t="n">
-        <v>196.05</v>
+        <v>-4144342.586170707</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5054,8 +5230,14 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>195</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5066,22 +5248,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C130" t="n">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D130" t="n">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E130" t="n">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F130" t="n">
-        <v>237.5425</v>
+        <v>1202750</v>
       </c>
       <c r="G130" t="n">
-        <v>196.15</v>
+        <v>-4144342.586170707</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5090,8 +5272,14 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>195</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5102,36 +5290,1260 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
+        <v>195</v>
+      </c>
+      <c r="C131" t="n">
+        <v>195</v>
+      </c>
+      <c r="D131" t="n">
+        <v>195</v>
+      </c>
+      <c r="E131" t="n">
+        <v>195</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1158742.564</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-4144342.586170707</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>195</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>195</v>
+      </c>
+      <c r="C132" t="n">
+        <v>195</v>
+      </c>
+      <c r="D132" t="n">
+        <v>195</v>
+      </c>
+      <c r="E132" t="n">
+        <v>195</v>
+      </c>
+      <c r="F132" t="n">
+        <v>2597940</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-4144342.586170707</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>195</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>195</v>
+      </c>
+      <c r="C133" t="n">
+        <v>195</v>
+      </c>
+      <c r="D133" t="n">
+        <v>195</v>
+      </c>
+      <c r="E133" t="n">
+        <v>195</v>
+      </c>
+      <c r="F133" t="n">
+        <v>769760</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-4144342.586170707</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>195</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>195</v>
+      </c>
+      <c r="C134" t="n">
+        <v>195</v>
+      </c>
+      <c r="D134" t="n">
+        <v>195</v>
+      </c>
+      <c r="E134" t="n">
+        <v>195</v>
+      </c>
+      <c r="F134" t="n">
+        <v>11292.9021</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-4144342.586170707</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>195</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>196</v>
+      </c>
+      <c r="C135" t="n">
+        <v>196</v>
+      </c>
+      <c r="D135" t="n">
+        <v>196</v>
+      </c>
+      <c r="E135" t="n">
+        <v>196</v>
+      </c>
+      <c r="F135" t="n">
+        <v>17.2602</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-4144325.325970707</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>195</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>195</v>
+      </c>
+      <c r="C136" t="n">
+        <v>195</v>
+      </c>
+      <c r="D136" t="n">
+        <v>195</v>
+      </c>
+      <c r="E136" t="n">
+        <v>195</v>
+      </c>
+      <c r="F136" t="n">
+        <v>2630.6363</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-4146955.962270707</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>195</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>195</v>
+      </c>
+      <c r="C137" t="n">
+        <v>195</v>
+      </c>
+      <c r="D137" t="n">
+        <v>195</v>
+      </c>
+      <c r="E137" t="n">
+        <v>195</v>
+      </c>
+      <c r="F137" t="n">
+        <v>4583.2158</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-4146955.962270707</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>195</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>196</v>
+      </c>
+      <c r="C138" t="n">
+        <v>196</v>
+      </c>
+      <c r="D138" t="n">
+        <v>196</v>
+      </c>
+      <c r="E138" t="n">
+        <v>196</v>
+      </c>
+      <c r="F138" t="n">
+        <v>2775.270408163266</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-4144180.691862544</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>195</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>195</v>
+      </c>
+      <c r="C139" t="n">
+        <v>195</v>
+      </c>
+      <c r="D139" t="n">
+        <v>195</v>
+      </c>
+      <c r="E139" t="n">
+        <v>195</v>
+      </c>
+      <c r="F139" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-4149180.691862544</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>195</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>195</v>
+      </c>
+      <c r="C140" t="n">
+        <v>195</v>
+      </c>
+      <c r="D140" t="n">
+        <v>195</v>
+      </c>
+      <c r="E140" t="n">
+        <v>195</v>
+      </c>
+      <c r="F140" t="n">
+        <v>4142.9536</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-4149180.691862544</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>195</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>196</v>
+      </c>
+      <c r="C141" t="n">
+        <v>196</v>
+      </c>
+      <c r="D141" t="n">
+        <v>196</v>
+      </c>
+      <c r="E141" t="n">
+        <v>196</v>
+      </c>
+      <c r="F141" t="n">
+        <v>13817.8933</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-4135362.798562543</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>195</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>196</v>
+      </c>
+      <c r="C142" t="n">
+        <v>196</v>
+      </c>
+      <c r="D142" t="n">
+        <v>196</v>
+      </c>
+      <c r="E142" t="n">
+        <v>196</v>
+      </c>
+      <c r="F142" t="n">
+        <v>4482.572691836735</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-4135362.798562543</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>195</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>196</v>
+      </c>
+      <c r="C143" t="n">
+        <v>195</v>
+      </c>
+      <c r="D143" t="n">
+        <v>196</v>
+      </c>
+      <c r="E143" t="n">
+        <v>195</v>
+      </c>
+      <c r="F143" t="n">
+        <v>29446.639</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-4164809.437562543</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>195</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>195</v>
+      </c>
+      <c r="C144" t="n">
+        <v>195</v>
+      </c>
+      <c r="D144" t="n">
+        <v>195</v>
+      </c>
+      <c r="E144" t="n">
+        <v>195</v>
+      </c>
+      <c r="F144" t="n">
+        <v>6015.8114</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-4164809.437562543</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>195</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>196</v>
+      </c>
+      <c r="C145" t="n">
+        <v>196</v>
+      </c>
+      <c r="D145" t="n">
+        <v>196</v>
+      </c>
+      <c r="E145" t="n">
+        <v>196</v>
+      </c>
+      <c r="F145" t="n">
+        <v>201.7945</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-4164607.643062544</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>195</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
         <v>198</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C146" t="n">
         <v>198</v>
       </c>
-      <c r="D131" t="n">
+      <c r="D146" t="n">
         <v>198</v>
       </c>
-      <c r="E131" t="n">
+      <c r="E146" t="n">
         <v>198</v>
       </c>
-      <c r="F131" t="n">
+      <c r="F146" t="n">
+        <v>17.7020202020202</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-4164589.941042342</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>195</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>198</v>
+      </c>
+      <c r="C147" t="n">
+        <v>198</v>
+      </c>
+      <c r="D147" t="n">
+        <v>198</v>
+      </c>
+      <c r="E147" t="n">
+        <v>198</v>
+      </c>
+      <c r="F147" t="n">
+        <v>1.0656</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-4164589.941042342</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>195</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>196</v>
+      </c>
+      <c r="C148" t="n">
+        <v>196</v>
+      </c>
+      <c r="D148" t="n">
+        <v>196</v>
+      </c>
+      <c r="E148" t="n">
+        <v>196</v>
+      </c>
+      <c r="F148" t="n">
+        <v>2.9925</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-4164592.933542342</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>195</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>196</v>
+      </c>
+      <c r="C149" t="n">
+        <v>196</v>
+      </c>
+      <c r="D149" t="n">
+        <v>196</v>
+      </c>
+      <c r="E149" t="n">
+        <v>196</v>
+      </c>
+      <c r="F149" t="n">
+        <v>8187.2198</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-4164592.933542342</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>195</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>196</v>
+      </c>
+      <c r="C150" t="n">
+        <v>196</v>
+      </c>
+      <c r="D150" t="n">
+        <v>196</v>
+      </c>
+      <c r="E150" t="n">
+        <v>196</v>
+      </c>
+      <c r="F150" t="n">
+        <v>5128.2051</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-4164592.933542342</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>195</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>198</v>
+      </c>
+      <c r="C151" t="n">
+        <v>198</v>
+      </c>
+      <c r="D151" t="n">
+        <v>198</v>
+      </c>
+      <c r="E151" t="n">
+        <v>198</v>
+      </c>
+      <c r="F151" t="n">
+        <v>1.0654</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-4164591.868142342</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>195</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>196</v>
+      </c>
+      <c r="C152" t="n">
+        <v>196</v>
+      </c>
+      <c r="D152" t="n">
+        <v>196</v>
+      </c>
+      <c r="E152" t="n">
+        <v>196</v>
+      </c>
+      <c r="F152" t="n">
+        <v>4871.0894</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-4169462.957542342</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>195</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>196</v>
+      </c>
+      <c r="C153" t="n">
+        <v>196</v>
+      </c>
+      <c r="D153" t="n">
+        <v>196</v>
+      </c>
+      <c r="E153" t="n">
+        <v>196</v>
+      </c>
+      <c r="F153" t="n">
+        <v>428.5193</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-4169462.957542342</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>195</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>195</v>
+      </c>
+      <c r="C154" t="n">
+        <v>195</v>
+      </c>
+      <c r="D154" t="n">
+        <v>195</v>
+      </c>
+      <c r="E154" t="n">
+        <v>195</v>
+      </c>
+      <c r="F154" t="n">
+        <v>86.7377</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-4169549.695242342</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>195</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>195</v>
+      </c>
+      <c r="C155" t="n">
+        <v>195</v>
+      </c>
+      <c r="D155" t="n">
+        <v>195</v>
+      </c>
+      <c r="E155" t="n">
+        <v>195</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1044.3742</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-4169549.695242342</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>195</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>195</v>
+      </c>
+      <c r="C156" t="n">
+        <v>195</v>
+      </c>
+      <c r="D156" t="n">
+        <v>195</v>
+      </c>
+      <c r="E156" t="n">
+        <v>195</v>
+      </c>
+      <c r="F156" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-4169549.695242342</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>195</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>196</v>
+      </c>
+      <c r="C157" t="n">
+        <v>195</v>
+      </c>
+      <c r="D157" t="n">
+        <v>196</v>
+      </c>
+      <c r="E157" t="n">
+        <v>195</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1571.4642</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-4169549.695242342</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>195</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>197</v>
+      </c>
+      <c r="C158" t="n">
+        <v>197</v>
+      </c>
+      <c r="D158" t="n">
+        <v>197</v>
+      </c>
+      <c r="E158" t="n">
+        <v>197</v>
+      </c>
+      <c r="F158" t="n">
+        <v>428.5193</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-4169121.175942342</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>195</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>197</v>
+      </c>
+      <c r="C159" t="n">
+        <v>197</v>
+      </c>
+      <c r="D159" t="n">
+        <v>197</v>
+      </c>
+      <c r="E159" t="n">
+        <v>197</v>
+      </c>
+      <c r="F159" t="n">
+        <v>237.5425</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-4169121.175942342</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>195</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>198</v>
+      </c>
+      <c r="C160" t="n">
+        <v>198</v>
+      </c>
+      <c r="D160" t="n">
+        <v>198</v>
+      </c>
+      <c r="E160" t="n">
+        <v>198</v>
+      </c>
+      <c r="F160" t="n">
         <v>1.203</v>
       </c>
-      <c r="G131" t="n">
-        <v>196.3</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="G160" t="n">
+        <v>-4169119.972942342</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>195</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-30 BackTest ICX.xlsx
+++ b/BackTest/2019-10-30 BackTest ICX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N160"/>
+  <dimension ref="A1:M160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,15 @@
         <v>-6967.77627070707</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,18 +748,15 @@
         <v>-14799.84727070707</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +913,15 @@
         <v>-16299.76727070707</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,18 +946,15 @@
         <v>-16299.76727070707</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,18 +979,15 @@
         <v>-16299.76727070707</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1045,15 @@
         <v>-16299.76727070707</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1176,18 +1111,15 @@
         <v>-16299.76727070707</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1212,18 +1144,15 @@
         <v>-16299.76727070707</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1356,18 +1276,15 @@
         <v>-20399.38137070707</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1500,18 +1408,15 @@
         <v>-20399.38137070707</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1644,18 +1540,15 @@
         <v>-20399.38137070707</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1932,18 +1804,15 @@
         <v>-20855.75847070707</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1968,18 +1837,15 @@
         <v>-20855.75847070707</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2076,18 +1936,15 @@
         <v>-20855.75847070707</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2112,18 +1969,15 @@
         <v>-20853.71767070707</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2508,18 +2332,21 @@
         <v>3172.098929292933</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2373,17 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2580,18 +2408,21 @@
         <v>3172.098929292933</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2449,17 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2652,18 +2484,21 @@
         <v>5267.429229292931</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2525,17 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2562,17 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2599,17 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2636,17 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2673,17 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2710,17 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2747,17 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2784,17 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2821,17 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2858,17 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2895,17 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2932,17 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2969,17 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +3006,17 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +3043,17 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +3080,17 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3117,17 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3154,17 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3191,17 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3228,17 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3265,17 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3302,17 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3339,17 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3376,17 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3413,17 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3450,17 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3487,17 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3524,17 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3561,17 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3598,17 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3768,22 +3633,21 @@
         <v>-1595084.570770707</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>194</v>
-      </c>
-      <c r="K94" t="n">
-        <v>194</v>
-      </c>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+        <v>194</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3808,24 +3672,21 @@
         <v>-1595084.570770707</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>194</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3850,24 +3711,21 @@
         <v>-1595084.570770707</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>194</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3892,18 +3750,21 @@
         <v>-1595084.570770707</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3928,18 +3789,21 @@
         <v>-1595084.570770707</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3966,16 +3830,17 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4000,18 +3865,21 @@
         <v>-1397684.570770707</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4036,22 +3904,21 @@
         <v>-1397684.570770707</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="n">
-        <v>195</v>
-      </c>
-      <c r="K101" t="n">
-        <v>195</v>
-      </c>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+        <v>195</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4076,26 +3943,19 @@
         <v>-1397684.570770707</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="n">
-        <v>195</v>
-      </c>
-      <c r="K102" t="n">
-        <v>195</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4120,26 +3980,19 @@
         <v>-1397681.586170707</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="n">
-        <v>195</v>
-      </c>
-      <c r="K103" t="n">
-        <v>195</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4164,26 +4017,19 @@
         <v>-2120681.586170707</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="n">
-        <v>196</v>
-      </c>
-      <c r="K104" t="n">
-        <v>195</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4208,26 +4054,19 @@
         <v>-2120681.586170707</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="n">
-        <v>195</v>
-      </c>
-      <c r="K105" t="n">
-        <v>195</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4252,26 +4091,19 @@
         <v>-2120681.586170707</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="n">
-        <v>195</v>
-      </c>
-      <c r="K106" t="n">
-        <v>195</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4296,26 +4128,19 @@
         <v>-2120681.586170707</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="n">
-        <v>195</v>
-      </c>
-      <c r="K107" t="n">
-        <v>195</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4340,26 +4165,19 @@
         <v>-2120681.586170707</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="n">
-        <v>195</v>
-      </c>
-      <c r="K108" t="n">
-        <v>195</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4386,22 +4204,17 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>195</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4428,22 +4241,17 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>195</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4470,22 +4278,17 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>195</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4512,22 +4315,17 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>195</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4554,22 +4352,17 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>195</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4596,22 +4389,17 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>195</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4638,22 +4426,17 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>195</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4680,22 +4463,17 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>195</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4722,22 +4500,17 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>195</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4764,22 +4537,17 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>195</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4806,22 +4574,17 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>195</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4848,22 +4611,17 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>195</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4890,22 +4648,17 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>195</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4932,22 +4685,17 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>195</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4974,22 +4722,17 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>195</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5016,22 +4759,17 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>195</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5058,22 +4796,17 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>195</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5100,22 +4833,17 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>195</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5142,22 +4870,17 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>195</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5184,22 +4907,17 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>195</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5226,22 +4944,17 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>195</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5268,22 +4981,17 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>195</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5310,22 +5018,17 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>195</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5352,22 +5055,17 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>195</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5394,22 +5092,17 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>195</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5436,22 +5129,17 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>195</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5478,22 +5166,17 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>195</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5520,22 +5203,17 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>195</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5562,22 +5240,17 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>195</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5604,22 +5277,17 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>195</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5646,22 +5314,17 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>195</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5688,22 +5351,17 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>195</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5730,22 +5388,17 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>195</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5772,22 +5425,17 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>195</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5812,24 +5460,21 @@
         <v>-4164809.437562543</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>195</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5856,22 +5501,17 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>195</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5896,24 +5536,21 @@
         <v>-4164607.643062544</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>195</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5940,22 +5577,17 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>195</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5982,22 +5614,17 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>195</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6024,22 +5651,17 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>195</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6066,22 +5688,17 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>195</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6108,22 +5725,17 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>195</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6150,22 +5762,17 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>195</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6192,22 +5799,17 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>195</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6234,22 +5836,17 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>195</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6276,22 +5873,17 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>195</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6318,22 +5910,17 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>195</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6360,22 +5947,17 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>195</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6402,22 +5984,17 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>195</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6444,22 +6021,17 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>195</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6486,22 +6058,17 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>195</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6528,24 +6095,19 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>195</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest ICX.xlsx
+++ b/BackTest/2019-10-30 BackTest ICX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-6967.77627070707</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-6967.77627070707</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-6967.77627070707</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-14799.84727070707</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-16299.76727070707</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-16299.76727070707</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-16299.76727070707</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-16299.76727070707</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-16299.76727070707</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-16299.76727070707</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-16299.76727070707</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-16299.76727070707</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-16299.76727070707</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-16466.99137070707</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-20399.38137070707</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-20399.38137070707</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-20399.38137070707</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-20399.38137070707</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-20399.38137070707</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-20399.38137070707</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-20399.38137070707</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-20399.38137070707</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-20399.38137070707</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-20399.38137070707</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-20399.38137070707</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-20399.38137070707</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-20399.38137070707</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-20349.38137070707</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-20517.92067070707</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-20517.92067070707</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-20855.75847070707</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-20855.75847070707</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-20855.75847070707</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-20853.71767070707</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-27021.73757070707</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-32099.70897070707</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-32099.70897070707</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-32099.70897070707</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-32099.70897070707</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-32203.32897070707</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2332,2403 +2332,2171 @@
         <v>3172.098929292933</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>194</v>
+      </c>
+      <c r="C60" t="n">
+        <v>195</v>
+      </c>
+      <c r="D60" t="n">
+        <v>195</v>
+      </c>
+      <c r="E60" t="n">
+        <v>193</v>
+      </c>
+      <c r="F60" t="n">
+        <v>55941.2327</v>
+      </c>
+      <c r="G60" t="n">
+        <v>3172.098929292933</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>195</v>
+      </c>
+      <c r="C61" t="n">
+        <v>195</v>
+      </c>
+      <c r="D61" t="n">
+        <v>195</v>
+      </c>
+      <c r="E61" t="n">
+        <v>194</v>
+      </c>
+      <c r="F61" t="n">
+        <v>58279.8908</v>
+      </c>
+      <c r="G61" t="n">
+        <v>3172.098929292933</v>
+      </c>
+      <c r="H61" t="n">
         <v>2</v>
       </c>
-      <c r="I59" t="n">
-        <v>194</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>195</v>
+      </c>
+      <c r="C62" t="n">
+        <v>194</v>
+      </c>
+      <c r="D62" t="n">
+        <v>195</v>
+      </c>
+      <c r="E62" t="n">
+        <v>194</v>
+      </c>
+      <c r="F62" t="n">
+        <v>30420.0315</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-27247.93257070707</v>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>194</v>
+      </c>
+      <c r="C63" t="n">
+        <v>196</v>
+      </c>
+      <c r="D63" t="n">
+        <v>196</v>
+      </c>
+      <c r="E63" t="n">
+        <v>194</v>
+      </c>
+      <c r="F63" t="n">
+        <v>32515.3618</v>
+      </c>
+      <c r="G63" t="n">
+        <v>5267.429229292931</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>195</v>
+      </c>
+      <c r="C64" t="n">
+        <v>195</v>
+      </c>
+      <c r="D64" t="n">
+        <v>195</v>
+      </c>
+      <c r="E64" t="n">
+        <v>195</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1340352</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-1335084.570770707</v>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>195</v>
+      </c>
+      <c r="C65" t="n">
+        <v>195</v>
+      </c>
+      <c r="D65" t="n">
+        <v>195</v>
+      </c>
+      <c r="E65" t="n">
+        <v>195</v>
+      </c>
+      <c r="F65" t="n">
+        <v>308392</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-1335084.570770707</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>195</v>
+      </c>
+      <c r="C66" t="n">
+        <v>195</v>
+      </c>
+      <c r="D66" t="n">
+        <v>195</v>
+      </c>
+      <c r="E66" t="n">
+        <v>195</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1340000</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-1335084.570770707</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>195</v>
+      </c>
+      <c r="C67" t="n">
+        <v>195</v>
+      </c>
+      <c r="D67" t="n">
+        <v>195</v>
+      </c>
+      <c r="E67" t="n">
+        <v>195</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1385000</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-1335084.570770707</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>195</v>
+      </c>
+      <c r="C68" t="n">
+        <v>195</v>
+      </c>
+      <c r="D68" t="n">
+        <v>195</v>
+      </c>
+      <c r="E68" t="n">
+        <v>195</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1350000</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-1335084.570770707</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>195</v>
+      </c>
+      <c r="C69" t="n">
+        <v>195</v>
+      </c>
+      <c r="D69" t="n">
+        <v>195</v>
+      </c>
+      <c r="E69" t="n">
+        <v>195</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1350000</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-1335084.570770707</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>195</v>
+      </c>
+      <c r="C70" t="n">
+        <v>195</v>
+      </c>
+      <c r="D70" t="n">
+        <v>195</v>
+      </c>
+      <c r="E70" t="n">
+        <v>195</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1365000</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-1335084.570770707</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>195</v>
+      </c>
+      <c r="C71" t="n">
+        <v>195</v>
+      </c>
+      <c r="D71" t="n">
+        <v>195</v>
+      </c>
+      <c r="E71" t="n">
+        <v>195</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1365000</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-1335084.570770707</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>195</v>
+      </c>
+      <c r="C72" t="n">
+        <v>195</v>
+      </c>
+      <c r="D72" t="n">
+        <v>195</v>
+      </c>
+      <c r="E72" t="n">
+        <v>195</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1350000</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-1335084.570770707</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>195</v>
+      </c>
+      <c r="C73" t="n">
+        <v>195</v>
+      </c>
+      <c r="D73" t="n">
+        <v>195</v>
+      </c>
+      <c r="E73" t="n">
+        <v>195</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1335000</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-1335084.570770707</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>195</v>
+      </c>
+      <c r="C74" t="n">
+        <v>195</v>
+      </c>
+      <c r="D74" t="n">
+        <v>195</v>
+      </c>
+      <c r="E74" t="n">
+        <v>195</v>
+      </c>
+      <c r="F74" t="n">
+        <v>1336049.8164</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-1335084.570770707</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>195</v>
+      </c>
+      <c r="C75" t="n">
+        <v>195</v>
+      </c>
+      <c r="D75" t="n">
+        <v>195</v>
+      </c>
+      <c r="E75" t="n">
+        <v>195</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1373950.1836</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-1335084.570770707</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>195</v>
+      </c>
+      <c r="C76" t="n">
+        <v>195</v>
+      </c>
+      <c r="D76" t="n">
+        <v>195</v>
+      </c>
+      <c r="E76" t="n">
+        <v>195</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1330000</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-1335084.570770707</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>195</v>
+      </c>
+      <c r="C77" t="n">
+        <v>195</v>
+      </c>
+      <c r="D77" t="n">
+        <v>195</v>
+      </c>
+      <c r="E77" t="n">
+        <v>195</v>
+      </c>
+      <c r="F77" t="n">
+        <v>726049.8164</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-1335084.570770707</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>194</v>
+      </c>
+      <c r="C78" t="n">
+        <v>194</v>
+      </c>
+      <c r="D78" t="n">
+        <v>194</v>
+      </c>
+      <c r="E78" t="n">
+        <v>194</v>
+      </c>
+      <c r="F78" t="n">
+        <v>260000</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-1595084.570770707</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>194</v>
+      </c>
+      <c r="C79" t="n">
+        <v>194</v>
+      </c>
+      <c r="D79" t="n">
+        <v>194</v>
+      </c>
+      <c r="E79" t="n">
+        <v>194</v>
+      </c>
+      <c r="F79" t="n">
+        <v>2730000</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-1595084.570770707</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>194</v>
+      </c>
+      <c r="C80" t="n">
+        <v>194</v>
+      </c>
+      <c r="D80" t="n">
+        <v>194</v>
+      </c>
+      <c r="E80" t="n">
+        <v>194</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1224150.5972</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-1595084.570770707</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>194</v>
+      </c>
+      <c r="C81" t="n">
+        <v>194</v>
+      </c>
+      <c r="D81" t="n">
+        <v>194</v>
+      </c>
+      <c r="E81" t="n">
+        <v>194</v>
+      </c>
+      <c r="F81" t="n">
+        <v>2700000</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-1595084.570770707</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>194</v>
+      </c>
+      <c r="C82" t="n">
+        <v>194</v>
+      </c>
+      <c r="D82" t="n">
+        <v>194</v>
+      </c>
+      <c r="E82" t="n">
+        <v>194</v>
+      </c>
+      <c r="F82" t="n">
+        <v>2734102.564</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-1595084.570770707</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>194</v>
+      </c>
+      <c r="C83" t="n">
+        <v>194</v>
+      </c>
+      <c r="D83" t="n">
+        <v>194</v>
+      </c>
+      <c r="E83" t="n">
+        <v>194</v>
+      </c>
+      <c r="F83" t="n">
+        <v>2748205.128</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-1595084.570770707</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>194</v>
+      </c>
+      <c r="C84" t="n">
+        <v>194</v>
+      </c>
+      <c r="D84" t="n">
+        <v>194</v>
+      </c>
+      <c r="E84" t="n">
+        <v>194</v>
+      </c>
+      <c r="F84" t="n">
+        <v>2660000</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-1595084.570770707</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>194</v>
+      </c>
+      <c r="C85" t="n">
+        <v>194</v>
+      </c>
+      <c r="D85" t="n">
+        <v>194</v>
+      </c>
+      <c r="E85" t="n">
+        <v>194</v>
+      </c>
+      <c r="F85" t="n">
+        <v>2708383.1022</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-1595084.570770707</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>194</v>
+      </c>
+      <c r="C86" t="n">
+        <v>194</v>
+      </c>
+      <c r="D86" t="n">
+        <v>194</v>
+      </c>
+      <c r="E86" t="n">
+        <v>194</v>
+      </c>
+      <c r="F86" t="n">
+        <v>2690000</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-1595084.570770707</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>194</v>
+      </c>
+      <c r="C87" t="n">
+        <v>194</v>
+      </c>
+      <c r="D87" t="n">
+        <v>194</v>
+      </c>
+      <c r="E87" t="n">
+        <v>194</v>
+      </c>
+      <c r="F87" t="n">
+        <v>2681616.8978</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-1595084.570770707</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>194</v>
+      </c>
+      <c r="C88" t="n">
+        <v>194</v>
+      </c>
+      <c r="D88" t="n">
+        <v>194</v>
+      </c>
+      <c r="E88" t="n">
+        <v>194</v>
+      </c>
+      <c r="F88" t="n">
+        <v>2658383.1022</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-1595084.570770707</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>194</v>
+      </c>
+      <c r="C89" t="n">
+        <v>194</v>
+      </c>
+      <c r="D89" t="n">
+        <v>195</v>
+      </c>
+      <c r="E89" t="n">
+        <v>194</v>
+      </c>
+      <c r="F89" t="n">
+        <v>2664594.723</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-1595084.570770707</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>194</v>
+      </c>
+      <c r="C90" t="n">
+        <v>194</v>
+      </c>
+      <c r="D90" t="n">
+        <v>194</v>
+      </c>
+      <c r="E90" t="n">
+        <v>194</v>
+      </c>
+      <c r="F90" t="n">
+        <v>2690000</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-1595084.570770707</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>194</v>
+      </c>
+      <c r="C91" t="n">
+        <v>194</v>
+      </c>
+      <c r="D91" t="n">
+        <v>194</v>
+      </c>
+      <c r="E91" t="n">
+        <v>194</v>
+      </c>
+      <c r="F91" t="n">
+        <v>830000</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-1595084.570770707</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>194</v>
+      </c>
+      <c r="C92" t="n">
+        <v>194</v>
+      </c>
+      <c r="D92" t="n">
+        <v>194</v>
+      </c>
+      <c r="E92" t="n">
+        <v>194</v>
+      </c>
+      <c r="F92" t="n">
+        <v>134.0326</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-1595084.570770707</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>194</v>
+      </c>
+      <c r="C93" t="n">
+        <v>194</v>
+      </c>
+      <c r="D93" t="n">
+        <v>194</v>
+      </c>
+      <c r="E93" t="n">
+        <v>194</v>
+      </c>
+      <c r="F93" t="n">
+        <v>14726.0999</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-1595084.570770707</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>194</v>
+      </c>
+      <c r="C94" t="n">
+        <v>194</v>
+      </c>
+      <c r="D94" t="n">
+        <v>194</v>
+      </c>
+      <c r="E94" t="n">
+        <v>194</v>
+      </c>
+      <c r="F94" t="n">
+        <v>361306.1609</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-1595084.570770707</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>194</v>
+      </c>
+      <c r="C95" t="n">
+        <v>194</v>
+      </c>
+      <c r="D95" t="n">
+        <v>194</v>
+      </c>
+      <c r="E95" t="n">
+        <v>194</v>
+      </c>
+      <c r="F95" t="n">
+        <v>2680082.564</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-1595084.570770707</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>194</v>
+      </c>
+      <c r="C96" t="n">
+        <v>194</v>
+      </c>
+      <c r="D96" t="n">
+        <v>194</v>
+      </c>
+      <c r="E96" t="n">
+        <v>194</v>
+      </c>
+      <c r="F96" t="n">
+        <v>2695950</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-1595084.570770707</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>194</v>
+      </c>
+      <c r="C97" t="n">
+        <v>194</v>
+      </c>
+      <c r="D97" t="n">
+        <v>194</v>
+      </c>
+      <c r="E97" t="n">
+        <v>194</v>
+      </c>
+      <c r="F97" t="n">
+        <v>2705935</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-1595084.570770707</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>194</v>
+      </c>
+      <c r="C98" t="n">
+        <v>194</v>
+      </c>
+      <c r="D98" t="n">
+        <v>194</v>
+      </c>
+      <c r="E98" t="n">
+        <v>194</v>
+      </c>
+      <c r="F98" t="n">
+        <v>2708191.4031</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-1595084.570770707</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>194</v>
+      </c>
+      <c r="C99" t="n">
+        <v>194</v>
+      </c>
+      <c r="D99" t="n">
+        <v>194</v>
+      </c>
+      <c r="E99" t="n">
+        <v>194</v>
+      </c>
+      <c r="F99" t="n">
+        <v>2556160</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-1595084.570770707</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>195</v>
+      </c>
+      <c r="C100" t="n">
+        <v>195</v>
+      </c>
+      <c r="D100" t="n">
+        <v>195</v>
+      </c>
+      <c r="E100" t="n">
+        <v>195</v>
+      </c>
+      <c r="F100" t="n">
+        <v>197400</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-1397684.570770707</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>195</v>
+      </c>
+      <c r="C101" t="n">
+        <v>195</v>
+      </c>
+      <c r="D101" t="n">
+        <v>195</v>
+      </c>
+      <c r="E101" t="n">
+        <v>195</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1342762.4794</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-1397684.570770707</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>195</v>
+      </c>
+      <c r="C102" t="n">
+        <v>195</v>
+      </c>
+      <c r="D102" t="n">
+        <v>195</v>
+      </c>
+      <c r="E102" t="n">
+        <v>195</v>
+      </c>
+      <c r="F102" t="n">
+        <v>30145</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-1397684.570770707</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>195</v>
+      </c>
+      <c r="C103" t="n">
+        <v>196</v>
+      </c>
+      <c r="D103" t="n">
+        <v>196</v>
+      </c>
+      <c r="E103" t="n">
+        <v>195</v>
+      </c>
+      <c r="F103" t="n">
+        <v>2.9846</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-1397681.586170707</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>195</v>
+      </c>
+      <c r="C104" t="n">
+        <v>195</v>
+      </c>
+      <c r="D104" t="n">
+        <v>195</v>
+      </c>
+      <c r="E104" t="n">
+        <v>195</v>
+      </c>
+      <c r="F104" t="n">
+        <v>723000</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-2120681.586170707</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>195</v>
+      </c>
+      <c r="C105" t="n">
+        <v>195</v>
+      </c>
+      <c r="D105" t="n">
+        <v>195</v>
+      </c>
+      <c r="E105" t="n">
+        <v>195</v>
+      </c>
+      <c r="F105" t="n">
+        <v>801341.5103</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-2120681.586170707</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>195</v>
+      </c>
+      <c r="C106" t="n">
+        <v>195</v>
+      </c>
+      <c r="D106" t="n">
+        <v>195</v>
+      </c>
+      <c r="E106" t="n">
+        <v>195</v>
+      </c>
+      <c r="F106" t="n">
+        <v>806658.4897</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-2120681.586170707</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>195</v>
+      </c>
+      <c r="C107" t="n">
+        <v>195</v>
+      </c>
+      <c r="D107" t="n">
+        <v>195</v>
+      </c>
+      <c r="E107" t="n">
+        <v>195</v>
+      </c>
+      <c r="F107" t="n">
+        <v>810000</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-2120681.586170707</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>195</v>
+      </c>
+      <c r="C108" t="n">
+        <v>195</v>
+      </c>
+      <c r="D108" t="n">
+        <v>195</v>
+      </c>
+      <c r="E108" t="n">
+        <v>195</v>
+      </c>
+      <c r="F108" t="n">
+        <v>810000</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-2120681.586170707</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>195</v>
+      </c>
+      <c r="C109" t="n">
+        <v>195</v>
+      </c>
+      <c r="D109" t="n">
+        <v>195</v>
+      </c>
+      <c r="E109" t="n">
+        <v>195</v>
+      </c>
+      <c r="F109" t="n">
+        <v>807000</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-2120681.586170707</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>195</v>
+      </c>
+      <c r="C110" t="n">
+        <v>195</v>
+      </c>
+      <c r="D110" t="n">
+        <v>195</v>
+      </c>
+      <c r="E110" t="n">
+        <v>195</v>
+      </c>
+      <c r="F110" t="n">
+        <v>807000</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-2120681.586170707</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>195</v>
+      </c>
+      <c r="C111" t="n">
+        <v>195</v>
+      </c>
+      <c r="D111" t="n">
+        <v>195</v>
+      </c>
+      <c r="E111" t="n">
+        <v>195</v>
+      </c>
+      <c r="F111" t="n">
+        <v>804000</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-2120681.586170707</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>195</v>
+      </c>
+      <c r="C112" t="n">
+        <v>195</v>
+      </c>
+      <c r="D112" t="n">
+        <v>195</v>
+      </c>
+      <c r="E112" t="n">
+        <v>195</v>
+      </c>
+      <c r="F112" t="n">
+        <v>810000</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-2120681.586170707</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>195</v>
+      </c>
+      <c r="C113" t="n">
+        <v>195</v>
+      </c>
+      <c r="D113" t="n">
+        <v>195</v>
+      </c>
+      <c r="E113" t="n">
+        <v>195</v>
+      </c>
+      <c r="F113" t="n">
+        <v>786000</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-2120681.586170707</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>195</v>
+      </c>
+      <c r="C114" t="n">
+        <v>195</v>
+      </c>
+      <c r="D114" t="n">
+        <v>195</v>
+      </c>
+      <c r="E114" t="n">
+        <v>195</v>
+      </c>
+      <c r="F114" t="n">
+        <v>798238.7772</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-2120681.586170707</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>195</v>
+      </c>
+      <c r="C115" t="n">
+        <v>195</v>
+      </c>
+      <c r="D115" t="n">
+        <v>195</v>
+      </c>
+      <c r="E115" t="n">
+        <v>195</v>
+      </c>
+      <c r="F115" t="n">
+        <v>855998</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-2120681.586170707</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>195</v>
+      </c>
+      <c r="C116" t="n">
+        <v>195</v>
+      </c>
+      <c r="D116" t="n">
+        <v>195</v>
+      </c>
+      <c r="E116" t="n">
+        <v>195</v>
+      </c>
+      <c r="F116" t="n">
+        <v>988806</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-2120681.586170707</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>195</v>
+      </c>
+      <c r="C117" t="n">
+        <v>195</v>
+      </c>
+      <c r="D117" t="n">
+        <v>195</v>
+      </c>
+      <c r="E117" t="n">
+        <v>195</v>
+      </c>
+      <c r="F117" t="n">
+        <v>985184</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-2120681.586170707</v>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>195</v>
+      </c>
+      <c r="J117" t="n">
+        <v>195</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>195</v>
+      </c>
+      <c r="C118" t="n">
+        <v>195</v>
+      </c>
+      <c r="D118" t="n">
+        <v>195</v>
+      </c>
+      <c r="E118" t="n">
+        <v>195</v>
+      </c>
+      <c r="F118" t="n">
+        <v>974318</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-2120681.586170707</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>195</v>
+      </c>
+      <c r="J118" t="n">
+        <v>195</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>195</v>
+      </c>
+      <c r="C119" t="n">
+        <v>195</v>
+      </c>
+      <c r="D119" t="n">
+        <v>195</v>
+      </c>
+      <c r="E119" t="n">
+        <v>195</v>
+      </c>
+      <c r="F119" t="n">
+        <v>967074</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-2120681.586170707</v>
+      </c>
+      <c r="H119" t="n">
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>195</v>
+      </c>
+      <c r="J119" t="n">
+        <v>195</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>195</v>
+      </c>
+      <c r="C120" t="n">
+        <v>195</v>
+      </c>
+      <c r="D120" t="n">
+        <v>195</v>
+      </c>
+      <c r="E120" t="n">
+        <v>195</v>
+      </c>
+      <c r="F120" t="n">
+        <v>963452</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-2120681.586170707</v>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>195</v>
+      </c>
+      <c r="J120" t="n">
+        <v>195</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>195</v>
+      </c>
+      <c r="C121" t="n">
+        <v>195</v>
+      </c>
+      <c r="D121" t="n">
+        <v>195</v>
+      </c>
+      <c r="E121" t="n">
+        <v>195</v>
+      </c>
+      <c r="F121" t="n">
+        <v>987562</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-2120681.586170707</v>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>195</v>
+      </c>
+      <c r="J121" t="n">
+        <v>195</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>195</v>
+      </c>
+      <c r="C122" t="n">
+        <v>195</v>
+      </c>
+      <c r="D122" t="n">
+        <v>195</v>
+      </c>
+      <c r="E122" t="n">
+        <v>195</v>
+      </c>
+      <c r="F122" t="n">
+        <v>967176.7331</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-2120681.586170707</v>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>195</v>
+      </c>
+      <c r="J122" t="n">
+        <v>195</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>195</v>
+      </c>
+      <c r="C123" t="n">
+        <v>196</v>
+      </c>
+      <c r="D123" t="n">
+        <v>196</v>
+      </c>
+      <c r="E123" t="n">
+        <v>195</v>
+      </c>
+      <c r="F123" t="n">
+        <v>449193</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-1671488.586170707</v>
+      </c>
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>195</v>
+      </c>
+      <c r="J123" t="n">
+        <v>195</v>
+      </c>
+      <c r="K123" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>194</v>
-      </c>
-      <c r="C60" t="n">
-        <v>195</v>
-      </c>
-      <c r="D60" t="n">
-        <v>195</v>
-      </c>
-      <c r="E60" t="n">
-        <v>193</v>
-      </c>
-      <c r="F60" t="n">
-        <v>55941.2327</v>
-      </c>
-      <c r="G60" t="n">
-        <v>3172.098929292933</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>195</v>
-      </c>
-      <c r="C61" t="n">
-        <v>195</v>
-      </c>
-      <c r="D61" t="n">
-        <v>195</v>
-      </c>
-      <c r="E61" t="n">
-        <v>194</v>
-      </c>
-      <c r="F61" t="n">
-        <v>58279.8908</v>
-      </c>
-      <c r="G61" t="n">
-        <v>3172.098929292933</v>
-      </c>
-      <c r="H61" t="n">
-        <v>2</v>
-      </c>
-      <c r="I61" t="n">
-        <v>195</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>195</v>
-      </c>
-      <c r="C62" t="n">
-        <v>194</v>
-      </c>
-      <c r="D62" t="n">
-        <v>195</v>
-      </c>
-      <c r="E62" t="n">
-        <v>194</v>
-      </c>
-      <c r="F62" t="n">
-        <v>30420.0315</v>
-      </c>
-      <c r="G62" t="n">
-        <v>-27247.93257070707</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>194</v>
-      </c>
-      <c r="C63" t="n">
-        <v>196</v>
-      </c>
-      <c r="D63" t="n">
-        <v>196</v>
-      </c>
-      <c r="E63" t="n">
-        <v>194</v>
-      </c>
-      <c r="F63" t="n">
-        <v>32515.3618</v>
-      </c>
-      <c r="G63" t="n">
-        <v>5267.429229292931</v>
-      </c>
-      <c r="H63" t="n">
-        <v>2</v>
-      </c>
-      <c r="I63" t="n">
-        <v>194</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>195</v>
-      </c>
-      <c r="C64" t="n">
-        <v>195</v>
-      </c>
-      <c r="D64" t="n">
-        <v>195</v>
-      </c>
-      <c r="E64" t="n">
-        <v>195</v>
-      </c>
-      <c r="F64" t="n">
-        <v>1340352</v>
-      </c>
-      <c r="G64" t="n">
-        <v>-1335084.570770707</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>195</v>
-      </c>
-      <c r="C65" t="n">
-        <v>195</v>
-      </c>
-      <c r="D65" t="n">
-        <v>195</v>
-      </c>
-      <c r="E65" t="n">
-        <v>195</v>
-      </c>
-      <c r="F65" t="n">
-        <v>308392</v>
-      </c>
-      <c r="G65" t="n">
-        <v>-1335084.570770707</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>195</v>
-      </c>
-      <c r="C66" t="n">
-        <v>195</v>
-      </c>
-      <c r="D66" t="n">
-        <v>195</v>
-      </c>
-      <c r="E66" t="n">
-        <v>195</v>
-      </c>
-      <c r="F66" t="n">
-        <v>1340000</v>
-      </c>
-      <c r="G66" t="n">
-        <v>-1335084.570770707</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>195</v>
-      </c>
-      <c r="C67" t="n">
-        <v>195</v>
-      </c>
-      <c r="D67" t="n">
-        <v>195</v>
-      </c>
-      <c r="E67" t="n">
-        <v>195</v>
-      </c>
-      <c r="F67" t="n">
-        <v>1385000</v>
-      </c>
-      <c r="G67" t="n">
-        <v>-1335084.570770707</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>195</v>
-      </c>
-      <c r="C68" t="n">
-        <v>195</v>
-      </c>
-      <c r="D68" t="n">
-        <v>195</v>
-      </c>
-      <c r="E68" t="n">
-        <v>195</v>
-      </c>
-      <c r="F68" t="n">
-        <v>1350000</v>
-      </c>
-      <c r="G68" t="n">
-        <v>-1335084.570770707</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>195</v>
-      </c>
-      <c r="C69" t="n">
-        <v>195</v>
-      </c>
-      <c r="D69" t="n">
-        <v>195</v>
-      </c>
-      <c r="E69" t="n">
-        <v>195</v>
-      </c>
-      <c r="F69" t="n">
-        <v>1350000</v>
-      </c>
-      <c r="G69" t="n">
-        <v>-1335084.570770707</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>195</v>
-      </c>
-      <c r="C70" t="n">
-        <v>195</v>
-      </c>
-      <c r="D70" t="n">
-        <v>195</v>
-      </c>
-      <c r="E70" t="n">
-        <v>195</v>
-      </c>
-      <c r="F70" t="n">
-        <v>1365000</v>
-      </c>
-      <c r="G70" t="n">
-        <v>-1335084.570770707</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>195</v>
-      </c>
-      <c r="C71" t="n">
-        <v>195</v>
-      </c>
-      <c r="D71" t="n">
-        <v>195</v>
-      </c>
-      <c r="E71" t="n">
-        <v>195</v>
-      </c>
-      <c r="F71" t="n">
-        <v>1365000</v>
-      </c>
-      <c r="G71" t="n">
-        <v>-1335084.570770707</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>195</v>
-      </c>
-      <c r="C72" t="n">
-        <v>195</v>
-      </c>
-      <c r="D72" t="n">
-        <v>195</v>
-      </c>
-      <c r="E72" t="n">
-        <v>195</v>
-      </c>
-      <c r="F72" t="n">
-        <v>1350000</v>
-      </c>
-      <c r="G72" t="n">
-        <v>-1335084.570770707</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>195</v>
-      </c>
-      <c r="C73" t="n">
-        <v>195</v>
-      </c>
-      <c r="D73" t="n">
-        <v>195</v>
-      </c>
-      <c r="E73" t="n">
-        <v>195</v>
-      </c>
-      <c r="F73" t="n">
-        <v>1335000</v>
-      </c>
-      <c r="G73" t="n">
-        <v>-1335084.570770707</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>195</v>
-      </c>
-      <c r="C74" t="n">
-        <v>195</v>
-      </c>
-      <c r="D74" t="n">
-        <v>195</v>
-      </c>
-      <c r="E74" t="n">
-        <v>195</v>
-      </c>
-      <c r="F74" t="n">
-        <v>1336049.8164</v>
-      </c>
-      <c r="G74" t="n">
-        <v>-1335084.570770707</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>195</v>
-      </c>
-      <c r="C75" t="n">
-        <v>195</v>
-      </c>
-      <c r="D75" t="n">
-        <v>195</v>
-      </c>
-      <c r="E75" t="n">
-        <v>195</v>
-      </c>
-      <c r="F75" t="n">
-        <v>1373950.1836</v>
-      </c>
-      <c r="G75" t="n">
-        <v>-1335084.570770707</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>195</v>
-      </c>
-      <c r="C76" t="n">
-        <v>195</v>
-      </c>
-      <c r="D76" t="n">
-        <v>195</v>
-      </c>
-      <c r="E76" t="n">
-        <v>195</v>
-      </c>
-      <c r="F76" t="n">
-        <v>1330000</v>
-      </c>
-      <c r="G76" t="n">
-        <v>-1335084.570770707</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>195</v>
-      </c>
-      <c r="C77" t="n">
-        <v>195</v>
-      </c>
-      <c r="D77" t="n">
-        <v>195</v>
-      </c>
-      <c r="E77" t="n">
-        <v>195</v>
-      </c>
-      <c r="F77" t="n">
-        <v>726049.8164</v>
-      </c>
-      <c r="G77" t="n">
-        <v>-1335084.570770707</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>194</v>
-      </c>
-      <c r="C78" t="n">
-        <v>194</v>
-      </c>
-      <c r="D78" t="n">
-        <v>194</v>
-      </c>
-      <c r="E78" t="n">
-        <v>194</v>
-      </c>
-      <c r="F78" t="n">
-        <v>260000</v>
-      </c>
-      <c r="G78" t="n">
-        <v>-1595084.570770707</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>194</v>
-      </c>
-      <c r="C79" t="n">
-        <v>194</v>
-      </c>
-      <c r="D79" t="n">
-        <v>194</v>
-      </c>
-      <c r="E79" t="n">
-        <v>194</v>
-      </c>
-      <c r="F79" t="n">
-        <v>2730000</v>
-      </c>
-      <c r="G79" t="n">
-        <v>-1595084.570770707</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>194</v>
-      </c>
-      <c r="C80" t="n">
-        <v>194</v>
-      </c>
-      <c r="D80" t="n">
-        <v>194</v>
-      </c>
-      <c r="E80" t="n">
-        <v>194</v>
-      </c>
-      <c r="F80" t="n">
-        <v>1224150.5972</v>
-      </c>
-      <c r="G80" t="n">
-        <v>-1595084.570770707</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>194</v>
-      </c>
-      <c r="C81" t="n">
-        <v>194</v>
-      </c>
-      <c r="D81" t="n">
-        <v>194</v>
-      </c>
-      <c r="E81" t="n">
-        <v>194</v>
-      </c>
-      <c r="F81" t="n">
-        <v>2700000</v>
-      </c>
-      <c r="G81" t="n">
-        <v>-1595084.570770707</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>194</v>
-      </c>
-      <c r="C82" t="n">
-        <v>194</v>
-      </c>
-      <c r="D82" t="n">
-        <v>194</v>
-      </c>
-      <c r="E82" t="n">
-        <v>194</v>
-      </c>
-      <c r="F82" t="n">
-        <v>2734102.564</v>
-      </c>
-      <c r="G82" t="n">
-        <v>-1595084.570770707</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>194</v>
-      </c>
-      <c r="C83" t="n">
-        <v>194</v>
-      </c>
-      <c r="D83" t="n">
-        <v>194</v>
-      </c>
-      <c r="E83" t="n">
-        <v>194</v>
-      </c>
-      <c r="F83" t="n">
-        <v>2748205.128</v>
-      </c>
-      <c r="G83" t="n">
-        <v>-1595084.570770707</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>194</v>
-      </c>
-      <c r="C84" t="n">
-        <v>194</v>
-      </c>
-      <c r="D84" t="n">
-        <v>194</v>
-      </c>
-      <c r="E84" t="n">
-        <v>194</v>
-      </c>
-      <c r="F84" t="n">
-        <v>2660000</v>
-      </c>
-      <c r="G84" t="n">
-        <v>-1595084.570770707</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>194</v>
-      </c>
-      <c r="C85" t="n">
-        <v>194</v>
-      </c>
-      <c r="D85" t="n">
-        <v>194</v>
-      </c>
-      <c r="E85" t="n">
-        <v>194</v>
-      </c>
-      <c r="F85" t="n">
-        <v>2708383.1022</v>
-      </c>
-      <c r="G85" t="n">
-        <v>-1595084.570770707</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>194</v>
-      </c>
-      <c r="C86" t="n">
-        <v>194</v>
-      </c>
-      <c r="D86" t="n">
-        <v>194</v>
-      </c>
-      <c r="E86" t="n">
-        <v>194</v>
-      </c>
-      <c r="F86" t="n">
-        <v>2690000</v>
-      </c>
-      <c r="G86" t="n">
-        <v>-1595084.570770707</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>194</v>
-      </c>
-      <c r="C87" t="n">
-        <v>194</v>
-      </c>
-      <c r="D87" t="n">
-        <v>194</v>
-      </c>
-      <c r="E87" t="n">
-        <v>194</v>
-      </c>
-      <c r="F87" t="n">
-        <v>2681616.8978</v>
-      </c>
-      <c r="G87" t="n">
-        <v>-1595084.570770707</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>194</v>
-      </c>
-      <c r="C88" t="n">
-        <v>194</v>
-      </c>
-      <c r="D88" t="n">
-        <v>194</v>
-      </c>
-      <c r="E88" t="n">
-        <v>194</v>
-      </c>
-      <c r="F88" t="n">
-        <v>2658383.1022</v>
-      </c>
-      <c r="G88" t="n">
-        <v>-1595084.570770707</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>194</v>
-      </c>
-      <c r="C89" t="n">
-        <v>194</v>
-      </c>
-      <c r="D89" t="n">
-        <v>195</v>
-      </c>
-      <c r="E89" t="n">
-        <v>194</v>
-      </c>
-      <c r="F89" t="n">
-        <v>2664594.723</v>
-      </c>
-      <c r="G89" t="n">
-        <v>-1595084.570770707</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>194</v>
-      </c>
-      <c r="C90" t="n">
-        <v>194</v>
-      </c>
-      <c r="D90" t="n">
-        <v>194</v>
-      </c>
-      <c r="E90" t="n">
-        <v>194</v>
-      </c>
-      <c r="F90" t="n">
-        <v>2690000</v>
-      </c>
-      <c r="G90" t="n">
-        <v>-1595084.570770707</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>194</v>
-      </c>
-      <c r="C91" t="n">
-        <v>194</v>
-      </c>
-      <c r="D91" t="n">
-        <v>194</v>
-      </c>
-      <c r="E91" t="n">
-        <v>194</v>
-      </c>
-      <c r="F91" t="n">
-        <v>830000</v>
-      </c>
-      <c r="G91" t="n">
-        <v>-1595084.570770707</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>194</v>
-      </c>
-      <c r="C92" t="n">
-        <v>194</v>
-      </c>
-      <c r="D92" t="n">
-        <v>194</v>
-      </c>
-      <c r="E92" t="n">
-        <v>194</v>
-      </c>
-      <c r="F92" t="n">
-        <v>134.0326</v>
-      </c>
-      <c r="G92" t="n">
-        <v>-1595084.570770707</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>194</v>
-      </c>
-      <c r="C93" t="n">
-        <v>194</v>
-      </c>
-      <c r="D93" t="n">
-        <v>194</v>
-      </c>
-      <c r="E93" t="n">
-        <v>194</v>
-      </c>
-      <c r="F93" t="n">
-        <v>14726.0999</v>
-      </c>
-      <c r="G93" t="n">
-        <v>-1595084.570770707</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>194</v>
-      </c>
-      <c r="C94" t="n">
-        <v>194</v>
-      </c>
-      <c r="D94" t="n">
-        <v>194</v>
-      </c>
-      <c r="E94" t="n">
-        <v>194</v>
-      </c>
-      <c r="F94" t="n">
-        <v>361306.1609</v>
-      </c>
-      <c r="G94" t="n">
-        <v>-1595084.570770707</v>
-      </c>
-      <c r="H94" t="n">
-        <v>2</v>
-      </c>
-      <c r="I94" t="n">
-        <v>194</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>194</v>
-      </c>
-      <c r="C95" t="n">
-        <v>194</v>
-      </c>
-      <c r="D95" t="n">
-        <v>194</v>
-      </c>
-      <c r="E95" t="n">
-        <v>194</v>
-      </c>
-      <c r="F95" t="n">
-        <v>2680082.564</v>
-      </c>
-      <c r="G95" t="n">
-        <v>-1595084.570770707</v>
-      </c>
-      <c r="H95" t="n">
-        <v>2</v>
-      </c>
-      <c r="I95" t="n">
-        <v>194</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>194</v>
-      </c>
-      <c r="C96" t="n">
-        <v>194</v>
-      </c>
-      <c r="D96" t="n">
-        <v>194</v>
-      </c>
-      <c r="E96" t="n">
-        <v>194</v>
-      </c>
-      <c r="F96" t="n">
-        <v>2695950</v>
-      </c>
-      <c r="G96" t="n">
-        <v>-1595084.570770707</v>
-      </c>
-      <c r="H96" t="n">
-        <v>2</v>
-      </c>
-      <c r="I96" t="n">
-        <v>194</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>194</v>
-      </c>
-      <c r="C97" t="n">
-        <v>194</v>
-      </c>
-      <c r="D97" t="n">
-        <v>194</v>
-      </c>
-      <c r="E97" t="n">
-        <v>194</v>
-      </c>
-      <c r="F97" t="n">
-        <v>2705935</v>
-      </c>
-      <c r="G97" t="n">
-        <v>-1595084.570770707</v>
-      </c>
-      <c r="H97" t="n">
-        <v>2</v>
-      </c>
-      <c r="I97" t="n">
-        <v>194</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>194</v>
-      </c>
-      <c r="C98" t="n">
-        <v>194</v>
-      </c>
-      <c r="D98" t="n">
-        <v>194</v>
-      </c>
-      <c r="E98" t="n">
-        <v>194</v>
-      </c>
-      <c r="F98" t="n">
-        <v>2708191.4031</v>
-      </c>
-      <c r="G98" t="n">
-        <v>-1595084.570770707</v>
-      </c>
-      <c r="H98" t="n">
-        <v>2</v>
-      </c>
-      <c r="I98" t="n">
-        <v>194</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>194</v>
-      </c>
-      <c r="C99" t="n">
-        <v>194</v>
-      </c>
-      <c r="D99" t="n">
-        <v>194</v>
-      </c>
-      <c r="E99" t="n">
-        <v>194</v>
-      </c>
-      <c r="F99" t="n">
-        <v>2556160</v>
-      </c>
-      <c r="G99" t="n">
-        <v>-1595084.570770707</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>195</v>
-      </c>
-      <c r="C100" t="n">
-        <v>195</v>
-      </c>
-      <c r="D100" t="n">
-        <v>195</v>
-      </c>
-      <c r="E100" t="n">
-        <v>195</v>
-      </c>
-      <c r="F100" t="n">
-        <v>197400</v>
-      </c>
-      <c r="G100" t="n">
-        <v>-1397684.570770707</v>
-      </c>
-      <c r="H100" t="n">
-        <v>2</v>
-      </c>
-      <c r="I100" t="n">
-        <v>194</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>195</v>
-      </c>
-      <c r="C101" t="n">
-        <v>195</v>
-      </c>
-      <c r="D101" t="n">
-        <v>195</v>
-      </c>
-      <c r="E101" t="n">
-        <v>195</v>
-      </c>
-      <c r="F101" t="n">
-        <v>1342762.4794</v>
-      </c>
-      <c r="G101" t="n">
-        <v>-1397684.570770707</v>
-      </c>
-      <c r="H101" t="n">
-        <v>2</v>
-      </c>
-      <c r="I101" t="n">
-        <v>195</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>195</v>
-      </c>
-      <c r="C102" t="n">
-        <v>195</v>
-      </c>
-      <c r="D102" t="n">
-        <v>195</v>
-      </c>
-      <c r="E102" t="n">
-        <v>195</v>
-      </c>
-      <c r="F102" t="n">
-        <v>30145</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-1397684.570770707</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>195</v>
-      </c>
-      <c r="C103" t="n">
-        <v>196</v>
-      </c>
-      <c r="D103" t="n">
-        <v>196</v>
-      </c>
-      <c r="E103" t="n">
-        <v>195</v>
-      </c>
-      <c r="F103" t="n">
-        <v>2.9846</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-1397681.586170707</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>195</v>
-      </c>
-      <c r="C104" t="n">
-        <v>195</v>
-      </c>
-      <c r="D104" t="n">
-        <v>195</v>
-      </c>
-      <c r="E104" t="n">
-        <v>195</v>
-      </c>
-      <c r="F104" t="n">
-        <v>723000</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-2120681.586170707</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>195</v>
-      </c>
-      <c r="C105" t="n">
-        <v>195</v>
-      </c>
-      <c r="D105" t="n">
-        <v>195</v>
-      </c>
-      <c r="E105" t="n">
-        <v>195</v>
-      </c>
-      <c r="F105" t="n">
-        <v>801341.5103</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-2120681.586170707</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>195</v>
-      </c>
-      <c r="C106" t="n">
-        <v>195</v>
-      </c>
-      <c r="D106" t="n">
-        <v>195</v>
-      </c>
-      <c r="E106" t="n">
-        <v>195</v>
-      </c>
-      <c r="F106" t="n">
-        <v>806658.4897</v>
-      </c>
-      <c r="G106" t="n">
-        <v>-2120681.586170707</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>195</v>
-      </c>
-      <c r="C107" t="n">
-        <v>195</v>
-      </c>
-      <c r="D107" t="n">
-        <v>195</v>
-      </c>
-      <c r="E107" t="n">
-        <v>195</v>
-      </c>
-      <c r="F107" t="n">
-        <v>810000</v>
-      </c>
-      <c r="G107" t="n">
-        <v>-2120681.586170707</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>195</v>
-      </c>
-      <c r="C108" t="n">
-        <v>195</v>
-      </c>
-      <c r="D108" t="n">
-        <v>195</v>
-      </c>
-      <c r="E108" t="n">
-        <v>195</v>
-      </c>
-      <c r="F108" t="n">
-        <v>810000</v>
-      </c>
-      <c r="G108" t="n">
-        <v>-2120681.586170707</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>195</v>
-      </c>
-      <c r="C109" t="n">
-        <v>195</v>
-      </c>
-      <c r="D109" t="n">
-        <v>195</v>
-      </c>
-      <c r="E109" t="n">
-        <v>195</v>
-      </c>
-      <c r="F109" t="n">
-        <v>807000</v>
-      </c>
-      <c r="G109" t="n">
-        <v>-2120681.586170707</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>195</v>
-      </c>
-      <c r="C110" t="n">
-        <v>195</v>
-      </c>
-      <c r="D110" t="n">
-        <v>195</v>
-      </c>
-      <c r="E110" t="n">
-        <v>195</v>
-      </c>
-      <c r="F110" t="n">
-        <v>807000</v>
-      </c>
-      <c r="G110" t="n">
-        <v>-2120681.586170707</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>195</v>
-      </c>
-      <c r="C111" t="n">
-        <v>195</v>
-      </c>
-      <c r="D111" t="n">
-        <v>195</v>
-      </c>
-      <c r="E111" t="n">
-        <v>195</v>
-      </c>
-      <c r="F111" t="n">
-        <v>804000</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-2120681.586170707</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>195</v>
-      </c>
-      <c r="C112" t="n">
-        <v>195</v>
-      </c>
-      <c r="D112" t="n">
-        <v>195</v>
-      </c>
-      <c r="E112" t="n">
-        <v>195</v>
-      </c>
-      <c r="F112" t="n">
-        <v>810000</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-2120681.586170707</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>195</v>
-      </c>
-      <c r="C113" t="n">
-        <v>195</v>
-      </c>
-      <c r="D113" t="n">
-        <v>195</v>
-      </c>
-      <c r="E113" t="n">
-        <v>195</v>
-      </c>
-      <c r="F113" t="n">
-        <v>786000</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-2120681.586170707</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>195</v>
-      </c>
-      <c r="C114" t="n">
-        <v>195</v>
-      </c>
-      <c r="D114" t="n">
-        <v>195</v>
-      </c>
-      <c r="E114" t="n">
-        <v>195</v>
-      </c>
-      <c r="F114" t="n">
-        <v>798238.7772</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-2120681.586170707</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>195</v>
-      </c>
-      <c r="C115" t="n">
-        <v>195</v>
-      </c>
-      <c r="D115" t="n">
-        <v>195</v>
-      </c>
-      <c r="E115" t="n">
-        <v>195</v>
-      </c>
-      <c r="F115" t="n">
-        <v>855998</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-2120681.586170707</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>195</v>
-      </c>
-      <c r="C116" t="n">
-        <v>195</v>
-      </c>
-      <c r="D116" t="n">
-        <v>195</v>
-      </c>
-      <c r="E116" t="n">
-        <v>195</v>
-      </c>
-      <c r="F116" t="n">
-        <v>988806</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-2120681.586170707</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>195</v>
-      </c>
-      <c r="C117" t="n">
-        <v>195</v>
-      </c>
-      <c r="D117" t="n">
-        <v>195</v>
-      </c>
-      <c r="E117" t="n">
-        <v>195</v>
-      </c>
-      <c r="F117" t="n">
-        <v>985184</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-2120681.586170707</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>195</v>
-      </c>
-      <c r="C118" t="n">
-        <v>195</v>
-      </c>
-      <c r="D118" t="n">
-        <v>195</v>
-      </c>
-      <c r="E118" t="n">
-        <v>195</v>
-      </c>
-      <c r="F118" t="n">
-        <v>974318</v>
-      </c>
-      <c r="G118" t="n">
-        <v>-2120681.586170707</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>195</v>
-      </c>
-      <c r="C119" t="n">
-        <v>195</v>
-      </c>
-      <c r="D119" t="n">
-        <v>195</v>
-      </c>
-      <c r="E119" t="n">
-        <v>195</v>
-      </c>
-      <c r="F119" t="n">
-        <v>967074</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-2120681.586170707</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>195</v>
-      </c>
-      <c r="C120" t="n">
-        <v>195</v>
-      </c>
-      <c r="D120" t="n">
-        <v>195</v>
-      </c>
-      <c r="E120" t="n">
-        <v>195</v>
-      </c>
-      <c r="F120" t="n">
-        <v>963452</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-2120681.586170707</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>195</v>
-      </c>
-      <c r="C121" t="n">
-        <v>195</v>
-      </c>
-      <c r="D121" t="n">
-        <v>195</v>
-      </c>
-      <c r="E121" t="n">
-        <v>195</v>
-      </c>
-      <c r="F121" t="n">
-        <v>987562</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-2120681.586170707</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>195</v>
-      </c>
-      <c r="C122" t="n">
-        <v>195</v>
-      </c>
-      <c r="D122" t="n">
-        <v>195</v>
-      </c>
-      <c r="E122" t="n">
-        <v>195</v>
-      </c>
-      <c r="F122" t="n">
-        <v>967176.7331</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-2120681.586170707</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>195</v>
-      </c>
-      <c r="C123" t="n">
-        <v>196</v>
-      </c>
-      <c r="D123" t="n">
-        <v>196</v>
-      </c>
-      <c r="E123" t="n">
-        <v>195</v>
-      </c>
-      <c r="F123" t="n">
-        <v>449193</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-1671488.586170707</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4757,10 +4525,14 @@
         <v>-4144342.586170707</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>196</v>
+      </c>
+      <c r="J124" t="n">
+        <v>195</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4797,7 +4569,9 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>195</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4834,7 +4608,9 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>195</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4871,7 +4647,9 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>195</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4908,7 +4686,9 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>195</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4945,7 +4725,9 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>195</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4982,7 +4764,9 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>195</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5019,7 +4803,9 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>195</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5056,7 +4842,9 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>195</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5093,7 +4881,9 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>195</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5130,7 +4920,9 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>195</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5167,7 +4959,9 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>195</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5204,7 +4998,9 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>195</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5241,7 +5037,9 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>195</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5278,7 +5076,9 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>195</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5315,7 +5115,9 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>195</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5352,7 +5154,9 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>195</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5389,7 +5193,9 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>195</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5426,7 +5232,9 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>195</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5460,12 +5268,12 @@
         <v>-4164809.437562543</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
-      </c>
-      <c r="I143" t="n">
-        <v>196</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>195</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5502,7 +5310,9 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>195</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5536,12 +5346,12 @@
         <v>-4164607.643062544</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
-      </c>
-      <c r="I145" t="n">
-        <v>195</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>195</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5578,7 +5388,9 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>195</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5615,7 +5427,9 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>195</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5652,7 +5466,9 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>195</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5689,7 +5505,9 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>195</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5726,7 +5544,9 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>195</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5763,7 +5583,9 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>195</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5800,7 +5622,9 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>195</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5837,7 +5661,9 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>195</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5871,10 +5697,14 @@
         <v>-4169549.695242342</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>196</v>
+      </c>
+      <c r="J154" t="n">
+        <v>195</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5908,10 +5738,14 @@
         <v>-4169549.695242342</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>195</v>
+      </c>
+      <c r="J155" t="n">
+        <v>195</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5945,10 +5779,14 @@
         <v>-4169549.695242342</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>195</v>
+      </c>
+      <c r="J156" t="n">
+        <v>195</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5982,10 +5820,14 @@
         <v>-4169549.695242342</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>195</v>
+      </c>
+      <c r="J157" t="n">
+        <v>195</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6019,10 +5861,14 @@
         <v>-4169121.175942342</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>195</v>
+      </c>
+      <c r="J158" t="n">
+        <v>195</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6056,10 +5902,14 @@
         <v>-4169121.175942342</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>197</v>
+      </c>
+      <c r="J159" t="n">
+        <v>195</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6096,7 +5946,9 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>195</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6108,6 +5960,6 @@
       <c r="M160" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest ICX.xlsx
+++ b/BackTest/2019-10-30 BackTest ICX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-6967.77627070707</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-6967.77627070707</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-14799.84727070707</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-14799.84727070707</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-14799.84727070707</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-14799.84727070707</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-14799.84727070707</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-14799.84727070707</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-14799.84727070707</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-14799.84727070707</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-16299.76727070707</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-16299.76727070707</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-16299.76727070707</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-16299.76727070707</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-16299.76727070707</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-16299.76727070707</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-16299.76727070707</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-16466.99137070707</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-20399.38137070707</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-20399.38137070707</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-20399.38137070707</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-20399.38137070707</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-20399.38137070707</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-20399.38137070707</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-20399.38137070707</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-20399.38137070707</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-20399.38137070707</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-20399.38137070707</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-20399.38137070707</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-20399.38137070707</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-20349.38137070707</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-20517.92067070707</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-20517.92067070707</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-20855.75847070707</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-20855.75847070707</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-20853.71767070707</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-27021.73757070707</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-32099.70897070707</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-32099.70897070707</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-32099.70897070707</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-32099.70897070707</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-32203.32897070707</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>3172.098929292933</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-27247.93257070707</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-1335084.570770707</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -4246,14 +4246,10 @@
         <v>-2120681.586170707</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>195</v>
-      </c>
-      <c r="J117" t="n">
-        <v>195</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
@@ -4283,1556 +4279,1324 @@
         <v>-2120681.586170707</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>195</v>
-      </c>
-      <c r="J118" t="n">
-        <v>195</v>
-      </c>
-      <c r="K118" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>195</v>
+      </c>
+      <c r="C119" t="n">
+        <v>195</v>
+      </c>
+      <c r="D119" t="n">
+        <v>195</v>
+      </c>
+      <c r="E119" t="n">
+        <v>195</v>
+      </c>
+      <c r="F119" t="n">
+        <v>967074</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-2120681.586170707</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>195</v>
+      </c>
+      <c r="C120" t="n">
+        <v>195</v>
+      </c>
+      <c r="D120" t="n">
+        <v>195</v>
+      </c>
+      <c r="E120" t="n">
+        <v>195</v>
+      </c>
+      <c r="F120" t="n">
+        <v>963452</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-2120681.586170707</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>195</v>
+      </c>
+      <c r="C121" t="n">
+        <v>195</v>
+      </c>
+      <c r="D121" t="n">
+        <v>195</v>
+      </c>
+      <c r="E121" t="n">
+        <v>195</v>
+      </c>
+      <c r="F121" t="n">
+        <v>987562</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-2120681.586170707</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>195</v>
+      </c>
+      <c r="C122" t="n">
+        <v>195</v>
+      </c>
+      <c r="D122" t="n">
+        <v>195</v>
+      </c>
+      <c r="E122" t="n">
+        <v>195</v>
+      </c>
+      <c r="F122" t="n">
+        <v>967176.7331</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-2120681.586170707</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>195</v>
+      </c>
+      <c r="C123" t="n">
+        <v>196</v>
+      </c>
+      <c r="D123" t="n">
+        <v>196</v>
+      </c>
+      <c r="E123" t="n">
+        <v>195</v>
+      </c>
+      <c r="F123" t="n">
+        <v>449193</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-1671488.586170707</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>195</v>
+      </c>
+      <c r="C124" t="n">
+        <v>195</v>
+      </c>
+      <c r="D124" t="n">
+        <v>195</v>
+      </c>
+      <c r="E124" t="n">
+        <v>195</v>
+      </c>
+      <c r="F124" t="n">
+        <v>2472854</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-4144342.586170707</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>195</v>
+      </c>
+      <c r="C125" t="n">
+        <v>195</v>
+      </c>
+      <c r="D125" t="n">
+        <v>195</v>
+      </c>
+      <c r="E125" t="n">
+        <v>195</v>
+      </c>
+      <c r="F125" t="n">
+        <v>2578696</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-4144342.586170707</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>195</v>
+      </c>
+      <c r="C126" t="n">
+        <v>195</v>
+      </c>
+      <c r="D126" t="n">
+        <v>195</v>
+      </c>
+      <c r="E126" t="n">
+        <v>195</v>
+      </c>
+      <c r="F126" t="n">
+        <v>2597940</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-4144342.586170707</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>195</v>
+      </c>
+      <c r="C127" t="n">
+        <v>195</v>
+      </c>
+      <c r="D127" t="n">
+        <v>195</v>
+      </c>
+      <c r="E127" t="n">
+        <v>195</v>
+      </c>
+      <c r="F127" t="n">
+        <v>2588318</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-4144342.586170707</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>195</v>
+      </c>
+      <c r="C128" t="n">
+        <v>195</v>
+      </c>
+      <c r="D128" t="n">
+        <v>195</v>
+      </c>
+      <c r="E128" t="n">
+        <v>195</v>
+      </c>
+      <c r="F128" t="n">
+        <v>2486578.564</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-4144342.586170707</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>195</v>
+      </c>
+      <c r="C129" t="n">
+        <v>195</v>
+      </c>
+      <c r="D129" t="n">
+        <v>195</v>
+      </c>
+      <c r="E129" t="n">
+        <v>195</v>
+      </c>
+      <c r="F129" t="n">
+        <v>2574593.436</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-4144342.586170707</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>195</v>
+      </c>
+      <c r="C130" t="n">
+        <v>195</v>
+      </c>
+      <c r="D130" t="n">
+        <v>195</v>
+      </c>
+      <c r="E130" t="n">
+        <v>195</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1202750</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-4144342.586170707</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>195</v>
+      </c>
+      <c r="C131" t="n">
+        <v>195</v>
+      </c>
+      <c r="D131" t="n">
+        <v>195</v>
+      </c>
+      <c r="E131" t="n">
+        <v>195</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1158742.564</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-4144342.586170707</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>195</v>
+      </c>
+      <c r="C132" t="n">
+        <v>195</v>
+      </c>
+      <c r="D132" t="n">
+        <v>195</v>
+      </c>
+      <c r="E132" t="n">
+        <v>195</v>
+      </c>
+      <c r="F132" t="n">
+        <v>2597940</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-4144342.586170707</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>195</v>
+      </c>
+      <c r="C133" t="n">
+        <v>195</v>
+      </c>
+      <c r="D133" t="n">
+        <v>195</v>
+      </c>
+      <c r="E133" t="n">
+        <v>195</v>
+      </c>
+      <c r="F133" t="n">
+        <v>769760</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-4144342.586170707</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>195</v>
+      </c>
+      <c r="C134" t="n">
+        <v>195</v>
+      </c>
+      <c r="D134" t="n">
+        <v>195</v>
+      </c>
+      <c r="E134" t="n">
+        <v>195</v>
+      </c>
+      <c r="F134" t="n">
+        <v>11292.9021</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-4144342.586170707</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>196</v>
+      </c>
+      <c r="C135" t="n">
+        <v>196</v>
+      </c>
+      <c r="D135" t="n">
+        <v>196</v>
+      </c>
+      <c r="E135" t="n">
+        <v>196</v>
+      </c>
+      <c r="F135" t="n">
+        <v>17.2602</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-4144325.325970707</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>195</v>
+      </c>
+      <c r="C136" t="n">
+        <v>195</v>
+      </c>
+      <c r="D136" t="n">
+        <v>195</v>
+      </c>
+      <c r="E136" t="n">
+        <v>195</v>
+      </c>
+      <c r="F136" t="n">
+        <v>2630.6363</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-4146955.962270707</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>195</v>
+      </c>
+      <c r="C137" t="n">
+        <v>195</v>
+      </c>
+      <c r="D137" t="n">
+        <v>195</v>
+      </c>
+      <c r="E137" t="n">
+        <v>195</v>
+      </c>
+      <c r="F137" t="n">
+        <v>4583.2158</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-4146955.962270707</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>196</v>
+      </c>
+      <c r="C138" t="n">
+        <v>196</v>
+      </c>
+      <c r="D138" t="n">
+        <v>196</v>
+      </c>
+      <c r="E138" t="n">
+        <v>196</v>
+      </c>
+      <c r="F138" t="n">
+        <v>2775.270408163266</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-4144180.691862544</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>195</v>
+      </c>
+      <c r="C139" t="n">
+        <v>195</v>
+      </c>
+      <c r="D139" t="n">
+        <v>195</v>
+      </c>
+      <c r="E139" t="n">
+        <v>195</v>
+      </c>
+      <c r="F139" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-4149180.691862544</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>195</v>
+      </c>
+      <c r="C140" t="n">
+        <v>195</v>
+      </c>
+      <c r="D140" t="n">
+        <v>195</v>
+      </c>
+      <c r="E140" t="n">
+        <v>195</v>
+      </c>
+      <c r="F140" t="n">
+        <v>4142.9536</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-4149180.691862544</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>196</v>
+      </c>
+      <c r="C141" t="n">
+        <v>196</v>
+      </c>
+      <c r="D141" t="n">
+        <v>196</v>
+      </c>
+      <c r="E141" t="n">
+        <v>196</v>
+      </c>
+      <c r="F141" t="n">
+        <v>13817.8933</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-4135362.798562543</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>196</v>
+      </c>
+      <c r="C142" t="n">
+        <v>196</v>
+      </c>
+      <c r="D142" t="n">
+        <v>196</v>
+      </c>
+      <c r="E142" t="n">
+        <v>196</v>
+      </c>
+      <c r="F142" t="n">
+        <v>4482.572691836735</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-4135362.798562543</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>196</v>
+      </c>
+      <c r="C143" t="n">
+        <v>195</v>
+      </c>
+      <c r="D143" t="n">
+        <v>196</v>
+      </c>
+      <c r="E143" t="n">
+        <v>195</v>
+      </c>
+      <c r="F143" t="n">
+        <v>29446.639</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-4164809.437562543</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>195</v>
+      </c>
+      <c r="C144" t="n">
+        <v>195</v>
+      </c>
+      <c r="D144" t="n">
+        <v>195</v>
+      </c>
+      <c r="E144" t="n">
+        <v>195</v>
+      </c>
+      <c r="F144" t="n">
+        <v>6015.8114</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-4164809.437562543</v>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>195</v>
+      </c>
+      <c r="J144" t="n">
+        <v>195</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>196</v>
+      </c>
+      <c r="C145" t="n">
+        <v>196</v>
+      </c>
+      <c r="D145" t="n">
+        <v>196</v>
+      </c>
+      <c r="E145" t="n">
+        <v>196</v>
+      </c>
+      <c r="F145" t="n">
+        <v>201.7945</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-4164607.643062544</v>
+      </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>195</v>
+      </c>
+      <c r="J145" t="n">
+        <v>195</v>
+      </c>
+      <c r="K145" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>195</v>
-      </c>
-      <c r="C119" t="n">
-        <v>195</v>
-      </c>
-      <c r="D119" t="n">
-        <v>195</v>
-      </c>
-      <c r="E119" t="n">
-        <v>195</v>
-      </c>
-      <c r="F119" t="n">
-        <v>967074</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-2120681.586170707</v>
-      </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>195</v>
-      </c>
-      <c r="J119" t="n">
-        <v>195</v>
-      </c>
-      <c r="K119" t="inlineStr">
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>198</v>
+      </c>
+      <c r="C146" t="n">
+        <v>198</v>
+      </c>
+      <c r="D146" t="n">
+        <v>198</v>
+      </c>
+      <c r="E146" t="n">
+        <v>198</v>
+      </c>
+      <c r="F146" t="n">
+        <v>17.7020202020202</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-4164589.941042342</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>196</v>
+      </c>
+      <c r="J146" t="n">
+        <v>195</v>
+      </c>
+      <c r="K146" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>195</v>
-      </c>
-      <c r="C120" t="n">
-        <v>195</v>
-      </c>
-      <c r="D120" t="n">
-        <v>195</v>
-      </c>
-      <c r="E120" t="n">
-        <v>195</v>
-      </c>
-      <c r="F120" t="n">
-        <v>963452</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-2120681.586170707</v>
-      </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>195</v>
-      </c>
-      <c r="J120" t="n">
-        <v>195</v>
-      </c>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>195</v>
-      </c>
-      <c r="C121" t="n">
-        <v>195</v>
-      </c>
-      <c r="D121" t="n">
-        <v>195</v>
-      </c>
-      <c r="E121" t="n">
-        <v>195</v>
-      </c>
-      <c r="F121" t="n">
-        <v>987562</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-2120681.586170707</v>
-      </c>
-      <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>195</v>
-      </c>
-      <c r="J121" t="n">
-        <v>195</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>195</v>
-      </c>
-      <c r="C122" t="n">
-        <v>195</v>
-      </c>
-      <c r="D122" t="n">
-        <v>195</v>
-      </c>
-      <c r="E122" t="n">
-        <v>195</v>
-      </c>
-      <c r="F122" t="n">
-        <v>967176.7331</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-2120681.586170707</v>
-      </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>195</v>
-      </c>
-      <c r="J122" t="n">
-        <v>195</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>195</v>
-      </c>
-      <c r="C123" t="n">
-        <v>196</v>
-      </c>
-      <c r="D123" t="n">
-        <v>196</v>
-      </c>
-      <c r="E123" t="n">
-        <v>195</v>
-      </c>
-      <c r="F123" t="n">
-        <v>449193</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-1671488.586170707</v>
-      </c>
-      <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>195</v>
-      </c>
-      <c r="J123" t="n">
-        <v>195</v>
-      </c>
-      <c r="K123" t="inlineStr">
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>198</v>
+      </c>
+      <c r="C147" t="n">
+        <v>198</v>
+      </c>
+      <c r="D147" t="n">
+        <v>198</v>
+      </c>
+      <c r="E147" t="n">
+        <v>198</v>
+      </c>
+      <c r="F147" t="n">
+        <v>1.0656</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-4164589.941042342</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>196</v>
+      </c>
+      <c r="C148" t="n">
+        <v>196</v>
+      </c>
+      <c r="D148" t="n">
+        <v>196</v>
+      </c>
+      <c r="E148" t="n">
+        <v>196</v>
+      </c>
+      <c r="F148" t="n">
+        <v>2.9925</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-4164592.933542342</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>196</v>
+      </c>
+      <c r="C149" t="n">
+        <v>196</v>
+      </c>
+      <c r="D149" t="n">
+        <v>196</v>
+      </c>
+      <c r="E149" t="n">
+        <v>196</v>
+      </c>
+      <c r="F149" t="n">
+        <v>8187.2198</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-4164592.933542342</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>196</v>
+      </c>
+      <c r="C150" t="n">
+        <v>196</v>
+      </c>
+      <c r="D150" t="n">
+        <v>196</v>
+      </c>
+      <c r="E150" t="n">
+        <v>196</v>
+      </c>
+      <c r="F150" t="n">
+        <v>5128.2051</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-4164592.933542342</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>198</v>
+      </c>
+      <c r="C151" t="n">
+        <v>198</v>
+      </c>
+      <c r="D151" t="n">
+        <v>198</v>
+      </c>
+      <c r="E151" t="n">
+        <v>198</v>
+      </c>
+      <c r="F151" t="n">
+        <v>1.0654</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-4164591.868142342</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>196</v>
+      </c>
+      <c r="C152" t="n">
+        <v>196</v>
+      </c>
+      <c r="D152" t="n">
+        <v>196</v>
+      </c>
+      <c r="E152" t="n">
+        <v>196</v>
+      </c>
+      <c r="F152" t="n">
+        <v>4871.0894</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-4169462.957542342</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>196</v>
+      </c>
+      <c r="C153" t="n">
+        <v>196</v>
+      </c>
+      <c r="D153" t="n">
+        <v>196</v>
+      </c>
+      <c r="E153" t="n">
+        <v>196</v>
+      </c>
+      <c r="F153" t="n">
+        <v>428.5193</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-4169462.957542342</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>195</v>
+      </c>
+      <c r="C154" t="n">
+        <v>195</v>
+      </c>
+      <c r="D154" t="n">
+        <v>195</v>
+      </c>
+      <c r="E154" t="n">
+        <v>195</v>
+      </c>
+      <c r="F154" t="n">
+        <v>86.7377</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-4169549.695242342</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>195</v>
+      </c>
+      <c r="C155" t="n">
+        <v>195</v>
+      </c>
+      <c r="D155" t="n">
+        <v>195</v>
+      </c>
+      <c r="E155" t="n">
+        <v>195</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1044.3742</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-4169549.695242342</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>195</v>
+      </c>
+      <c r="C156" t="n">
+        <v>195</v>
+      </c>
+      <c r="D156" t="n">
+        <v>195</v>
+      </c>
+      <c r="E156" t="n">
+        <v>195</v>
+      </c>
+      <c r="F156" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-4169549.695242342</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>196</v>
+      </c>
+      <c r="C157" t="n">
+        <v>195</v>
+      </c>
+      <c r="D157" t="n">
+        <v>196</v>
+      </c>
+      <c r="E157" t="n">
+        <v>195</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1571.4642</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-4169549.695242342</v>
+      </c>
+      <c r="H157" t="n">
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>195</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>195</v>
-      </c>
-      <c r="C124" t="n">
-        <v>195</v>
-      </c>
-      <c r="D124" t="n">
-        <v>195</v>
-      </c>
-      <c r="E124" t="n">
-        <v>195</v>
-      </c>
-      <c r="F124" t="n">
-        <v>2472854</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-4144342.586170707</v>
-      </c>
-      <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>196</v>
-      </c>
-      <c r="J124" t="n">
-        <v>195</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>195</v>
-      </c>
-      <c r="C125" t="n">
-        <v>195</v>
-      </c>
-      <c r="D125" t="n">
-        <v>195</v>
-      </c>
-      <c r="E125" t="n">
-        <v>195</v>
-      </c>
-      <c r="F125" t="n">
-        <v>2578696</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-4144342.586170707</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>195</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>195</v>
-      </c>
-      <c r="C126" t="n">
-        <v>195</v>
-      </c>
-      <c r="D126" t="n">
-        <v>195</v>
-      </c>
-      <c r="E126" t="n">
-        <v>195</v>
-      </c>
-      <c r="F126" t="n">
-        <v>2597940</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-4144342.586170707</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>195</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>195</v>
-      </c>
-      <c r="C127" t="n">
-        <v>195</v>
-      </c>
-      <c r="D127" t="n">
-        <v>195</v>
-      </c>
-      <c r="E127" t="n">
-        <v>195</v>
-      </c>
-      <c r="F127" t="n">
-        <v>2588318</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-4144342.586170707</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>195</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>195</v>
-      </c>
-      <c r="C128" t="n">
-        <v>195</v>
-      </c>
-      <c r="D128" t="n">
-        <v>195</v>
-      </c>
-      <c r="E128" t="n">
-        <v>195</v>
-      </c>
-      <c r="F128" t="n">
-        <v>2486578.564</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-4144342.586170707</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>195</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>195</v>
-      </c>
-      <c r="C129" t="n">
-        <v>195</v>
-      </c>
-      <c r="D129" t="n">
-        <v>195</v>
-      </c>
-      <c r="E129" t="n">
-        <v>195</v>
-      </c>
-      <c r="F129" t="n">
-        <v>2574593.436</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-4144342.586170707</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>195</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>195</v>
-      </c>
-      <c r="C130" t="n">
-        <v>195</v>
-      </c>
-      <c r="D130" t="n">
-        <v>195</v>
-      </c>
-      <c r="E130" t="n">
-        <v>195</v>
-      </c>
-      <c r="F130" t="n">
-        <v>1202750</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-4144342.586170707</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>195</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>195</v>
-      </c>
-      <c r="C131" t="n">
-        <v>195</v>
-      </c>
-      <c r="D131" t="n">
-        <v>195</v>
-      </c>
-      <c r="E131" t="n">
-        <v>195</v>
-      </c>
-      <c r="F131" t="n">
-        <v>1158742.564</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-4144342.586170707</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>195</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>195</v>
-      </c>
-      <c r="C132" t="n">
-        <v>195</v>
-      </c>
-      <c r="D132" t="n">
-        <v>195</v>
-      </c>
-      <c r="E132" t="n">
-        <v>195</v>
-      </c>
-      <c r="F132" t="n">
-        <v>2597940</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-4144342.586170707</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>195</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>195</v>
-      </c>
-      <c r="C133" t="n">
-        <v>195</v>
-      </c>
-      <c r="D133" t="n">
-        <v>195</v>
-      </c>
-      <c r="E133" t="n">
-        <v>195</v>
-      </c>
-      <c r="F133" t="n">
-        <v>769760</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-4144342.586170707</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>195</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>195</v>
-      </c>
-      <c r="C134" t="n">
-        <v>195</v>
-      </c>
-      <c r="D134" t="n">
-        <v>195</v>
-      </c>
-      <c r="E134" t="n">
-        <v>195</v>
-      </c>
-      <c r="F134" t="n">
-        <v>11292.9021</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-4144342.586170707</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>195</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>196</v>
-      </c>
-      <c r="C135" t="n">
-        <v>196</v>
-      </c>
-      <c r="D135" t="n">
-        <v>196</v>
-      </c>
-      <c r="E135" t="n">
-        <v>196</v>
-      </c>
-      <c r="F135" t="n">
-        <v>17.2602</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-4144325.325970707</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>195</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>195</v>
-      </c>
-      <c r="C136" t="n">
-        <v>195</v>
-      </c>
-      <c r="D136" t="n">
-        <v>195</v>
-      </c>
-      <c r="E136" t="n">
-        <v>195</v>
-      </c>
-      <c r="F136" t="n">
-        <v>2630.6363</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-4146955.962270707</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>195</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>195</v>
-      </c>
-      <c r="C137" t="n">
-        <v>195</v>
-      </c>
-      <c r="D137" t="n">
-        <v>195</v>
-      </c>
-      <c r="E137" t="n">
-        <v>195</v>
-      </c>
-      <c r="F137" t="n">
-        <v>4583.2158</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-4146955.962270707</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>195</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>196</v>
-      </c>
-      <c r="C138" t="n">
-        <v>196</v>
-      </c>
-      <c r="D138" t="n">
-        <v>196</v>
-      </c>
-      <c r="E138" t="n">
-        <v>196</v>
-      </c>
-      <c r="F138" t="n">
-        <v>2775.270408163266</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-4144180.691862544</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>195</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>195</v>
-      </c>
-      <c r="C139" t="n">
-        <v>195</v>
-      </c>
-      <c r="D139" t="n">
-        <v>195</v>
-      </c>
-      <c r="E139" t="n">
-        <v>195</v>
-      </c>
-      <c r="F139" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-4149180.691862544</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>195</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>195</v>
-      </c>
-      <c r="C140" t="n">
-        <v>195</v>
-      </c>
-      <c r="D140" t="n">
-        <v>195</v>
-      </c>
-      <c r="E140" t="n">
-        <v>195</v>
-      </c>
-      <c r="F140" t="n">
-        <v>4142.9536</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-4149180.691862544</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>195</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>196</v>
-      </c>
-      <c r="C141" t="n">
-        <v>196</v>
-      </c>
-      <c r="D141" t="n">
-        <v>196</v>
-      </c>
-      <c r="E141" t="n">
-        <v>196</v>
-      </c>
-      <c r="F141" t="n">
-        <v>13817.8933</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-4135362.798562543</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>195</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>196</v>
-      </c>
-      <c r="C142" t="n">
-        <v>196</v>
-      </c>
-      <c r="D142" t="n">
-        <v>196</v>
-      </c>
-      <c r="E142" t="n">
-        <v>196</v>
-      </c>
-      <c r="F142" t="n">
-        <v>4482.572691836735</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-4135362.798562543</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>195</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>196</v>
-      </c>
-      <c r="C143" t="n">
-        <v>195</v>
-      </c>
-      <c r="D143" t="n">
-        <v>196</v>
-      </c>
-      <c r="E143" t="n">
-        <v>195</v>
-      </c>
-      <c r="F143" t="n">
-        <v>29446.639</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-4164809.437562543</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>195</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>195</v>
-      </c>
-      <c r="C144" t="n">
-        <v>195</v>
-      </c>
-      <c r="D144" t="n">
-        <v>195</v>
-      </c>
-      <c r="E144" t="n">
-        <v>195</v>
-      </c>
-      <c r="F144" t="n">
-        <v>6015.8114</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-4164809.437562543</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>195</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>196</v>
-      </c>
-      <c r="C145" t="n">
-        <v>196</v>
-      </c>
-      <c r="D145" t="n">
-        <v>196</v>
-      </c>
-      <c r="E145" t="n">
-        <v>196</v>
-      </c>
-      <c r="F145" t="n">
-        <v>201.7945</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-4164607.643062544</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>195</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>198</v>
-      </c>
-      <c r="C146" t="n">
-        <v>198</v>
-      </c>
-      <c r="D146" t="n">
-        <v>198</v>
-      </c>
-      <c r="E146" t="n">
-        <v>198</v>
-      </c>
-      <c r="F146" t="n">
-        <v>17.7020202020202</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-4164589.941042342</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>195</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>198</v>
-      </c>
-      <c r="C147" t="n">
-        <v>198</v>
-      </c>
-      <c r="D147" t="n">
-        <v>198</v>
-      </c>
-      <c r="E147" t="n">
-        <v>198</v>
-      </c>
-      <c r="F147" t="n">
-        <v>1.0656</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-4164589.941042342</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>195</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>196</v>
-      </c>
-      <c r="C148" t="n">
-        <v>196</v>
-      </c>
-      <c r="D148" t="n">
-        <v>196</v>
-      </c>
-      <c r="E148" t="n">
-        <v>196</v>
-      </c>
-      <c r="F148" t="n">
-        <v>2.9925</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-4164592.933542342</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>195</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>196</v>
-      </c>
-      <c r="C149" t="n">
-        <v>196</v>
-      </c>
-      <c r="D149" t="n">
-        <v>196</v>
-      </c>
-      <c r="E149" t="n">
-        <v>196</v>
-      </c>
-      <c r="F149" t="n">
-        <v>8187.2198</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-4164592.933542342</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>195</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>196</v>
-      </c>
-      <c r="C150" t="n">
-        <v>196</v>
-      </c>
-      <c r="D150" t="n">
-        <v>196</v>
-      </c>
-      <c r="E150" t="n">
-        <v>196</v>
-      </c>
-      <c r="F150" t="n">
-        <v>5128.2051</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-4164592.933542342</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>195</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>198</v>
-      </c>
-      <c r="C151" t="n">
-        <v>198</v>
-      </c>
-      <c r="D151" t="n">
-        <v>198</v>
-      </c>
-      <c r="E151" t="n">
-        <v>198</v>
-      </c>
-      <c r="F151" t="n">
-        <v>1.0654</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-4164591.868142342</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>195</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>196</v>
-      </c>
-      <c r="C152" t="n">
-        <v>196</v>
-      </c>
-      <c r="D152" t="n">
-        <v>196</v>
-      </c>
-      <c r="E152" t="n">
-        <v>196</v>
-      </c>
-      <c r="F152" t="n">
-        <v>4871.0894</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-4169462.957542342</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>195</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>196</v>
-      </c>
-      <c r="C153" t="n">
-        <v>196</v>
-      </c>
-      <c r="D153" t="n">
-        <v>196</v>
-      </c>
-      <c r="E153" t="n">
-        <v>196</v>
-      </c>
-      <c r="F153" t="n">
-        <v>428.5193</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-4169462.957542342</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>195</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>195</v>
-      </c>
-      <c r="C154" t="n">
-        <v>195</v>
-      </c>
-      <c r="D154" t="n">
-        <v>195</v>
-      </c>
-      <c r="E154" t="n">
-        <v>195</v>
-      </c>
-      <c r="F154" t="n">
-        <v>86.7377</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-4169549.695242342</v>
-      </c>
-      <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>196</v>
-      </c>
-      <c r="J154" t="n">
-        <v>195</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>195</v>
-      </c>
-      <c r="C155" t="n">
-        <v>195</v>
-      </c>
-      <c r="D155" t="n">
-        <v>195</v>
-      </c>
-      <c r="E155" t="n">
-        <v>195</v>
-      </c>
-      <c r="F155" t="n">
-        <v>1044.3742</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-4169549.695242342</v>
-      </c>
-      <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>195</v>
-      </c>
-      <c r="J155" t="n">
-        <v>195</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>195</v>
-      </c>
-      <c r="C156" t="n">
-        <v>195</v>
-      </c>
-      <c r="D156" t="n">
-        <v>195</v>
-      </c>
-      <c r="E156" t="n">
-        <v>195</v>
-      </c>
-      <c r="F156" t="n">
-        <v>4000</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-4169549.695242342</v>
-      </c>
-      <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>195</v>
-      </c>
-      <c r="J156" t="n">
-        <v>195</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>196</v>
-      </c>
-      <c r="C157" t="n">
-        <v>195</v>
-      </c>
-      <c r="D157" t="n">
-        <v>196</v>
-      </c>
-      <c r="E157" t="n">
-        <v>195</v>
-      </c>
-      <c r="F157" t="n">
-        <v>1571.4642</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-4169549.695242342</v>
-      </c>
-      <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>195</v>
-      </c>
-      <c r="J157" t="n">
-        <v>195</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5861,14 +5625,10 @@
         <v>-4169121.175942342</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>195</v>
-      </c>
-      <c r="J158" t="n">
-        <v>195</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5902,14 +5662,10 @@
         <v>-4169121.175942342</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>197</v>
-      </c>
-      <c r="J159" t="n">
-        <v>195</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5943,12 +5699,10 @@
         <v>-4169119.972942342</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>195</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5960,6 +5714,6 @@
       <c r="M160" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest ICX.xlsx
+++ b/BackTest/2019-10-30 BackTest ICX.xlsx
@@ -451,7 +451,7 @@
         <v>-6967.77627070707</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-6967.77627070707</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-14799.84727070707</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-14799.84727070707</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-14799.84727070707</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-14799.84727070707</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-14799.84727070707</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-14799.84727070707</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-14799.84727070707</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -4378,10 +4378,14 @@
         <v>-2120681.586170707</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>195</v>
+      </c>
+      <c r="J121" t="n">
+        <v>195</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
@@ -4411,11 +4415,19 @@
         <v>-2120681.586170707</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>195</v>
+      </c>
+      <c r="J122" t="n">
+        <v>195</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4444,11 +4456,19 @@
         <v>-1671488.586170707</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>195</v>
+      </c>
+      <c r="J123" t="n">
+        <v>195</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4477,11 +4497,19 @@
         <v>-4144342.586170707</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>196</v>
+      </c>
+      <c r="J124" t="n">
+        <v>195</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4513,8 +4541,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>195</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4546,8 +4580,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>195</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4579,8 +4619,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>195</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4612,8 +4658,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>195</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4645,8 +4697,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>195</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4678,8 +4736,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>195</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4711,8 +4775,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>195</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4744,8 +4814,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>195</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4777,8 +4853,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>195</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4810,8 +4892,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>195</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4843,8 +4931,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>195</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4876,8 +4970,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>195</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4909,8 +5009,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>195</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4942,8 +5048,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>195</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4975,8 +5087,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>195</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5008,8 +5126,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>195</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5041,8 +5165,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>195</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5074,8 +5204,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>195</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5107,8 +5243,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>195</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5137,15 +5279,17 @@
         <v>-4164809.437562543</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>195</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
         <v>195</v>
       </c>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5184,7 +5328,7 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L145" t="n">
@@ -5225,7 +5369,7 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L146" t="n">
@@ -5259,8 +5403,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>195</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5292,8 +5442,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>195</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5325,8 +5481,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>195</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5358,8 +5520,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>195</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5391,8 +5559,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>195</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5424,8 +5598,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>195</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5457,8 +5637,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>195</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5487,11 +5673,19 @@
         <v>-4169549.695242342</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>196</v>
+      </c>
+      <c r="J154" t="n">
+        <v>195</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5520,11 +5714,19 @@
         <v>-4169549.695242342</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>195</v>
+      </c>
+      <c r="J155" t="n">
+        <v>195</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5553,11 +5755,19 @@
         <v>-4169549.695242342</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>195</v>
+      </c>
+      <c r="J156" t="n">
+        <v>195</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5591,10 +5801,12 @@
       <c r="I157" t="n">
         <v>195</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>195</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L157" t="n">
@@ -5625,10 +5837,14 @@
         <v>-4169121.175942342</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>195</v>
+      </c>
+      <c r="J158" t="n">
+        <v>195</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5662,10 +5878,14 @@
         <v>-4169121.175942342</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>197</v>
+      </c>
+      <c r="J159" t="n">
+        <v>195</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5699,10 +5919,14 @@
         <v>-4169119.972942342</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>197</v>
+      </c>
+      <c r="J160" t="n">
+        <v>195</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2019-10-30 BackTest ICX.xlsx
+++ b/BackTest/2019-10-30 BackTest ICX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M160"/>
+  <dimension ref="A1:L160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>394.76</v>
       </c>
       <c r="G2" t="n">
-        <v>-6967.77627070707</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>394.76</v>
       </c>
       <c r="G3" t="n">
-        <v>-6967.77627070707</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>98.69</v>
       </c>
       <c r="G4" t="n">
-        <v>-6967.77627070707</v>
-      </c>
-      <c r="H4" t="n">
         <v>2</v>
       </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>7832.071</v>
       </c>
       <c r="G5" t="n">
-        <v>-14799.84727070707</v>
-      </c>
-      <c r="H5" t="n">
         <v>2</v>
       </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>1884.7604</v>
       </c>
       <c r="G6" t="n">
-        <v>-14799.84727070707</v>
-      </c>
-      <c r="H6" t="n">
         <v>2</v>
       </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>1884.7604</v>
       </c>
       <c r="G7" t="n">
-        <v>-14799.84727070707</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>161.4639</v>
       </c>
       <c r="G8" t="n">
-        <v>-14799.84727070707</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>129.1712</v>
       </c>
       <c r="G9" t="n">
-        <v>-14799.84727070707</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>2.5262</v>
       </c>
       <c r="G10" t="n">
-        <v>-14799.84727070707</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>1667.446</v>
       </c>
       <c r="G11" t="n">
-        <v>-14799.84727070707</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>1005.02</v>
       </c>
       <c r="G12" t="n">
-        <v>-14799.84727070707</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>201</v>
       </c>
       <c r="G13" t="n">
-        <v>-14799.84727070707</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>15.3429</v>
       </c>
       <c r="G14" t="n">
-        <v>-14799.84727070707</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>15.23</v>
       </c>
       <c r="G15" t="n">
-        <v>-14784.61727070707</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>1515.15</v>
       </c>
       <c r="G16" t="n">
-        <v>-16299.76727070707</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>303.03</v>
       </c>
       <c r="G17" t="n">
-        <v>-16299.76727070707</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>101.01</v>
       </c>
       <c r="G18" t="n">
-        <v>-16299.76727070707</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>404.04</v>
       </c>
       <c r="G19" t="n">
-        <v>-16299.76727070707</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>404.04</v>
       </c>
       <c r="G20" t="n">
-        <v>-16299.76727070707</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>404.04</v>
       </c>
       <c r="G21" t="n">
-        <v>-16299.76727070707</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>202.02</v>
       </c>
       <c r="G22" t="n">
-        <v>-16299.76727070707</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>1515.15</v>
       </c>
       <c r="G23" t="n">
-        <v>-16299.76727070707</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>166.113</v>
       </c>
       <c r="G24" t="n">
-        <v>-16299.76727070707</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>167.2241</v>
       </c>
       <c r="G25" t="n">
-        <v>-16466.99137070707</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>3932.39</v>
       </c>
       <c r="G26" t="n">
-        <v>-20399.38137070707</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>816.3200000000001</v>
       </c>
       <c r="G27" t="n">
-        <v>-20399.38137070707</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>408.16</v>
       </c>
       <c r="G28" t="n">
-        <v>-20399.38137070707</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>510.2</v>
       </c>
       <c r="G29" t="n">
-        <v>-20399.38137070707</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>204.08</v>
       </c>
       <c r="G30" t="n">
-        <v>-20399.38137070707</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>102.04</v>
       </c>
       <c r="G31" t="n">
-        <v>-20399.38137070707</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>204.08</v>
       </c>
       <c r="G32" t="n">
-        <v>-20399.38137070707</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>408.16</v>
       </c>
       <c r="G33" t="n">
-        <v>-20399.38137070707</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>612.24</v>
       </c>
       <c r="G34" t="n">
-        <v>-20399.38137070707</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>714.28</v>
       </c>
       <c r="G35" t="n">
-        <v>-20399.38137070707</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>816.3200000000001</v>
       </c>
       <c r="G36" t="n">
-        <v>-20399.38137070707</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>204.08</v>
       </c>
       <c r="G37" t="n">
-        <v>-20399.38137070707</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>408.16</v>
       </c>
       <c r="G38" t="n">
-        <v>-20399.38137070707</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>1962.4348</v>
       </c>
       <c r="G39" t="n">
-        <v>-20399.38137070707</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>50</v>
       </c>
       <c r="G40" t="n">
-        <v>-20349.38137070707</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>168.5393</v>
       </c>
       <c r="G41" t="n">
-        <v>-20517.92067070707</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>168.5393</v>
       </c>
       <c r="G42" t="n">
-        <v>-20517.92067070707</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>337.8378</v>
       </c>
       <c r="G43" t="n">
-        <v>-20855.75847070707</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>337.8378</v>
       </c>
       <c r="G44" t="n">
-        <v>-20855.75847070707</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>168.9189</v>
       </c>
       <c r="G45" t="n">
-        <v>-20855.75847070707</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>506.3771</v>
       </c>
       <c r="G46" t="n">
-        <v>-20855.75847070707</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>1961.6235</v>
       </c>
       <c r="G47" t="n">
-        <v>-20855.75847070707</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>2.0408</v>
       </c>
       <c r="G48" t="n">
-        <v>-20853.71767070707</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>6168.0199</v>
       </c>
       <c r="G49" t="n">
-        <v>-27021.73757070707</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>5077.9714</v>
       </c>
       <c r="G50" t="n">
-        <v>-32099.70897070707</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>824.72</v>
       </c>
       <c r="G51" t="n">
-        <v>-32099.70897070707</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>824.72</v>
       </c>
       <c r="G52" t="n">
-        <v>-32099.70897070707</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>395.279</v>
       </c>
       <c r="G53" t="n">
-        <v>-32099.70897070707</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>103.62</v>
       </c>
       <c r="G54" t="n">
-        <v>-32203.32897070707</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>103.62</v>
       </c>
       <c r="G55" t="n">
-        <v>-32203.32897070707</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>207.24</v>
       </c>
       <c r="G56" t="n">
-        <v>-32203.32897070707</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,21 @@
         <v>120.701</v>
       </c>
       <c r="G57" t="n">
-        <v>-32082.62797070707</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2129,19 @@
         <v>11207.2157</v>
       </c>
       <c r="G58" t="n">
-        <v>-32082.62797070707</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2163,21 @@
         <v>35254.7269</v>
       </c>
       <c r="G59" t="n">
-        <v>3172.098929292933</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2199,21 @@
         <v>55941.2327</v>
       </c>
       <c r="G60" t="n">
-        <v>3172.098929292933</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2235,19 @@
         <v>58279.8908</v>
       </c>
       <c r="G61" t="n">
-        <v>3172.098929292933</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2269,21 @@
         <v>30420.0315</v>
       </c>
       <c r="G62" t="n">
-        <v>-27247.93257070707</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2305,21 @@
         <v>32515.3618</v>
       </c>
       <c r="G63" t="n">
-        <v>5267.429229292931</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2341,19 @@
         <v>1340352</v>
       </c>
       <c r="G64" t="n">
-        <v>-1335084.570770707</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2375,19 @@
         <v>308392</v>
       </c>
       <c r="G65" t="n">
-        <v>-1335084.570770707</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2409,19 @@
         <v>1340000</v>
       </c>
       <c r="G66" t="n">
-        <v>-1335084.570770707</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2443,19 @@
         <v>1385000</v>
       </c>
       <c r="G67" t="n">
-        <v>-1335084.570770707</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2477,19 @@
         <v>1350000</v>
       </c>
       <c r="G68" t="n">
-        <v>-1335084.570770707</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2511,19 @@
         <v>1350000</v>
       </c>
       <c r="G69" t="n">
-        <v>-1335084.570770707</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2545,19 @@
         <v>1365000</v>
       </c>
       <c r="G70" t="n">
-        <v>-1335084.570770707</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2579,19 @@
         <v>1365000</v>
       </c>
       <c r="G71" t="n">
-        <v>-1335084.570770707</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2613,19 @@
         <v>1350000</v>
       </c>
       <c r="G72" t="n">
-        <v>-1335084.570770707</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2647,19 @@
         <v>1335000</v>
       </c>
       <c r="G73" t="n">
-        <v>-1335084.570770707</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2681,19 @@
         <v>1336049.8164</v>
       </c>
       <c r="G74" t="n">
-        <v>-1335084.570770707</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2715,19 @@
         <v>1373950.1836</v>
       </c>
       <c r="G75" t="n">
-        <v>-1335084.570770707</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2749,19 @@
         <v>1330000</v>
       </c>
       <c r="G76" t="n">
-        <v>-1335084.570770707</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2783,19 @@
         <v>726049.8164</v>
       </c>
       <c r="G77" t="n">
-        <v>-1335084.570770707</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2817,19 @@
         <v>260000</v>
       </c>
       <c r="G78" t="n">
-        <v>-1595084.570770707</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2851,19 @@
         <v>2730000</v>
       </c>
       <c r="G79" t="n">
-        <v>-1595084.570770707</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2885,19 @@
         <v>1224150.5972</v>
       </c>
       <c r="G80" t="n">
-        <v>-1595084.570770707</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2919,19 @@
         <v>2700000</v>
       </c>
       <c r="G81" t="n">
-        <v>-1595084.570770707</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2953,19 @@
         <v>2734102.564</v>
       </c>
       <c r="G82" t="n">
-        <v>-1595084.570770707</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2987,19 @@
         <v>2748205.128</v>
       </c>
       <c r="G83" t="n">
-        <v>-1595084.570770707</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +3021,19 @@
         <v>2660000</v>
       </c>
       <c r="G84" t="n">
-        <v>-1595084.570770707</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3055,19 @@
         <v>2708383.1022</v>
       </c>
       <c r="G85" t="n">
-        <v>-1595084.570770707</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3089,19 @@
         <v>2690000</v>
       </c>
       <c r="G86" t="n">
-        <v>-1595084.570770707</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3123,19 @@
         <v>2681616.8978</v>
       </c>
       <c r="G87" t="n">
-        <v>-1595084.570770707</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3157,19 @@
         <v>2658383.1022</v>
       </c>
       <c r="G88" t="n">
-        <v>-1595084.570770707</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3191,19 @@
         <v>2664594.723</v>
       </c>
       <c r="G89" t="n">
-        <v>-1595084.570770707</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3225,19 @@
         <v>2690000</v>
       </c>
       <c r="G90" t="n">
-        <v>-1595084.570770707</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3259,19 @@
         <v>830000</v>
       </c>
       <c r="G91" t="n">
-        <v>-1595084.570770707</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3293,19 @@
         <v>134.0326</v>
       </c>
       <c r="G92" t="n">
-        <v>-1595084.570770707</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3327,19 @@
         <v>14726.0999</v>
       </c>
       <c r="G93" t="n">
-        <v>-1595084.570770707</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3361,19 @@
         <v>361306.1609</v>
       </c>
       <c r="G94" t="n">
-        <v>-1595084.570770707</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3395,19 @@
         <v>2680082.564</v>
       </c>
       <c r="G95" t="n">
-        <v>-1595084.570770707</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3429,19 @@
         <v>2695950</v>
       </c>
       <c r="G96" t="n">
-        <v>-1595084.570770707</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3463,19 @@
         <v>2705935</v>
       </c>
       <c r="G97" t="n">
-        <v>-1595084.570770707</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3497,19 @@
         <v>2708191.4031</v>
       </c>
       <c r="G98" t="n">
-        <v>-1595084.570770707</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3531,19 @@
         <v>2556160</v>
       </c>
       <c r="G99" t="n">
-        <v>-1595084.570770707</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3565,19 @@
         <v>197400</v>
       </c>
       <c r="G100" t="n">
-        <v>-1397684.570770707</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3599,19 @@
         <v>1342762.4794</v>
       </c>
       <c r="G101" t="n">
-        <v>-1397684.570770707</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3633,19 @@
         <v>30145</v>
       </c>
       <c r="G102" t="n">
-        <v>-1397684.570770707</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3667,19 @@
         <v>2.9846</v>
       </c>
       <c r="G103" t="n">
-        <v>-1397681.586170707</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3701,19 @@
         <v>723000</v>
       </c>
       <c r="G104" t="n">
-        <v>-2120681.586170707</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3735,19 @@
         <v>801341.5103</v>
       </c>
       <c r="G105" t="n">
-        <v>-2120681.586170707</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3769,19 @@
         <v>806658.4897</v>
       </c>
       <c r="G106" t="n">
-        <v>-2120681.586170707</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3803,19 @@
         <v>810000</v>
       </c>
       <c r="G107" t="n">
-        <v>-2120681.586170707</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3837,19 @@
         <v>810000</v>
       </c>
       <c r="G108" t="n">
-        <v>-2120681.586170707</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3871,19 @@
         <v>807000</v>
       </c>
       <c r="G109" t="n">
-        <v>-2120681.586170707</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3905,19 @@
         <v>807000</v>
       </c>
       <c r="G110" t="n">
-        <v>-2120681.586170707</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3939,19 @@
         <v>804000</v>
       </c>
       <c r="G111" t="n">
-        <v>-2120681.586170707</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3973,19 @@
         <v>810000</v>
       </c>
       <c r="G112" t="n">
-        <v>-2120681.586170707</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +4007,19 @@
         <v>786000</v>
       </c>
       <c r="G113" t="n">
-        <v>-2120681.586170707</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +4041,19 @@
         <v>798238.7772</v>
       </c>
       <c r="G114" t="n">
-        <v>-2120681.586170707</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +4075,19 @@
         <v>855998</v>
       </c>
       <c r="G115" t="n">
-        <v>-2120681.586170707</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +4109,19 @@
         <v>988806</v>
       </c>
       <c r="G116" t="n">
-        <v>-2120681.586170707</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +4143,19 @@
         <v>985184</v>
       </c>
       <c r="G117" t="n">
-        <v>-2120681.586170707</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +4177,19 @@
         <v>974318</v>
       </c>
       <c r="G118" t="n">
-        <v>-2120681.586170707</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +4211,19 @@
         <v>967074</v>
       </c>
       <c r="G119" t="n">
-        <v>-2120681.586170707</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4245,19 @@
         <v>963452</v>
       </c>
       <c r="G120" t="n">
-        <v>-2120681.586170707</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,22 +4279,19 @@
         <v>987562</v>
       </c>
       <c r="G121" t="n">
-        <v>-2120681.586170707</v>
-      </c>
-      <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>195</v>
-      </c>
-      <c r="J121" t="n">
-        <v>195</v>
-      </c>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4412,26 +4313,19 @@
         <v>967176.7331</v>
       </c>
       <c r="G122" t="n">
-        <v>-2120681.586170707</v>
-      </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>195</v>
-      </c>
-      <c r="J122" t="n">
-        <v>195</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4453,26 +4347,19 @@
         <v>449193</v>
       </c>
       <c r="G123" t="n">
-        <v>-1671488.586170707</v>
-      </c>
-      <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>195</v>
-      </c>
-      <c r="J123" t="n">
-        <v>195</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4494,26 +4381,19 @@
         <v>2472854</v>
       </c>
       <c r="G124" t="n">
-        <v>-4144342.586170707</v>
-      </c>
-      <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>196</v>
-      </c>
-      <c r="J124" t="n">
-        <v>195</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4535,24 +4415,19 @@
         <v>2578696</v>
       </c>
       <c r="G125" t="n">
-        <v>-4144342.586170707</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>195</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4574,24 +4449,19 @@
         <v>2597940</v>
       </c>
       <c r="G126" t="n">
-        <v>-4144342.586170707</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>195</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4613,24 +4483,19 @@
         <v>2588318</v>
       </c>
       <c r="G127" t="n">
-        <v>-4144342.586170707</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>195</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4652,24 +4517,19 @@
         <v>2486578.564</v>
       </c>
       <c r="G128" t="n">
-        <v>-4144342.586170707</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>195</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4691,24 +4551,19 @@
         <v>2574593.436</v>
       </c>
       <c r="G129" t="n">
-        <v>-4144342.586170707</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>195</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4730,24 +4585,19 @@
         <v>1202750</v>
       </c>
       <c r="G130" t="n">
-        <v>-4144342.586170707</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>195</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4769,24 +4619,19 @@
         <v>1158742.564</v>
       </c>
       <c r="G131" t="n">
-        <v>-4144342.586170707</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>195</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4808,24 +4653,19 @@
         <v>2597940</v>
       </c>
       <c r="G132" t="n">
-        <v>-4144342.586170707</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>195</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4847,24 +4687,19 @@
         <v>769760</v>
       </c>
       <c r="G133" t="n">
-        <v>-4144342.586170707</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>195</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4886,24 +4721,19 @@
         <v>11292.9021</v>
       </c>
       <c r="G134" t="n">
-        <v>-4144342.586170707</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>195</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4925,24 +4755,19 @@
         <v>17.2602</v>
       </c>
       <c r="G135" t="n">
-        <v>-4144325.325970707</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>195</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4964,24 +4789,19 @@
         <v>2630.6363</v>
       </c>
       <c r="G136" t="n">
-        <v>-4146955.962270707</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>195</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5003,24 +4823,19 @@
         <v>4583.2158</v>
       </c>
       <c r="G137" t="n">
-        <v>-4146955.962270707</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>195</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5042,24 +4857,19 @@
         <v>2775.270408163266</v>
       </c>
       <c r="G138" t="n">
-        <v>-4144180.691862544</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>195</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5081,24 +4891,19 @@
         <v>5000</v>
       </c>
       <c r="G139" t="n">
-        <v>-4149180.691862544</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>195</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5120,24 +4925,19 @@
         <v>4142.9536</v>
       </c>
       <c r="G140" t="n">
-        <v>-4149180.691862544</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>195</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5159,24 +4959,19 @@
         <v>13817.8933</v>
       </c>
       <c r="G141" t="n">
-        <v>-4135362.798562543</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>195</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5198,24 +4993,19 @@
         <v>4482.572691836735</v>
       </c>
       <c r="G142" t="n">
-        <v>-4135362.798562543</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>195</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5237,24 +5027,19 @@
         <v>29446.639</v>
       </c>
       <c r="G143" t="n">
-        <v>-4164809.437562543</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>195</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5276,24 +5061,19 @@
         <v>6015.8114</v>
       </c>
       <c r="G144" t="n">
-        <v>-4164809.437562543</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>195</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5315,26 +5095,19 @@
         <v>201.7945</v>
       </c>
       <c r="G145" t="n">
-        <v>-4164607.643062544</v>
-      </c>
-      <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>195</v>
-      </c>
-      <c r="J145" t="n">
-        <v>195</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5356,26 +5129,19 @@
         <v>17.7020202020202</v>
       </c>
       <c r="G146" t="n">
-        <v>-4164589.941042342</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>196</v>
-      </c>
-      <c r="J146" t="n">
-        <v>195</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5397,24 +5163,19 @@
         <v>1.0656</v>
       </c>
       <c r="G147" t="n">
-        <v>-4164589.941042342</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>195</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5436,24 +5197,19 @@
         <v>2.9925</v>
       </c>
       <c r="G148" t="n">
-        <v>-4164592.933542342</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>195</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5475,24 +5231,19 @@
         <v>8187.2198</v>
       </c>
       <c r="G149" t="n">
-        <v>-4164592.933542342</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>195</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5514,24 +5265,19 @@
         <v>5128.2051</v>
       </c>
       <c r="G150" t="n">
-        <v>-4164592.933542342</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>195</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5553,24 +5299,19 @@
         <v>1.0654</v>
       </c>
       <c r="G151" t="n">
-        <v>-4164591.868142342</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>195</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5592,24 +5333,19 @@
         <v>4871.0894</v>
       </c>
       <c r="G152" t="n">
-        <v>-4169462.957542342</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>195</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5631,24 +5367,19 @@
         <v>428.5193</v>
       </c>
       <c r="G153" t="n">
-        <v>-4169462.957542342</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>195</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5670,26 +5401,19 @@
         <v>86.7377</v>
       </c>
       <c r="G154" t="n">
-        <v>-4169549.695242342</v>
-      </c>
-      <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>196</v>
-      </c>
-      <c r="J154" t="n">
-        <v>195</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5711,26 +5435,19 @@
         <v>1044.3742</v>
       </c>
       <c r="G155" t="n">
-        <v>-4169549.695242342</v>
-      </c>
-      <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>195</v>
-      </c>
-      <c r="J155" t="n">
-        <v>195</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5752,26 +5469,19 @@
         <v>4000</v>
       </c>
       <c r="G156" t="n">
-        <v>-4169549.695242342</v>
-      </c>
-      <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>195</v>
-      </c>
-      <c r="J156" t="n">
-        <v>195</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5793,26 +5503,19 @@
         <v>1571.4642</v>
       </c>
       <c r="G157" t="n">
-        <v>-4169549.695242342</v>
-      </c>
-      <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>195</v>
-      </c>
-      <c r="J157" t="n">
-        <v>195</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5834,26 +5537,19 @@
         <v>428.5193</v>
       </c>
       <c r="G158" t="n">
-        <v>-4169121.175942342</v>
-      </c>
-      <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>195</v>
-      </c>
-      <c r="J158" t="n">
-        <v>195</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5875,26 +5571,19 @@
         <v>237.5425</v>
       </c>
       <c r="G159" t="n">
-        <v>-4169121.175942342</v>
-      </c>
-      <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>197</v>
-      </c>
-      <c r="J159" t="n">
-        <v>195</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5916,26 +5605,19 @@
         <v>1.203</v>
       </c>
       <c r="G160" t="n">
-        <v>-4169119.972942342</v>
-      </c>
-      <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>197</v>
-      </c>
-      <c r="J160" t="n">
-        <v>195</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
